--- a/doc/v3/design 2.xlsx
+++ b/doc/v3/design 2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\citizen-account\doc\v3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA009F-F0FF-4DDB-9AE4-82A5B11733AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="75">
   <si>
     <t>الملاحظة</t>
   </si>
@@ -225,33 +234,32 @@
   </si>
   <si>
     <t>حقل التاريخ الميلادي غير موجود كما في حال الضغط على زر ارسال ويوجد حقل ناقص لا يظهر رسائل الخطا ويعود لتابز متابعة الطلب كما حقول الأرقام تقبل احرف</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CSS3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +276,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,127 +450,247 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+  <cellXfs count="85">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,25 +700,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffcfcfcf"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFCFCFCF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -774,7 +980,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -793,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,9 +1250,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1063,7 +1275,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1082,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,9 +1541,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1345,7 +1563,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1364,7 +1582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,7 +1612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1446,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1576,7 +1794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1602,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,47 +1833,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1" defaultGridColor="1"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="47" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="48" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7"/>
@@ -1664,437 +1892,4715 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s" s="10">
+    <row r="3" spans="1:256" s="65" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="D3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="62">
         <v>1</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" s="61" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="64"/>
+      <c r="CJ3" s="64"/>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="CY3" s="64"/>
+      <c r="CZ3" s="64"/>
+      <c r="DA3" s="64"/>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="64"/>
+      <c r="DG3" s="64"/>
+      <c r="DH3" s="64"/>
+      <c r="DI3" s="64"/>
+      <c r="DJ3" s="64"/>
+      <c r="DK3" s="64"/>
+      <c r="DL3" s="64"/>
+      <c r="DM3" s="64"/>
+      <c r="DN3" s="64"/>
+      <c r="DO3" s="64"/>
+      <c r="DP3" s="64"/>
+      <c r="DQ3" s="64"/>
+      <c r="DR3" s="64"/>
+      <c r="DS3" s="64"/>
+      <c r="DT3" s="64"/>
+      <c r="DU3" s="64"/>
+      <c r="DV3" s="64"/>
+      <c r="DW3" s="64"/>
+      <c r="DX3" s="64"/>
+      <c r="DY3" s="64"/>
+      <c r="DZ3" s="64"/>
+      <c r="EA3" s="64"/>
+      <c r="EB3" s="64"/>
+      <c r="EC3" s="64"/>
+      <c r="ED3" s="64"/>
+      <c r="EE3" s="64"/>
+      <c r="EF3" s="64"/>
+      <c r="EG3" s="64"/>
+      <c r="EH3" s="64"/>
+      <c r="EI3" s="64"/>
+      <c r="EJ3" s="64"/>
+      <c r="EK3" s="64"/>
+      <c r="EL3" s="64"/>
+      <c r="EM3" s="64"/>
+      <c r="EN3" s="64"/>
+      <c r="EO3" s="64"/>
+      <c r="EP3" s="64"/>
+      <c r="EQ3" s="64"/>
+      <c r="ER3" s="64"/>
+      <c r="ES3" s="64"/>
+      <c r="ET3" s="64"/>
+      <c r="EU3" s="64"/>
+      <c r="EV3" s="64"/>
+      <c r="EW3" s="64"/>
+      <c r="EX3" s="64"/>
+      <c r="EY3" s="64"/>
+      <c r="EZ3" s="64"/>
+      <c r="FA3" s="64"/>
+      <c r="FB3" s="64"/>
+      <c r="FC3" s="64"/>
+      <c r="FD3" s="64"/>
+      <c r="FE3" s="64"/>
+      <c r="FF3" s="64"/>
+      <c r="FG3" s="64"/>
+      <c r="FH3" s="64"/>
+      <c r="FI3" s="64"/>
+      <c r="FJ3" s="64"/>
+      <c r="FK3" s="64"/>
+      <c r="FL3" s="64"/>
+      <c r="FM3" s="64"/>
+      <c r="FN3" s="64"/>
+      <c r="FO3" s="64"/>
+      <c r="FP3" s="64"/>
+      <c r="FQ3" s="64"/>
+      <c r="FR3" s="64"/>
+      <c r="FS3" s="64"/>
+      <c r="FT3" s="64"/>
+      <c r="FU3" s="64"/>
+      <c r="FV3" s="64"/>
+      <c r="FW3" s="64"/>
+      <c r="FX3" s="64"/>
+      <c r="FY3" s="64"/>
+      <c r="FZ3" s="64"/>
+      <c r="GA3" s="64"/>
+      <c r="GB3" s="64"/>
+      <c r="GC3" s="64"/>
+      <c r="GD3" s="64"/>
+      <c r="GE3" s="64"/>
+      <c r="GF3" s="64"/>
+      <c r="GG3" s="64"/>
+      <c r="GH3" s="64"/>
+      <c r="GI3" s="64"/>
+      <c r="GJ3" s="64"/>
+      <c r="GK3" s="64"/>
+      <c r="GL3" s="64"/>
+      <c r="GM3" s="64"/>
+      <c r="GN3" s="64"/>
+      <c r="GO3" s="64"/>
+      <c r="GP3" s="64"/>
+      <c r="GQ3" s="64"/>
+      <c r="GR3" s="64"/>
+      <c r="GS3" s="64"/>
+      <c r="GT3" s="64"/>
+      <c r="GU3" s="64"/>
+      <c r="GV3" s="64"/>
+      <c r="GW3" s="64"/>
+      <c r="GX3" s="64"/>
+      <c r="GY3" s="64"/>
+      <c r="GZ3" s="64"/>
+      <c r="HA3" s="64"/>
+      <c r="HB3" s="64"/>
+      <c r="HC3" s="64"/>
+      <c r="HD3" s="64"/>
+      <c r="HE3" s="64"/>
+      <c r="HF3" s="64"/>
+      <c r="HG3" s="64"/>
+      <c r="HH3" s="64"/>
+      <c r="HI3" s="64"/>
+      <c r="HJ3" s="64"/>
+      <c r="HK3" s="64"/>
+      <c r="HL3" s="64"/>
+      <c r="HM3" s="64"/>
+      <c r="HN3" s="64"/>
+      <c r="HO3" s="64"/>
+      <c r="HP3" s="64"/>
+      <c r="HQ3" s="64"/>
+      <c r="HR3" s="64"/>
+      <c r="HS3" s="64"/>
+      <c r="HT3" s="64"/>
+      <c r="HU3" s="64"/>
+      <c r="HV3" s="64"/>
+      <c r="HW3" s="64"/>
+      <c r="HX3" s="64"/>
+      <c r="HY3" s="64"/>
+      <c r="HZ3" s="64"/>
+      <c r="IA3" s="64"/>
+      <c r="IB3" s="64"/>
+      <c r="IC3" s="64"/>
+      <c r="ID3" s="64"/>
+      <c r="IE3" s="64"/>
+      <c r="IF3" s="64"/>
+      <c r="IG3" s="64"/>
+      <c r="IH3" s="64"/>
+      <c r="II3" s="64"/>
+      <c r="IJ3" s="64"/>
+      <c r="IK3" s="64"/>
+      <c r="IL3" s="64"/>
+      <c r="IM3" s="64"/>
+      <c r="IN3" s="64"/>
+      <c r="IO3" s="64"/>
+      <c r="IP3" s="64"/>
+      <c r="IQ3" s="64"/>
+      <c r="IR3" s="64"/>
+      <c r="IS3" s="64"/>
+      <c r="IT3" s="64"/>
+      <c r="IU3" s="64"/>
+      <c r="IV3" s="64"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13"/>
-      <c r="C4" t="s" s="11">
+    <row r="4" spans="1:256" s="65" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="62">
         <v>1</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" s="61" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BS4" s="64"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="64"/>
+      <c r="BV4" s="64"/>
+      <c r="BW4" s="64"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="64"/>
+      <c r="BZ4" s="64"/>
+      <c r="CA4" s="64"/>
+      <c r="CB4" s="64"/>
+      <c r="CC4" s="64"/>
+      <c r="CD4" s="64"/>
+      <c r="CE4" s="64"/>
+      <c r="CF4" s="64"/>
+      <c r="CG4" s="64"/>
+      <c r="CH4" s="64"/>
+      <c r="CI4" s="64"/>
+      <c r="CJ4" s="64"/>
+      <c r="CK4" s="64"/>
+      <c r="CL4" s="64"/>
+      <c r="CM4" s="64"/>
+      <c r="CN4" s="64"/>
+      <c r="CO4" s="64"/>
+      <c r="CP4" s="64"/>
+      <c r="CQ4" s="64"/>
+      <c r="CR4" s="64"/>
+      <c r="CS4" s="64"/>
+      <c r="CT4" s="64"/>
+      <c r="CU4" s="64"/>
+      <c r="CV4" s="64"/>
+      <c r="CW4" s="64"/>
+      <c r="CX4" s="64"/>
+      <c r="CY4" s="64"/>
+      <c r="CZ4" s="64"/>
+      <c r="DA4" s="64"/>
+      <c r="DB4" s="64"/>
+      <c r="DC4" s="64"/>
+      <c r="DD4" s="64"/>
+      <c r="DE4" s="64"/>
+      <c r="DF4" s="64"/>
+      <c r="DG4" s="64"/>
+      <c r="DH4" s="64"/>
+      <c r="DI4" s="64"/>
+      <c r="DJ4" s="64"/>
+      <c r="DK4" s="64"/>
+      <c r="DL4" s="64"/>
+      <c r="DM4" s="64"/>
+      <c r="DN4" s="64"/>
+      <c r="DO4" s="64"/>
+      <c r="DP4" s="64"/>
+      <c r="DQ4" s="64"/>
+      <c r="DR4" s="64"/>
+      <c r="DS4" s="64"/>
+      <c r="DT4" s="64"/>
+      <c r="DU4" s="64"/>
+      <c r="DV4" s="64"/>
+      <c r="DW4" s="64"/>
+      <c r="DX4" s="64"/>
+      <c r="DY4" s="64"/>
+      <c r="DZ4" s="64"/>
+      <c r="EA4" s="64"/>
+      <c r="EB4" s="64"/>
+      <c r="EC4" s="64"/>
+      <c r="ED4" s="64"/>
+      <c r="EE4" s="64"/>
+      <c r="EF4" s="64"/>
+      <c r="EG4" s="64"/>
+      <c r="EH4" s="64"/>
+      <c r="EI4" s="64"/>
+      <c r="EJ4" s="64"/>
+      <c r="EK4" s="64"/>
+      <c r="EL4" s="64"/>
+      <c r="EM4" s="64"/>
+      <c r="EN4" s="64"/>
+      <c r="EO4" s="64"/>
+      <c r="EP4" s="64"/>
+      <c r="EQ4" s="64"/>
+      <c r="ER4" s="64"/>
+      <c r="ES4" s="64"/>
+      <c r="ET4" s="64"/>
+      <c r="EU4" s="64"/>
+      <c r="EV4" s="64"/>
+      <c r="EW4" s="64"/>
+      <c r="EX4" s="64"/>
+      <c r="EY4" s="64"/>
+      <c r="EZ4" s="64"/>
+      <c r="FA4" s="64"/>
+      <c r="FB4" s="64"/>
+      <c r="FC4" s="64"/>
+      <c r="FD4" s="64"/>
+      <c r="FE4" s="64"/>
+      <c r="FF4" s="64"/>
+      <c r="FG4" s="64"/>
+      <c r="FH4" s="64"/>
+      <c r="FI4" s="64"/>
+      <c r="FJ4" s="64"/>
+      <c r="FK4" s="64"/>
+      <c r="FL4" s="64"/>
+      <c r="FM4" s="64"/>
+      <c r="FN4" s="64"/>
+      <c r="FO4" s="64"/>
+      <c r="FP4" s="64"/>
+      <c r="FQ4" s="64"/>
+      <c r="FR4" s="64"/>
+      <c r="FS4" s="64"/>
+      <c r="FT4" s="64"/>
+      <c r="FU4" s="64"/>
+      <c r="FV4" s="64"/>
+      <c r="FW4" s="64"/>
+      <c r="FX4" s="64"/>
+      <c r="FY4" s="64"/>
+      <c r="FZ4" s="64"/>
+      <c r="GA4" s="64"/>
+      <c r="GB4" s="64"/>
+      <c r="GC4" s="64"/>
+      <c r="GD4" s="64"/>
+      <c r="GE4" s="64"/>
+      <c r="GF4" s="64"/>
+      <c r="GG4" s="64"/>
+      <c r="GH4" s="64"/>
+      <c r="GI4" s="64"/>
+      <c r="GJ4" s="64"/>
+      <c r="GK4" s="64"/>
+      <c r="GL4" s="64"/>
+      <c r="GM4" s="64"/>
+      <c r="GN4" s="64"/>
+      <c r="GO4" s="64"/>
+      <c r="GP4" s="64"/>
+      <c r="GQ4" s="64"/>
+      <c r="GR4" s="64"/>
+      <c r="GS4" s="64"/>
+      <c r="GT4" s="64"/>
+      <c r="GU4" s="64"/>
+      <c r="GV4" s="64"/>
+      <c r="GW4" s="64"/>
+      <c r="GX4" s="64"/>
+      <c r="GY4" s="64"/>
+      <c r="GZ4" s="64"/>
+      <c r="HA4" s="64"/>
+      <c r="HB4" s="64"/>
+      <c r="HC4" s="64"/>
+      <c r="HD4" s="64"/>
+      <c r="HE4" s="64"/>
+      <c r="HF4" s="64"/>
+      <c r="HG4" s="64"/>
+      <c r="HH4" s="64"/>
+      <c r="HI4" s="64"/>
+      <c r="HJ4" s="64"/>
+      <c r="HK4" s="64"/>
+      <c r="HL4" s="64"/>
+      <c r="HM4" s="64"/>
+      <c r="HN4" s="64"/>
+      <c r="HO4" s="64"/>
+      <c r="HP4" s="64"/>
+      <c r="HQ4" s="64"/>
+      <c r="HR4" s="64"/>
+      <c r="HS4" s="64"/>
+      <c r="HT4" s="64"/>
+      <c r="HU4" s="64"/>
+      <c r="HV4" s="64"/>
+      <c r="HW4" s="64"/>
+      <c r="HX4" s="64"/>
+      <c r="HY4" s="64"/>
+      <c r="HZ4" s="64"/>
+      <c r="IA4" s="64"/>
+      <c r="IB4" s="64"/>
+      <c r="IC4" s="64"/>
+      <c r="ID4" s="64"/>
+      <c r="IE4" s="64"/>
+      <c r="IF4" s="64"/>
+      <c r="IG4" s="64"/>
+      <c r="IH4" s="64"/>
+      <c r="II4" s="64"/>
+      <c r="IJ4" s="64"/>
+      <c r="IK4" s="64"/>
+      <c r="IL4" s="64"/>
+      <c r="IM4" s="64"/>
+      <c r="IN4" s="64"/>
+      <c r="IO4" s="64"/>
+      <c r="IP4" s="64"/>
+      <c r="IQ4" s="64"/>
+      <c r="IR4" s="64"/>
+      <c r="IS4" s="64"/>
+      <c r="IT4" s="64"/>
+      <c r="IU4" s="64"/>
+      <c r="IV4" s="64"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13"/>
-      <c r="C5" t="s" s="11">
+    <row r="5" spans="1:256" s="65" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="62">
         <v>1</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" s="61" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="64"/>
+      <c r="BK5" s="64"/>
+      <c r="BL5" s="64"/>
+      <c r="BM5" s="64"/>
+      <c r="BN5" s="64"/>
+      <c r="BO5" s="64"/>
+      <c r="BP5" s="64"/>
+      <c r="BQ5" s="64"/>
+      <c r="BR5" s="64"/>
+      <c r="BS5" s="64"/>
+      <c r="BT5" s="64"/>
+      <c r="BU5" s="64"/>
+      <c r="BV5" s="64"/>
+      <c r="BW5" s="64"/>
+      <c r="BX5" s="64"/>
+      <c r="BY5" s="64"/>
+      <c r="BZ5" s="64"/>
+      <c r="CA5" s="64"/>
+      <c r="CB5" s="64"/>
+      <c r="CC5" s="64"/>
+      <c r="CD5" s="64"/>
+      <c r="CE5" s="64"/>
+      <c r="CF5" s="64"/>
+      <c r="CG5" s="64"/>
+      <c r="CH5" s="64"/>
+      <c r="CI5" s="64"/>
+      <c r="CJ5" s="64"/>
+      <c r="CK5" s="64"/>
+      <c r="CL5" s="64"/>
+      <c r="CM5" s="64"/>
+      <c r="CN5" s="64"/>
+      <c r="CO5" s="64"/>
+      <c r="CP5" s="64"/>
+      <c r="CQ5" s="64"/>
+      <c r="CR5" s="64"/>
+      <c r="CS5" s="64"/>
+      <c r="CT5" s="64"/>
+      <c r="CU5" s="64"/>
+      <c r="CV5" s="64"/>
+      <c r="CW5" s="64"/>
+      <c r="CX5" s="64"/>
+      <c r="CY5" s="64"/>
+      <c r="CZ5" s="64"/>
+      <c r="DA5" s="64"/>
+      <c r="DB5" s="64"/>
+      <c r="DC5" s="64"/>
+      <c r="DD5" s="64"/>
+      <c r="DE5" s="64"/>
+      <c r="DF5" s="64"/>
+      <c r="DG5" s="64"/>
+      <c r="DH5" s="64"/>
+      <c r="DI5" s="64"/>
+      <c r="DJ5" s="64"/>
+      <c r="DK5" s="64"/>
+      <c r="DL5" s="64"/>
+      <c r="DM5" s="64"/>
+      <c r="DN5" s="64"/>
+      <c r="DO5" s="64"/>
+      <c r="DP5" s="64"/>
+      <c r="DQ5" s="64"/>
+      <c r="DR5" s="64"/>
+      <c r="DS5" s="64"/>
+      <c r="DT5" s="64"/>
+      <c r="DU5" s="64"/>
+      <c r="DV5" s="64"/>
+      <c r="DW5" s="64"/>
+      <c r="DX5" s="64"/>
+      <c r="DY5" s="64"/>
+      <c r="DZ5" s="64"/>
+      <c r="EA5" s="64"/>
+      <c r="EB5" s="64"/>
+      <c r="EC5" s="64"/>
+      <c r="ED5" s="64"/>
+      <c r="EE5" s="64"/>
+      <c r="EF5" s="64"/>
+      <c r="EG5" s="64"/>
+      <c r="EH5" s="64"/>
+      <c r="EI5" s="64"/>
+      <c r="EJ5" s="64"/>
+      <c r="EK5" s="64"/>
+      <c r="EL5" s="64"/>
+      <c r="EM5" s="64"/>
+      <c r="EN5" s="64"/>
+      <c r="EO5" s="64"/>
+      <c r="EP5" s="64"/>
+      <c r="EQ5" s="64"/>
+      <c r="ER5" s="64"/>
+      <c r="ES5" s="64"/>
+      <c r="ET5" s="64"/>
+      <c r="EU5" s="64"/>
+      <c r="EV5" s="64"/>
+      <c r="EW5" s="64"/>
+      <c r="EX5" s="64"/>
+      <c r="EY5" s="64"/>
+      <c r="EZ5" s="64"/>
+      <c r="FA5" s="64"/>
+      <c r="FB5" s="64"/>
+      <c r="FC5" s="64"/>
+      <c r="FD5" s="64"/>
+      <c r="FE5" s="64"/>
+      <c r="FF5" s="64"/>
+      <c r="FG5" s="64"/>
+      <c r="FH5" s="64"/>
+      <c r="FI5" s="64"/>
+      <c r="FJ5" s="64"/>
+      <c r="FK5" s="64"/>
+      <c r="FL5" s="64"/>
+      <c r="FM5" s="64"/>
+      <c r="FN5" s="64"/>
+      <c r="FO5" s="64"/>
+      <c r="FP5" s="64"/>
+      <c r="FQ5" s="64"/>
+      <c r="FR5" s="64"/>
+      <c r="FS5" s="64"/>
+      <c r="FT5" s="64"/>
+      <c r="FU5" s="64"/>
+      <c r="FV5" s="64"/>
+      <c r="FW5" s="64"/>
+      <c r="FX5" s="64"/>
+      <c r="FY5" s="64"/>
+      <c r="FZ5" s="64"/>
+      <c r="GA5" s="64"/>
+      <c r="GB5" s="64"/>
+      <c r="GC5" s="64"/>
+      <c r="GD5" s="64"/>
+      <c r="GE5" s="64"/>
+      <c r="GF5" s="64"/>
+      <c r="GG5" s="64"/>
+      <c r="GH5" s="64"/>
+      <c r="GI5" s="64"/>
+      <c r="GJ5" s="64"/>
+      <c r="GK5" s="64"/>
+      <c r="GL5" s="64"/>
+      <c r="GM5" s="64"/>
+      <c r="GN5" s="64"/>
+      <c r="GO5" s="64"/>
+      <c r="GP5" s="64"/>
+      <c r="GQ5" s="64"/>
+      <c r="GR5" s="64"/>
+      <c r="GS5" s="64"/>
+      <c r="GT5" s="64"/>
+      <c r="GU5" s="64"/>
+      <c r="GV5" s="64"/>
+      <c r="GW5" s="64"/>
+      <c r="GX5" s="64"/>
+      <c r="GY5" s="64"/>
+      <c r="GZ5" s="64"/>
+      <c r="HA5" s="64"/>
+      <c r="HB5" s="64"/>
+      <c r="HC5" s="64"/>
+      <c r="HD5" s="64"/>
+      <c r="HE5" s="64"/>
+      <c r="HF5" s="64"/>
+      <c r="HG5" s="64"/>
+      <c r="HH5" s="64"/>
+      <c r="HI5" s="64"/>
+      <c r="HJ5" s="64"/>
+      <c r="HK5" s="64"/>
+      <c r="HL5" s="64"/>
+      <c r="HM5" s="64"/>
+      <c r="HN5" s="64"/>
+      <c r="HO5" s="64"/>
+      <c r="HP5" s="64"/>
+      <c r="HQ5" s="64"/>
+      <c r="HR5" s="64"/>
+      <c r="HS5" s="64"/>
+      <c r="HT5" s="64"/>
+      <c r="HU5" s="64"/>
+      <c r="HV5" s="64"/>
+      <c r="HW5" s="64"/>
+      <c r="HX5" s="64"/>
+      <c r="HY5" s="64"/>
+      <c r="HZ5" s="64"/>
+      <c r="IA5" s="64"/>
+      <c r="IB5" s="64"/>
+      <c r="IC5" s="64"/>
+      <c r="ID5" s="64"/>
+      <c r="IE5" s="64"/>
+      <c r="IF5" s="64"/>
+      <c r="IG5" s="64"/>
+      <c r="IH5" s="64"/>
+      <c r="II5" s="64"/>
+      <c r="IJ5" s="64"/>
+      <c r="IK5" s="64"/>
+      <c r="IL5" s="64"/>
+      <c r="IM5" s="64"/>
+      <c r="IN5" s="64"/>
+      <c r="IO5" s="64"/>
+      <c r="IP5" s="64"/>
+      <c r="IQ5" s="64"/>
+      <c r="IR5" s="64"/>
+      <c r="IS5" s="64"/>
+      <c r="IT5" s="64"/>
+      <c r="IU5" s="64"/>
+      <c r="IV5" s="64"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" t="s" s="11">
+    <row r="6" spans="1:256" s="65" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="62">
         <v>1</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" s="61" t="s">
         <v>6</v>
       </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64"/>
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="64"/>
+      <c r="BP6" s="64"/>
+      <c r="BQ6" s="64"/>
+      <c r="BR6" s="64"/>
+      <c r="BS6" s="64"/>
+      <c r="BT6" s="64"/>
+      <c r="BU6" s="64"/>
+      <c r="BV6" s="64"/>
+      <c r="BW6" s="64"/>
+      <c r="BX6" s="64"/>
+      <c r="BY6" s="64"/>
+      <c r="BZ6" s="64"/>
+      <c r="CA6" s="64"/>
+      <c r="CB6" s="64"/>
+      <c r="CC6" s="64"/>
+      <c r="CD6" s="64"/>
+      <c r="CE6" s="64"/>
+      <c r="CF6" s="64"/>
+      <c r="CG6" s="64"/>
+      <c r="CH6" s="64"/>
+      <c r="CI6" s="64"/>
+      <c r="CJ6" s="64"/>
+      <c r="CK6" s="64"/>
+      <c r="CL6" s="64"/>
+      <c r="CM6" s="64"/>
+      <c r="CN6" s="64"/>
+      <c r="CO6" s="64"/>
+      <c r="CP6" s="64"/>
+      <c r="CQ6" s="64"/>
+      <c r="CR6" s="64"/>
+      <c r="CS6" s="64"/>
+      <c r="CT6" s="64"/>
+      <c r="CU6" s="64"/>
+      <c r="CV6" s="64"/>
+      <c r="CW6" s="64"/>
+      <c r="CX6" s="64"/>
+      <c r="CY6" s="64"/>
+      <c r="CZ6" s="64"/>
+      <c r="DA6" s="64"/>
+      <c r="DB6" s="64"/>
+      <c r="DC6" s="64"/>
+      <c r="DD6" s="64"/>
+      <c r="DE6" s="64"/>
+      <c r="DF6" s="64"/>
+      <c r="DG6" s="64"/>
+      <c r="DH6" s="64"/>
+      <c r="DI6" s="64"/>
+      <c r="DJ6" s="64"/>
+      <c r="DK6" s="64"/>
+      <c r="DL6" s="64"/>
+      <c r="DM6" s="64"/>
+      <c r="DN6" s="64"/>
+      <c r="DO6" s="64"/>
+      <c r="DP6" s="64"/>
+      <c r="DQ6" s="64"/>
+      <c r="DR6" s="64"/>
+      <c r="DS6" s="64"/>
+      <c r="DT6" s="64"/>
+      <c r="DU6" s="64"/>
+      <c r="DV6" s="64"/>
+      <c r="DW6" s="64"/>
+      <c r="DX6" s="64"/>
+      <c r="DY6" s="64"/>
+      <c r="DZ6" s="64"/>
+      <c r="EA6" s="64"/>
+      <c r="EB6" s="64"/>
+      <c r="EC6" s="64"/>
+      <c r="ED6" s="64"/>
+      <c r="EE6" s="64"/>
+      <c r="EF6" s="64"/>
+      <c r="EG6" s="64"/>
+      <c r="EH6" s="64"/>
+      <c r="EI6" s="64"/>
+      <c r="EJ6" s="64"/>
+      <c r="EK6" s="64"/>
+      <c r="EL6" s="64"/>
+      <c r="EM6" s="64"/>
+      <c r="EN6" s="64"/>
+      <c r="EO6" s="64"/>
+      <c r="EP6" s="64"/>
+      <c r="EQ6" s="64"/>
+      <c r="ER6" s="64"/>
+      <c r="ES6" s="64"/>
+      <c r="ET6" s="64"/>
+      <c r="EU6" s="64"/>
+      <c r="EV6" s="64"/>
+      <c r="EW6" s="64"/>
+      <c r="EX6" s="64"/>
+      <c r="EY6" s="64"/>
+      <c r="EZ6" s="64"/>
+      <c r="FA6" s="64"/>
+      <c r="FB6" s="64"/>
+      <c r="FC6" s="64"/>
+      <c r="FD6" s="64"/>
+      <c r="FE6" s="64"/>
+      <c r="FF6" s="64"/>
+      <c r="FG6" s="64"/>
+      <c r="FH6" s="64"/>
+      <c r="FI6" s="64"/>
+      <c r="FJ6" s="64"/>
+      <c r="FK6" s="64"/>
+      <c r="FL6" s="64"/>
+      <c r="FM6" s="64"/>
+      <c r="FN6" s="64"/>
+      <c r="FO6" s="64"/>
+      <c r="FP6" s="64"/>
+      <c r="FQ6" s="64"/>
+      <c r="FR6" s="64"/>
+      <c r="FS6" s="64"/>
+      <c r="FT6" s="64"/>
+      <c r="FU6" s="64"/>
+      <c r="FV6" s="64"/>
+      <c r="FW6" s="64"/>
+      <c r="FX6" s="64"/>
+      <c r="FY6" s="64"/>
+      <c r="FZ6" s="64"/>
+      <c r="GA6" s="64"/>
+      <c r="GB6" s="64"/>
+      <c r="GC6" s="64"/>
+      <c r="GD6" s="64"/>
+      <c r="GE6" s="64"/>
+      <c r="GF6" s="64"/>
+      <c r="GG6" s="64"/>
+      <c r="GH6" s="64"/>
+      <c r="GI6" s="64"/>
+      <c r="GJ6" s="64"/>
+      <c r="GK6" s="64"/>
+      <c r="GL6" s="64"/>
+      <c r="GM6" s="64"/>
+      <c r="GN6" s="64"/>
+      <c r="GO6" s="64"/>
+      <c r="GP6" s="64"/>
+      <c r="GQ6" s="64"/>
+      <c r="GR6" s="64"/>
+      <c r="GS6" s="64"/>
+      <c r="GT6" s="64"/>
+      <c r="GU6" s="64"/>
+      <c r="GV6" s="64"/>
+      <c r="GW6" s="64"/>
+      <c r="GX6" s="64"/>
+      <c r="GY6" s="64"/>
+      <c r="GZ6" s="64"/>
+      <c r="HA6" s="64"/>
+      <c r="HB6" s="64"/>
+      <c r="HC6" s="64"/>
+      <c r="HD6" s="64"/>
+      <c r="HE6" s="64"/>
+      <c r="HF6" s="64"/>
+      <c r="HG6" s="64"/>
+      <c r="HH6" s="64"/>
+      <c r="HI6" s="64"/>
+      <c r="HJ6" s="64"/>
+      <c r="HK6" s="64"/>
+      <c r="HL6" s="64"/>
+      <c r="HM6" s="64"/>
+      <c r="HN6" s="64"/>
+      <c r="HO6" s="64"/>
+      <c r="HP6" s="64"/>
+      <c r="HQ6" s="64"/>
+      <c r="HR6" s="64"/>
+      <c r="HS6" s="64"/>
+      <c r="HT6" s="64"/>
+      <c r="HU6" s="64"/>
+      <c r="HV6" s="64"/>
+      <c r="HW6" s="64"/>
+      <c r="HX6" s="64"/>
+      <c r="HY6" s="64"/>
+      <c r="HZ6" s="64"/>
+      <c r="IA6" s="64"/>
+      <c r="IB6" s="64"/>
+      <c r="IC6" s="64"/>
+      <c r="ID6" s="64"/>
+      <c r="IE6" s="64"/>
+      <c r="IF6" s="64"/>
+      <c r="IG6" s="64"/>
+      <c r="IH6" s="64"/>
+      <c r="II6" s="64"/>
+      <c r="IJ6" s="64"/>
+      <c r="IK6" s="64"/>
+      <c r="IL6" s="64"/>
+      <c r="IM6" s="64"/>
+      <c r="IN6" s="64"/>
+      <c r="IO6" s="64"/>
+      <c r="IP6" s="64"/>
+      <c r="IQ6" s="64"/>
+      <c r="IR6" s="64"/>
+      <c r="IS6" s="64"/>
+      <c r="IT6" s="64"/>
+      <c r="IU6" s="64"/>
+      <c r="IV6" s="64"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
-    <row r="8" ht="95.1" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s" s="10">
+    <row r="8" spans="1:256" s="75" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="72">
         <v>2</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" s="70" t="s">
         <v>16</v>
       </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
+      <c r="CC8" s="74"/>
+      <c r="CD8" s="74"/>
+      <c r="CE8" s="74"/>
+      <c r="CF8" s="74"/>
+      <c r="CG8" s="74"/>
+      <c r="CH8" s="74"/>
+      <c r="CI8" s="74"/>
+      <c r="CJ8" s="74"/>
+      <c r="CK8" s="74"/>
+      <c r="CL8" s="74"/>
+      <c r="CM8" s="74"/>
+      <c r="CN8" s="74"/>
+      <c r="CO8" s="74"/>
+      <c r="CP8" s="74"/>
+      <c r="CQ8" s="74"/>
+      <c r="CR8" s="74"/>
+      <c r="CS8" s="74"/>
+      <c r="CT8" s="74"/>
+      <c r="CU8" s="74"/>
+      <c r="CV8" s="74"/>
+      <c r="CW8" s="74"/>
+      <c r="CX8" s="74"/>
+      <c r="CY8" s="74"/>
+      <c r="CZ8" s="74"/>
+      <c r="DA8" s="74"/>
+      <c r="DB8" s="74"/>
+      <c r="DC8" s="74"/>
+      <c r="DD8" s="74"/>
+      <c r="DE8" s="74"/>
+      <c r="DF8" s="74"/>
+      <c r="DG8" s="74"/>
+      <c r="DH8" s="74"/>
+      <c r="DI8" s="74"/>
+      <c r="DJ8" s="74"/>
+      <c r="DK8" s="74"/>
+      <c r="DL8" s="74"/>
+      <c r="DM8" s="74"/>
+      <c r="DN8" s="74"/>
+      <c r="DO8" s="74"/>
+      <c r="DP8" s="74"/>
+      <c r="DQ8" s="74"/>
+      <c r="DR8" s="74"/>
+      <c r="DS8" s="74"/>
+      <c r="DT8" s="74"/>
+      <c r="DU8" s="74"/>
+      <c r="DV8" s="74"/>
+      <c r="DW8" s="74"/>
+      <c r="DX8" s="74"/>
+      <c r="DY8" s="74"/>
+      <c r="DZ8" s="74"/>
+      <c r="EA8" s="74"/>
+      <c r="EB8" s="74"/>
+      <c r="EC8" s="74"/>
+      <c r="ED8" s="74"/>
+      <c r="EE8" s="74"/>
+      <c r="EF8" s="74"/>
+      <c r="EG8" s="74"/>
+      <c r="EH8" s="74"/>
+      <c r="EI8" s="74"/>
+      <c r="EJ8" s="74"/>
+      <c r="EK8" s="74"/>
+      <c r="EL8" s="74"/>
+      <c r="EM8" s="74"/>
+      <c r="EN8" s="74"/>
+      <c r="EO8" s="74"/>
+      <c r="EP8" s="74"/>
+      <c r="EQ8" s="74"/>
+      <c r="ER8" s="74"/>
+      <c r="ES8" s="74"/>
+      <c r="ET8" s="74"/>
+      <c r="EU8" s="74"/>
+      <c r="EV8" s="74"/>
+      <c r="EW8" s="74"/>
+      <c r="EX8" s="74"/>
+      <c r="EY8" s="74"/>
+      <c r="EZ8" s="74"/>
+      <c r="FA8" s="74"/>
+      <c r="FB8" s="74"/>
+      <c r="FC8" s="74"/>
+      <c r="FD8" s="74"/>
+      <c r="FE8" s="74"/>
+      <c r="FF8" s="74"/>
+      <c r="FG8" s="74"/>
+      <c r="FH8" s="74"/>
+      <c r="FI8" s="74"/>
+      <c r="FJ8" s="74"/>
+      <c r="FK8" s="74"/>
+      <c r="FL8" s="74"/>
+      <c r="FM8" s="74"/>
+      <c r="FN8" s="74"/>
+      <c r="FO8" s="74"/>
+      <c r="FP8" s="74"/>
+      <c r="FQ8" s="74"/>
+      <c r="FR8" s="74"/>
+      <c r="FS8" s="74"/>
+      <c r="FT8" s="74"/>
+      <c r="FU8" s="74"/>
+      <c r="FV8" s="74"/>
+      <c r="FW8" s="74"/>
+      <c r="FX8" s="74"/>
+      <c r="FY8" s="74"/>
+      <c r="FZ8" s="74"/>
+      <c r="GA8" s="74"/>
+      <c r="GB8" s="74"/>
+      <c r="GC8" s="74"/>
+      <c r="GD8" s="74"/>
+      <c r="GE8" s="74"/>
+      <c r="GF8" s="74"/>
+      <c r="GG8" s="74"/>
+      <c r="GH8" s="74"/>
+      <c r="GI8" s="74"/>
+      <c r="GJ8" s="74"/>
+      <c r="GK8" s="74"/>
+      <c r="GL8" s="74"/>
+      <c r="GM8" s="74"/>
+      <c r="GN8" s="74"/>
+      <c r="GO8" s="74"/>
+      <c r="GP8" s="74"/>
+      <c r="GQ8" s="74"/>
+      <c r="GR8" s="74"/>
+      <c r="GS8" s="74"/>
+      <c r="GT8" s="74"/>
+      <c r="GU8" s="74"/>
+      <c r="GV8" s="74"/>
+      <c r="GW8" s="74"/>
+      <c r="GX8" s="74"/>
+      <c r="GY8" s="74"/>
+      <c r="GZ8" s="74"/>
+      <c r="HA8" s="74"/>
+      <c r="HB8" s="74"/>
+      <c r="HC8" s="74"/>
+      <c r="HD8" s="74"/>
+      <c r="HE8" s="74"/>
+      <c r="HF8" s="74"/>
+      <c r="HG8" s="74"/>
+      <c r="HH8" s="74"/>
+      <c r="HI8" s="74"/>
+      <c r="HJ8" s="74"/>
+      <c r="HK8" s="74"/>
+      <c r="HL8" s="74"/>
+      <c r="HM8" s="74"/>
+      <c r="HN8" s="74"/>
+      <c r="HO8" s="74"/>
+      <c r="HP8" s="74"/>
+      <c r="HQ8" s="74"/>
+      <c r="HR8" s="74"/>
+      <c r="HS8" s="74"/>
+      <c r="HT8" s="74"/>
+      <c r="HU8" s="74"/>
+      <c r="HV8" s="74"/>
+      <c r="HW8" s="74"/>
+      <c r="HX8" s="74"/>
+      <c r="HY8" s="74"/>
+      <c r="HZ8" s="74"/>
+      <c r="IA8" s="74"/>
+      <c r="IB8" s="74"/>
+      <c r="IC8" s="74"/>
+      <c r="ID8" s="74"/>
+      <c r="IE8" s="74"/>
+      <c r="IF8" s="74"/>
+      <c r="IG8" s="74"/>
+      <c r="IH8" s="74"/>
+      <c r="II8" s="74"/>
+      <c r="IJ8" s="74"/>
+      <c r="IK8" s="74"/>
+      <c r="IL8" s="74"/>
+      <c r="IM8" s="74"/>
+      <c r="IN8" s="74"/>
+      <c r="IO8" s="74"/>
+      <c r="IP8" s="74"/>
+      <c r="IQ8" s="74"/>
+      <c r="IR8" s="74"/>
+      <c r="IS8" s="74"/>
+      <c r="IT8" s="74"/>
+      <c r="IU8" s="74"/>
+      <c r="IV8" s="74"/>
     </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s" s="10">
+    <row r="9" spans="1:256" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="15">
+      <c r="D9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="45">
         <v>3</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" s="43" t="s">
         <v>20</v>
       </c>
+      <c r="G9" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35"/>
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35"/>
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35"/>
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35"/>
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35"/>
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="35"/>
+      <c r="CM9" s="35"/>
+      <c r="CN9" s="35"/>
+      <c r="CO9" s="35"/>
+      <c r="CP9" s="35"/>
+      <c r="CQ9" s="35"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="35"/>
+      <c r="CT9" s="35"/>
+      <c r="CU9" s="35"/>
+      <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
+      <c r="CX9" s="35"/>
+      <c r="CY9" s="35"/>
+      <c r="CZ9" s="35"/>
+      <c r="DA9" s="35"/>
+      <c r="DB9" s="35"/>
+      <c r="DC9" s="35"/>
+      <c r="DD9" s="35"/>
+      <c r="DE9" s="35"/>
+      <c r="DF9" s="35"/>
+      <c r="DG9" s="35"/>
+      <c r="DH9" s="35"/>
+      <c r="DI9" s="35"/>
+      <c r="DJ9" s="35"/>
+      <c r="DK9" s="35"/>
+      <c r="DL9" s="35"/>
+      <c r="DM9" s="35"/>
+      <c r="DN9" s="35"/>
+      <c r="DO9" s="35"/>
+      <c r="DP9" s="35"/>
+      <c r="DQ9" s="35"/>
+      <c r="DR9" s="35"/>
+      <c r="DS9" s="35"/>
+      <c r="DT9" s="35"/>
+      <c r="DU9" s="35"/>
+      <c r="DV9" s="35"/>
+      <c r="DW9" s="35"/>
+      <c r="DX9" s="35"/>
+      <c r="DY9" s="35"/>
+      <c r="DZ9" s="35"/>
+      <c r="EA9" s="35"/>
+      <c r="EB9" s="35"/>
+      <c r="EC9" s="35"/>
+      <c r="ED9" s="35"/>
+      <c r="EE9" s="35"/>
+      <c r="EF9" s="35"/>
+      <c r="EG9" s="35"/>
+      <c r="EH9" s="35"/>
+      <c r="EI9" s="35"/>
+      <c r="EJ9" s="35"/>
+      <c r="EK9" s="35"/>
+      <c r="EL9" s="35"/>
+      <c r="EM9" s="35"/>
+      <c r="EN9" s="35"/>
+      <c r="EO9" s="35"/>
+      <c r="EP9" s="35"/>
+      <c r="EQ9" s="35"/>
+      <c r="ER9" s="35"/>
+      <c r="ES9" s="35"/>
+      <c r="ET9" s="35"/>
+      <c r="EU9" s="35"/>
+      <c r="EV9" s="35"/>
+      <c r="EW9" s="35"/>
+      <c r="EX9" s="35"/>
+      <c r="EY9" s="35"/>
+      <c r="EZ9" s="35"/>
+      <c r="FA9" s="35"/>
+      <c r="FB9" s="35"/>
+      <c r="FC9" s="35"/>
+      <c r="FD9" s="35"/>
+      <c r="FE9" s="35"/>
+      <c r="FF9" s="35"/>
+      <c r="FG9" s="35"/>
+      <c r="FH9" s="35"/>
+      <c r="FI9" s="35"/>
+      <c r="FJ9" s="35"/>
+      <c r="FK9" s="35"/>
+      <c r="FL9" s="35"/>
+      <c r="FM9" s="35"/>
+      <c r="FN9" s="35"/>
+      <c r="FO9" s="35"/>
+      <c r="FP9" s="35"/>
+      <c r="FQ9" s="35"/>
+      <c r="FR9" s="35"/>
+      <c r="FS9" s="35"/>
+      <c r="FT9" s="35"/>
+      <c r="FU9" s="35"/>
+      <c r="FV9" s="35"/>
+      <c r="FW9" s="35"/>
+      <c r="FX9" s="35"/>
+      <c r="FY9" s="35"/>
+      <c r="FZ9" s="35"/>
+      <c r="GA9" s="35"/>
+      <c r="GB9" s="35"/>
+      <c r="GC9" s="35"/>
+      <c r="GD9" s="35"/>
+      <c r="GE9" s="35"/>
+      <c r="GF9" s="35"/>
+      <c r="GG9" s="35"/>
+      <c r="GH9" s="35"/>
+      <c r="GI9" s="35"/>
+      <c r="GJ9" s="35"/>
+      <c r="GK9" s="35"/>
+      <c r="GL9" s="35"/>
+      <c r="GM9" s="35"/>
+      <c r="GN9" s="35"/>
+      <c r="GO9" s="35"/>
+      <c r="GP9" s="35"/>
+      <c r="GQ9" s="35"/>
+      <c r="GR9" s="35"/>
+      <c r="GS9" s="35"/>
+      <c r="GT9" s="35"/>
+      <c r="GU9" s="35"/>
+      <c r="GV9" s="35"/>
+      <c r="GW9" s="35"/>
+      <c r="GX9" s="35"/>
+      <c r="GY9" s="35"/>
+      <c r="GZ9" s="35"/>
+      <c r="HA9" s="35"/>
+      <c r="HB9" s="35"/>
+      <c r="HC9" s="35"/>
+      <c r="HD9" s="35"/>
+      <c r="HE9" s="35"/>
+      <c r="HF9" s="35"/>
+      <c r="HG9" s="35"/>
+      <c r="HH9" s="35"/>
+      <c r="HI9" s="35"/>
+      <c r="HJ9" s="35"/>
+      <c r="HK9" s="35"/>
+      <c r="HL9" s="35"/>
+      <c r="HM9" s="35"/>
+      <c r="HN9" s="35"/>
+      <c r="HO9" s="35"/>
+      <c r="HP9" s="35"/>
+      <c r="HQ9" s="35"/>
+      <c r="HR9" s="35"/>
+      <c r="HS9" s="35"/>
+      <c r="HT9" s="35"/>
+      <c r="HU9" s="35"/>
+      <c r="HV9" s="35"/>
+      <c r="HW9" s="35"/>
+      <c r="HX9" s="35"/>
+      <c r="HY9" s="35"/>
+      <c r="HZ9" s="35"/>
+      <c r="IA9" s="35"/>
+      <c r="IB9" s="35"/>
+      <c r="IC9" s="35"/>
+      <c r="ID9" s="35"/>
+      <c r="IE9" s="35"/>
+      <c r="IF9" s="35"/>
+      <c r="IG9" s="35"/>
+      <c r="IH9" s="35"/>
+      <c r="II9" s="35"/>
+      <c r="IJ9" s="35"/>
+      <c r="IK9" s="35"/>
+      <c r="IL9" s="35"/>
+      <c r="IM9" s="35"/>
+      <c r="IN9" s="35"/>
+      <c r="IO9" s="35"/>
+      <c r="IP9" s="35"/>
+      <c r="IQ9" s="35"/>
+      <c r="IR9" s="35"/>
+      <c r="IS9" s="35"/>
+      <c r="IT9" s="35"/>
+      <c r="IU9" s="35"/>
+      <c r="IV9" s="35"/>
     </row>
-    <row r="10" ht="29" customHeight="1">
+    <row r="10" spans="1:256" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" t="s" s="10">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s" s="16">
+      <c r="D10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s" s="17">
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s" s="18">
+      <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="29" customHeight="1">
+    <row r="11" spans="1:256" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="13"/>
-      <c r="C11" t="s" s="11">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" t="s" s="11">
+      <c r="E11" s="13"/>
+      <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="17.1" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s" s="10">
+    <row r="12" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="45">
         <v>6</v>
       </c>
-      <c r="F12" t="s" s="11">
+      <c r="F12" s="43" t="s">
         <v>30</v>
       </c>
+      <c r="G12" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="35"/>
+      <c r="BI12" s="35"/>
+      <c r="BJ12" s="35"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="35"/>
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="35"/>
+      <c r="BQ12" s="35"/>
+      <c r="BR12" s="35"/>
+      <c r="BS12" s="35"/>
+      <c r="BT12" s="35"/>
+      <c r="BU12" s="35"/>
+      <c r="BV12" s="35"/>
+      <c r="BW12" s="35"/>
+      <c r="BX12" s="35"/>
+      <c r="BY12" s="35"/>
+      <c r="BZ12" s="35"/>
+      <c r="CA12" s="35"/>
+      <c r="CB12" s="35"/>
+      <c r="CC12" s="35"/>
+      <c r="CD12" s="35"/>
+      <c r="CE12" s="35"/>
+      <c r="CF12" s="35"/>
+      <c r="CG12" s="35"/>
+      <c r="CH12" s="35"/>
+      <c r="CI12" s="35"/>
+      <c r="CJ12" s="35"/>
+      <c r="CK12" s="35"/>
+      <c r="CL12" s="35"/>
+      <c r="CM12" s="35"/>
+      <c r="CN12" s="35"/>
+      <c r="CO12" s="35"/>
+      <c r="CP12" s="35"/>
+      <c r="CQ12" s="35"/>
+      <c r="CR12" s="35"/>
+      <c r="CS12" s="35"/>
+      <c r="CT12" s="35"/>
+      <c r="CU12" s="35"/>
+      <c r="CV12" s="35"/>
+      <c r="CW12" s="35"/>
+      <c r="CX12" s="35"/>
+      <c r="CY12" s="35"/>
+      <c r="CZ12" s="35"/>
+      <c r="DA12" s="35"/>
+      <c r="DB12" s="35"/>
+      <c r="DC12" s="35"/>
+      <c r="DD12" s="35"/>
+      <c r="DE12" s="35"/>
+      <c r="DF12" s="35"/>
+      <c r="DG12" s="35"/>
+      <c r="DH12" s="35"/>
+      <c r="DI12" s="35"/>
+      <c r="DJ12" s="35"/>
+      <c r="DK12" s="35"/>
+      <c r="DL12" s="35"/>
+      <c r="DM12" s="35"/>
+      <c r="DN12" s="35"/>
+      <c r="DO12" s="35"/>
+      <c r="DP12" s="35"/>
+      <c r="DQ12" s="35"/>
+      <c r="DR12" s="35"/>
+      <c r="DS12" s="35"/>
+      <c r="DT12" s="35"/>
+      <c r="DU12" s="35"/>
+      <c r="DV12" s="35"/>
+      <c r="DW12" s="35"/>
+      <c r="DX12" s="35"/>
+      <c r="DY12" s="35"/>
+      <c r="DZ12" s="35"/>
+      <c r="EA12" s="35"/>
+      <c r="EB12" s="35"/>
+      <c r="EC12" s="35"/>
+      <c r="ED12" s="35"/>
+      <c r="EE12" s="35"/>
+      <c r="EF12" s="35"/>
+      <c r="EG12" s="35"/>
+      <c r="EH12" s="35"/>
+      <c r="EI12" s="35"/>
+      <c r="EJ12" s="35"/>
+      <c r="EK12" s="35"/>
+      <c r="EL12" s="35"/>
+      <c r="EM12" s="35"/>
+      <c r="EN12" s="35"/>
+      <c r="EO12" s="35"/>
+      <c r="EP12" s="35"/>
+      <c r="EQ12" s="35"/>
+      <c r="ER12" s="35"/>
+      <c r="ES12" s="35"/>
+      <c r="ET12" s="35"/>
+      <c r="EU12" s="35"/>
+      <c r="EV12" s="35"/>
+      <c r="EW12" s="35"/>
+      <c r="EX12" s="35"/>
+      <c r="EY12" s="35"/>
+      <c r="EZ12" s="35"/>
+      <c r="FA12" s="35"/>
+      <c r="FB12" s="35"/>
+      <c r="FC12" s="35"/>
+      <c r="FD12" s="35"/>
+      <c r="FE12" s="35"/>
+      <c r="FF12" s="35"/>
+      <c r="FG12" s="35"/>
+      <c r="FH12" s="35"/>
+      <c r="FI12" s="35"/>
+      <c r="FJ12" s="35"/>
+      <c r="FK12" s="35"/>
+      <c r="FL12" s="35"/>
+      <c r="FM12" s="35"/>
+      <c r="FN12" s="35"/>
+      <c r="FO12" s="35"/>
+      <c r="FP12" s="35"/>
+      <c r="FQ12" s="35"/>
+      <c r="FR12" s="35"/>
+      <c r="FS12" s="35"/>
+      <c r="FT12" s="35"/>
+      <c r="FU12" s="35"/>
+      <c r="FV12" s="35"/>
+      <c r="FW12" s="35"/>
+      <c r="FX12" s="35"/>
+      <c r="FY12" s="35"/>
+      <c r="FZ12" s="35"/>
+      <c r="GA12" s="35"/>
+      <c r="GB12" s="35"/>
+      <c r="GC12" s="35"/>
+      <c r="GD12" s="35"/>
+      <c r="GE12" s="35"/>
+      <c r="GF12" s="35"/>
+      <c r="GG12" s="35"/>
+      <c r="GH12" s="35"/>
+      <c r="GI12" s="35"/>
+      <c r="GJ12" s="35"/>
+      <c r="GK12" s="35"/>
+      <c r="GL12" s="35"/>
+      <c r="GM12" s="35"/>
+      <c r="GN12" s="35"/>
+      <c r="GO12" s="35"/>
+      <c r="GP12" s="35"/>
+      <c r="GQ12" s="35"/>
+      <c r="GR12" s="35"/>
+      <c r="GS12" s="35"/>
+      <c r="GT12" s="35"/>
+      <c r="GU12" s="35"/>
+      <c r="GV12" s="35"/>
+      <c r="GW12" s="35"/>
+      <c r="GX12" s="35"/>
+      <c r="GY12" s="35"/>
+      <c r="GZ12" s="35"/>
+      <c r="HA12" s="35"/>
+      <c r="HB12" s="35"/>
+      <c r="HC12" s="35"/>
+      <c r="HD12" s="35"/>
+      <c r="HE12" s="35"/>
+      <c r="HF12" s="35"/>
+      <c r="HG12" s="35"/>
+      <c r="HH12" s="35"/>
+      <c r="HI12" s="35"/>
+      <c r="HJ12" s="35"/>
+      <c r="HK12" s="35"/>
+      <c r="HL12" s="35"/>
+      <c r="HM12" s="35"/>
+      <c r="HN12" s="35"/>
+      <c r="HO12" s="35"/>
+      <c r="HP12" s="35"/>
+      <c r="HQ12" s="35"/>
+      <c r="HR12" s="35"/>
+      <c r="HS12" s="35"/>
+      <c r="HT12" s="35"/>
+      <c r="HU12" s="35"/>
+      <c r="HV12" s="35"/>
+      <c r="HW12" s="35"/>
+      <c r="HX12" s="35"/>
+      <c r="HY12" s="35"/>
+      <c r="HZ12" s="35"/>
+      <c r="IA12" s="35"/>
+      <c r="IB12" s="35"/>
+      <c r="IC12" s="35"/>
+      <c r="ID12" s="35"/>
+      <c r="IE12" s="35"/>
+      <c r="IF12" s="35"/>
+      <c r="IG12" s="35"/>
+      <c r="IH12" s="35"/>
+      <c r="II12" s="35"/>
+      <c r="IJ12" s="35"/>
+      <c r="IK12" s="35"/>
+      <c r="IL12" s="35"/>
+      <c r="IM12" s="35"/>
+      <c r="IN12" s="35"/>
+      <c r="IO12" s="35"/>
+      <c r="IP12" s="35"/>
+      <c r="IQ12" s="35"/>
+      <c r="IR12" s="35"/>
+      <c r="IS12" s="35"/>
+      <c r="IT12" s="35"/>
+      <c r="IU12" s="35"/>
+      <c r="IV12" s="35"/>
     </row>
-    <row r="13" ht="17.1" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" t="s" s="19">
+    <row r="13" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" t="s" s="21">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="56">
         <v>7</v>
       </c>
-      <c r="F13" t="s" s="23">
+      <c r="F13" s="57" t="s">
         <v>33</v>
       </c>
+      <c r="G13" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="35"/>
+      <c r="BT13" s="35"/>
+      <c r="BU13" s="35"/>
+      <c r="BV13" s="35"/>
+      <c r="BW13" s="35"/>
+      <c r="BX13" s="35"/>
+      <c r="BY13" s="35"/>
+      <c r="BZ13" s="35"/>
+      <c r="CA13" s="35"/>
+      <c r="CB13" s="35"/>
+      <c r="CC13" s="35"/>
+      <c r="CD13" s="35"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+      <c r="CJ13" s="35"/>
+      <c r="CK13" s="35"/>
+      <c r="CL13" s="35"/>
+      <c r="CM13" s="35"/>
+      <c r="CN13" s="35"/>
+      <c r="CO13" s="35"/>
+      <c r="CP13" s="35"/>
+      <c r="CQ13" s="35"/>
+      <c r="CR13" s="35"/>
+      <c r="CS13" s="35"/>
+      <c r="CT13" s="35"/>
+      <c r="CU13" s="35"/>
+      <c r="CV13" s="35"/>
+      <c r="CW13" s="35"/>
+      <c r="CX13" s="35"/>
+      <c r="CY13" s="35"/>
+      <c r="CZ13" s="35"/>
+      <c r="DA13" s="35"/>
+      <c r="DB13" s="35"/>
+      <c r="DC13" s="35"/>
+      <c r="DD13" s="35"/>
+      <c r="DE13" s="35"/>
+      <c r="DF13" s="35"/>
+      <c r="DG13" s="35"/>
+      <c r="DH13" s="35"/>
+      <c r="DI13" s="35"/>
+      <c r="DJ13" s="35"/>
+      <c r="DK13" s="35"/>
+      <c r="DL13" s="35"/>
+      <c r="DM13" s="35"/>
+      <c r="DN13" s="35"/>
+      <c r="DO13" s="35"/>
+      <c r="DP13" s="35"/>
+      <c r="DQ13" s="35"/>
+      <c r="DR13" s="35"/>
+      <c r="DS13" s="35"/>
+      <c r="DT13" s="35"/>
+      <c r="DU13" s="35"/>
+      <c r="DV13" s="35"/>
+      <c r="DW13" s="35"/>
+      <c r="DX13" s="35"/>
+      <c r="DY13" s="35"/>
+      <c r="DZ13" s="35"/>
+      <c r="EA13" s="35"/>
+      <c r="EB13" s="35"/>
+      <c r="EC13" s="35"/>
+      <c r="ED13" s="35"/>
+      <c r="EE13" s="35"/>
+      <c r="EF13" s="35"/>
+      <c r="EG13" s="35"/>
+      <c r="EH13" s="35"/>
+      <c r="EI13" s="35"/>
+      <c r="EJ13" s="35"/>
+      <c r="EK13" s="35"/>
+      <c r="EL13" s="35"/>
+      <c r="EM13" s="35"/>
+      <c r="EN13" s="35"/>
+      <c r="EO13" s="35"/>
+      <c r="EP13" s="35"/>
+      <c r="EQ13" s="35"/>
+      <c r="ER13" s="35"/>
+      <c r="ES13" s="35"/>
+      <c r="ET13" s="35"/>
+      <c r="EU13" s="35"/>
+      <c r="EV13" s="35"/>
+      <c r="EW13" s="35"/>
+      <c r="EX13" s="35"/>
+      <c r="EY13" s="35"/>
+      <c r="EZ13" s="35"/>
+      <c r="FA13" s="35"/>
+      <c r="FB13" s="35"/>
+      <c r="FC13" s="35"/>
+      <c r="FD13" s="35"/>
+      <c r="FE13" s="35"/>
+      <c r="FF13" s="35"/>
+      <c r="FG13" s="35"/>
+      <c r="FH13" s="35"/>
+      <c r="FI13" s="35"/>
+      <c r="FJ13" s="35"/>
+      <c r="FK13" s="35"/>
+      <c r="FL13" s="35"/>
+      <c r="FM13" s="35"/>
+      <c r="FN13" s="35"/>
+      <c r="FO13" s="35"/>
+      <c r="FP13" s="35"/>
+      <c r="FQ13" s="35"/>
+      <c r="FR13" s="35"/>
+      <c r="FS13" s="35"/>
+      <c r="FT13" s="35"/>
+      <c r="FU13" s="35"/>
+      <c r="FV13" s="35"/>
+      <c r="FW13" s="35"/>
+      <c r="FX13" s="35"/>
+      <c r="FY13" s="35"/>
+      <c r="FZ13" s="35"/>
+      <c r="GA13" s="35"/>
+      <c r="GB13" s="35"/>
+      <c r="GC13" s="35"/>
+      <c r="GD13" s="35"/>
+      <c r="GE13" s="35"/>
+      <c r="GF13" s="35"/>
+      <c r="GG13" s="35"/>
+      <c r="GH13" s="35"/>
+      <c r="GI13" s="35"/>
+      <c r="GJ13" s="35"/>
+      <c r="GK13" s="35"/>
+      <c r="GL13" s="35"/>
+      <c r="GM13" s="35"/>
+      <c r="GN13" s="35"/>
+      <c r="GO13" s="35"/>
+      <c r="GP13" s="35"/>
+      <c r="GQ13" s="35"/>
+      <c r="GR13" s="35"/>
+      <c r="GS13" s="35"/>
+      <c r="GT13" s="35"/>
+      <c r="GU13" s="35"/>
+      <c r="GV13" s="35"/>
+      <c r="GW13" s="35"/>
+      <c r="GX13" s="35"/>
+      <c r="GY13" s="35"/>
+      <c r="GZ13" s="35"/>
+      <c r="HA13" s="35"/>
+      <c r="HB13" s="35"/>
+      <c r="HC13" s="35"/>
+      <c r="HD13" s="35"/>
+      <c r="HE13" s="35"/>
+      <c r="HF13" s="35"/>
+      <c r="HG13" s="35"/>
+      <c r="HH13" s="35"/>
+      <c r="HI13" s="35"/>
+      <c r="HJ13" s="35"/>
+      <c r="HK13" s="35"/>
+      <c r="HL13" s="35"/>
+      <c r="HM13" s="35"/>
+      <c r="HN13" s="35"/>
+      <c r="HO13" s="35"/>
+      <c r="HP13" s="35"/>
+      <c r="HQ13" s="35"/>
+      <c r="HR13" s="35"/>
+      <c r="HS13" s="35"/>
+      <c r="HT13" s="35"/>
+      <c r="HU13" s="35"/>
+      <c r="HV13" s="35"/>
+      <c r="HW13" s="35"/>
+      <c r="HX13" s="35"/>
+      <c r="HY13" s="35"/>
+      <c r="HZ13" s="35"/>
+      <c r="IA13" s="35"/>
+      <c r="IB13" s="35"/>
+      <c r="IC13" s="35"/>
+      <c r="ID13" s="35"/>
+      <c r="IE13" s="35"/>
+      <c r="IF13" s="35"/>
+      <c r="IG13" s="35"/>
+      <c r="IH13" s="35"/>
+      <c r="II13" s="35"/>
+      <c r="IJ13" s="35"/>
+      <c r="IK13" s="35"/>
+      <c r="IL13" s="35"/>
+      <c r="IM13" s="35"/>
+      <c r="IN13" s="35"/>
+      <c r="IO13" s="35"/>
+      <c r="IP13" s="35"/>
+      <c r="IQ13" s="35"/>
+      <c r="IR13" s="35"/>
+      <c r="IS13" s="35"/>
+      <c r="IT13" s="35"/>
+      <c r="IU13" s="35"/>
+      <c r="IV13" s="35"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
-    <row r="15" ht="17.1" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="26">
+      <c r="B15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" t="s" s="27">
+      <c r="C15" s="38"/>
+      <c r="D15" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="40">
         <v>8</v>
       </c>
-      <c r="F15" t="s" s="29">
+      <c r="F15" s="39" t="s">
         <v>37</v>
       </c>
+      <c r="G15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="35"/>
+      <c r="AX15" s="35"/>
+      <c r="AY15" s="35"/>
+      <c r="AZ15" s="35"/>
+      <c r="BA15" s="35"/>
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="35"/>
+      <c r="BE15" s="35"/>
+      <c r="BF15" s="35"/>
+      <c r="BG15" s="35"/>
+      <c r="BH15" s="35"/>
+      <c r="BI15" s="35"/>
+      <c r="BJ15" s="35"/>
+      <c r="BK15" s="35"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BO15" s="35"/>
+      <c r="BP15" s="35"/>
+      <c r="BQ15" s="35"/>
+      <c r="BR15" s="35"/>
+      <c r="BS15" s="35"/>
+      <c r="BT15" s="35"/>
+      <c r="BU15" s="35"/>
+      <c r="BV15" s="35"/>
+      <c r="BW15" s="35"/>
+      <c r="BX15" s="35"/>
+      <c r="BY15" s="35"/>
+      <c r="BZ15" s="35"/>
+      <c r="CA15" s="35"/>
+      <c r="CB15" s="35"/>
+      <c r="CC15" s="35"/>
+      <c r="CD15" s="35"/>
+      <c r="CE15" s="35"/>
+      <c r="CF15" s="35"/>
+      <c r="CG15" s="35"/>
+      <c r="CH15" s="35"/>
+      <c r="CI15" s="35"/>
+      <c r="CJ15" s="35"/>
+      <c r="CK15" s="35"/>
+      <c r="CL15" s="35"/>
+      <c r="CM15" s="35"/>
+      <c r="CN15" s="35"/>
+      <c r="CO15" s="35"/>
+      <c r="CP15" s="35"/>
+      <c r="CQ15" s="35"/>
+      <c r="CR15" s="35"/>
+      <c r="CS15" s="35"/>
+      <c r="CT15" s="35"/>
+      <c r="CU15" s="35"/>
+      <c r="CV15" s="35"/>
+      <c r="CW15" s="35"/>
+      <c r="CX15" s="35"/>
+      <c r="CY15" s="35"/>
+      <c r="CZ15" s="35"/>
+      <c r="DA15" s="35"/>
+      <c r="DB15" s="35"/>
+      <c r="DC15" s="35"/>
+      <c r="DD15" s="35"/>
+      <c r="DE15" s="35"/>
+      <c r="DF15" s="35"/>
+      <c r="DG15" s="35"/>
+      <c r="DH15" s="35"/>
+      <c r="DI15" s="35"/>
+      <c r="DJ15" s="35"/>
+      <c r="DK15" s="35"/>
+      <c r="DL15" s="35"/>
+      <c r="DM15" s="35"/>
+      <c r="DN15" s="35"/>
+      <c r="DO15" s="35"/>
+      <c r="DP15" s="35"/>
+      <c r="DQ15" s="35"/>
+      <c r="DR15" s="35"/>
+      <c r="DS15" s="35"/>
+      <c r="DT15" s="35"/>
+      <c r="DU15" s="35"/>
+      <c r="DV15" s="35"/>
+      <c r="DW15" s="35"/>
+      <c r="DX15" s="35"/>
+      <c r="DY15" s="35"/>
+      <c r="DZ15" s="35"/>
+      <c r="EA15" s="35"/>
+      <c r="EB15" s="35"/>
+      <c r="EC15" s="35"/>
+      <c r="ED15" s="35"/>
+      <c r="EE15" s="35"/>
+      <c r="EF15" s="35"/>
+      <c r="EG15" s="35"/>
+      <c r="EH15" s="35"/>
+      <c r="EI15" s="35"/>
+      <c r="EJ15" s="35"/>
+      <c r="EK15" s="35"/>
+      <c r="EL15" s="35"/>
+      <c r="EM15" s="35"/>
+      <c r="EN15" s="35"/>
+      <c r="EO15" s="35"/>
+      <c r="EP15" s="35"/>
+      <c r="EQ15" s="35"/>
+      <c r="ER15" s="35"/>
+      <c r="ES15" s="35"/>
+      <c r="ET15" s="35"/>
+      <c r="EU15" s="35"/>
+      <c r="EV15" s="35"/>
+      <c r="EW15" s="35"/>
+      <c r="EX15" s="35"/>
+      <c r="EY15" s="35"/>
+      <c r="EZ15" s="35"/>
+      <c r="FA15" s="35"/>
+      <c r="FB15" s="35"/>
+      <c r="FC15" s="35"/>
+      <c r="FD15" s="35"/>
+      <c r="FE15" s="35"/>
+      <c r="FF15" s="35"/>
+      <c r="FG15" s="35"/>
+      <c r="FH15" s="35"/>
+      <c r="FI15" s="35"/>
+      <c r="FJ15" s="35"/>
+      <c r="FK15" s="35"/>
+      <c r="FL15" s="35"/>
+      <c r="FM15" s="35"/>
+      <c r="FN15" s="35"/>
+      <c r="FO15" s="35"/>
+      <c r="FP15" s="35"/>
+      <c r="FQ15" s="35"/>
+      <c r="FR15" s="35"/>
+      <c r="FS15" s="35"/>
+      <c r="FT15" s="35"/>
+      <c r="FU15" s="35"/>
+      <c r="FV15" s="35"/>
+      <c r="FW15" s="35"/>
+      <c r="FX15" s="35"/>
+      <c r="FY15" s="35"/>
+      <c r="FZ15" s="35"/>
+      <c r="GA15" s="35"/>
+      <c r="GB15" s="35"/>
+      <c r="GC15" s="35"/>
+      <c r="GD15" s="35"/>
+      <c r="GE15" s="35"/>
+      <c r="GF15" s="35"/>
+      <c r="GG15" s="35"/>
+      <c r="GH15" s="35"/>
+      <c r="GI15" s="35"/>
+      <c r="GJ15" s="35"/>
+      <c r="GK15" s="35"/>
+      <c r="GL15" s="35"/>
+      <c r="GM15" s="35"/>
+      <c r="GN15" s="35"/>
+      <c r="GO15" s="35"/>
+      <c r="GP15" s="35"/>
+      <c r="GQ15" s="35"/>
+      <c r="GR15" s="35"/>
+      <c r="GS15" s="35"/>
+      <c r="GT15" s="35"/>
+      <c r="GU15" s="35"/>
+      <c r="GV15" s="35"/>
+      <c r="GW15" s="35"/>
+      <c r="GX15" s="35"/>
+      <c r="GY15" s="35"/>
+      <c r="GZ15" s="35"/>
+      <c r="HA15" s="35"/>
+      <c r="HB15" s="35"/>
+      <c r="HC15" s="35"/>
+      <c r="HD15" s="35"/>
+      <c r="HE15" s="35"/>
+      <c r="HF15" s="35"/>
+      <c r="HG15" s="35"/>
+      <c r="HH15" s="35"/>
+      <c r="HI15" s="35"/>
+      <c r="HJ15" s="35"/>
+      <c r="HK15" s="35"/>
+      <c r="HL15" s="35"/>
+      <c r="HM15" s="35"/>
+      <c r="HN15" s="35"/>
+      <c r="HO15" s="35"/>
+      <c r="HP15" s="35"/>
+      <c r="HQ15" s="35"/>
+      <c r="HR15" s="35"/>
+      <c r="HS15" s="35"/>
+      <c r="HT15" s="35"/>
+      <c r="HU15" s="35"/>
+      <c r="HV15" s="35"/>
+      <c r="HW15" s="35"/>
+      <c r="HX15" s="35"/>
+      <c r="HY15" s="35"/>
+      <c r="HZ15" s="35"/>
+      <c r="IA15" s="35"/>
+      <c r="IB15" s="35"/>
+      <c r="IC15" s="35"/>
+      <c r="ID15" s="35"/>
+      <c r="IE15" s="35"/>
+      <c r="IF15" s="35"/>
+      <c r="IG15" s="35"/>
+      <c r="IH15" s="35"/>
+      <c r="II15" s="35"/>
+      <c r="IJ15" s="35"/>
+      <c r="IK15" s="35"/>
+      <c r="IL15" s="35"/>
+      <c r="IM15" s="35"/>
+      <c r="IN15" s="35"/>
+      <c r="IO15" s="35"/>
+      <c r="IP15" s="35"/>
+      <c r="IQ15" s="35"/>
+      <c r="IR15" s="35"/>
+      <c r="IS15" s="35"/>
+      <c r="IT15" s="35"/>
+      <c r="IU15" s="35"/>
+      <c r="IV15" s="35"/>
     </row>
-    <row r="16" ht="17.1" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s" s="10">
+    <row r="16" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" t="s" s="15">
+      <c r="C16" s="46"/>
+      <c r="D16" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" t="s" s="11">
+      <c r="E16" s="46"/>
+      <c r="F16" s="43" t="s">
         <v>40</v>
       </c>
+      <c r="G16" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="35"/>
+      <c r="BJ16" s="35"/>
+      <c r="BK16" s="35"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="35"/>
+      <c r="BN16" s="35"/>
+      <c r="BO16" s="35"/>
+      <c r="BP16" s="35"/>
+      <c r="BQ16" s="35"/>
+      <c r="BR16" s="35"/>
+      <c r="BS16" s="35"/>
+      <c r="BT16" s="35"/>
+      <c r="BU16" s="35"/>
+      <c r="BV16" s="35"/>
+      <c r="BW16" s="35"/>
+      <c r="BX16" s="35"/>
+      <c r="BY16" s="35"/>
+      <c r="BZ16" s="35"/>
+      <c r="CA16" s="35"/>
+      <c r="CB16" s="35"/>
+      <c r="CC16" s="35"/>
+      <c r="CD16" s="35"/>
+      <c r="CE16" s="35"/>
+      <c r="CF16" s="35"/>
+      <c r="CG16" s="35"/>
+      <c r="CH16" s="35"/>
+      <c r="CI16" s="35"/>
+      <c r="CJ16" s="35"/>
+      <c r="CK16" s="35"/>
+      <c r="CL16" s="35"/>
+      <c r="CM16" s="35"/>
+      <c r="CN16" s="35"/>
+      <c r="CO16" s="35"/>
+      <c r="CP16" s="35"/>
+      <c r="CQ16" s="35"/>
+      <c r="CR16" s="35"/>
+      <c r="CS16" s="35"/>
+      <c r="CT16" s="35"/>
+      <c r="CU16" s="35"/>
+      <c r="CV16" s="35"/>
+      <c r="CW16" s="35"/>
+      <c r="CX16" s="35"/>
+      <c r="CY16" s="35"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="35"/>
+      <c r="DB16" s="35"/>
+      <c r="DC16" s="35"/>
+      <c r="DD16" s="35"/>
+      <c r="DE16" s="35"/>
+      <c r="DF16" s="35"/>
+      <c r="DG16" s="35"/>
+      <c r="DH16" s="35"/>
+      <c r="DI16" s="35"/>
+      <c r="DJ16" s="35"/>
+      <c r="DK16" s="35"/>
+      <c r="DL16" s="35"/>
+      <c r="DM16" s="35"/>
+      <c r="DN16" s="35"/>
+      <c r="DO16" s="35"/>
+      <c r="DP16" s="35"/>
+      <c r="DQ16" s="35"/>
+      <c r="DR16" s="35"/>
+      <c r="DS16" s="35"/>
+      <c r="DT16" s="35"/>
+      <c r="DU16" s="35"/>
+      <c r="DV16" s="35"/>
+      <c r="DW16" s="35"/>
+      <c r="DX16" s="35"/>
+      <c r="DY16" s="35"/>
+      <c r="DZ16" s="35"/>
+      <c r="EA16" s="35"/>
+      <c r="EB16" s="35"/>
+      <c r="EC16" s="35"/>
+      <c r="ED16" s="35"/>
+      <c r="EE16" s="35"/>
+      <c r="EF16" s="35"/>
+      <c r="EG16" s="35"/>
+      <c r="EH16" s="35"/>
+      <c r="EI16" s="35"/>
+      <c r="EJ16" s="35"/>
+      <c r="EK16" s="35"/>
+      <c r="EL16" s="35"/>
+      <c r="EM16" s="35"/>
+      <c r="EN16" s="35"/>
+      <c r="EO16" s="35"/>
+      <c r="EP16" s="35"/>
+      <c r="EQ16" s="35"/>
+      <c r="ER16" s="35"/>
+      <c r="ES16" s="35"/>
+      <c r="ET16" s="35"/>
+      <c r="EU16" s="35"/>
+      <c r="EV16" s="35"/>
+      <c r="EW16" s="35"/>
+      <c r="EX16" s="35"/>
+      <c r="EY16" s="35"/>
+      <c r="EZ16" s="35"/>
+      <c r="FA16" s="35"/>
+      <c r="FB16" s="35"/>
+      <c r="FC16" s="35"/>
+      <c r="FD16" s="35"/>
+      <c r="FE16" s="35"/>
+      <c r="FF16" s="35"/>
+      <c r="FG16" s="35"/>
+      <c r="FH16" s="35"/>
+      <c r="FI16" s="35"/>
+      <c r="FJ16" s="35"/>
+      <c r="FK16" s="35"/>
+      <c r="FL16" s="35"/>
+      <c r="FM16" s="35"/>
+      <c r="FN16" s="35"/>
+      <c r="FO16" s="35"/>
+      <c r="FP16" s="35"/>
+      <c r="FQ16" s="35"/>
+      <c r="FR16" s="35"/>
+      <c r="FS16" s="35"/>
+      <c r="FT16" s="35"/>
+      <c r="FU16" s="35"/>
+      <c r="FV16" s="35"/>
+      <c r="FW16" s="35"/>
+      <c r="FX16" s="35"/>
+      <c r="FY16" s="35"/>
+      <c r="FZ16" s="35"/>
+      <c r="GA16" s="35"/>
+      <c r="GB16" s="35"/>
+      <c r="GC16" s="35"/>
+      <c r="GD16" s="35"/>
+      <c r="GE16" s="35"/>
+      <c r="GF16" s="35"/>
+      <c r="GG16" s="35"/>
+      <c r="GH16" s="35"/>
+      <c r="GI16" s="35"/>
+      <c r="GJ16" s="35"/>
+      <c r="GK16" s="35"/>
+      <c r="GL16" s="35"/>
+      <c r="GM16" s="35"/>
+      <c r="GN16" s="35"/>
+      <c r="GO16" s="35"/>
+      <c r="GP16" s="35"/>
+      <c r="GQ16" s="35"/>
+      <c r="GR16" s="35"/>
+      <c r="GS16" s="35"/>
+      <c r="GT16" s="35"/>
+      <c r="GU16" s="35"/>
+      <c r="GV16" s="35"/>
+      <c r="GW16" s="35"/>
+      <c r="GX16" s="35"/>
+      <c r="GY16" s="35"/>
+      <c r="GZ16" s="35"/>
+      <c r="HA16" s="35"/>
+      <c r="HB16" s="35"/>
+      <c r="HC16" s="35"/>
+      <c r="HD16" s="35"/>
+      <c r="HE16" s="35"/>
+      <c r="HF16" s="35"/>
+      <c r="HG16" s="35"/>
+      <c r="HH16" s="35"/>
+      <c r="HI16" s="35"/>
+      <c r="HJ16" s="35"/>
+      <c r="HK16" s="35"/>
+      <c r="HL16" s="35"/>
+      <c r="HM16" s="35"/>
+      <c r="HN16" s="35"/>
+      <c r="HO16" s="35"/>
+      <c r="HP16" s="35"/>
+      <c r="HQ16" s="35"/>
+      <c r="HR16" s="35"/>
+      <c r="HS16" s="35"/>
+      <c r="HT16" s="35"/>
+      <c r="HU16" s="35"/>
+      <c r="HV16" s="35"/>
+      <c r="HW16" s="35"/>
+      <c r="HX16" s="35"/>
+      <c r="HY16" s="35"/>
+      <c r="HZ16" s="35"/>
+      <c r="IA16" s="35"/>
+      <c r="IB16" s="35"/>
+      <c r="IC16" s="35"/>
+      <c r="ID16" s="35"/>
+      <c r="IE16" s="35"/>
+      <c r="IF16" s="35"/>
+      <c r="IG16" s="35"/>
+      <c r="IH16" s="35"/>
+      <c r="II16" s="35"/>
+      <c r="IJ16" s="35"/>
+      <c r="IK16" s="35"/>
+      <c r="IL16" s="35"/>
+      <c r="IM16" s="35"/>
+      <c r="IN16" s="35"/>
+      <c r="IO16" s="35"/>
+      <c r="IP16" s="35"/>
+      <c r="IQ16" s="35"/>
+      <c r="IR16" s="35"/>
+      <c r="IS16" s="35"/>
+      <c r="IT16" s="35"/>
+      <c r="IU16" s="35"/>
+      <c r="IV16" s="35"/>
     </row>
-    <row r="17" ht="17.1" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" t="s" s="10">
+    <row r="17" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" t="s" s="15">
+      <c r="C17" s="46"/>
+      <c r="D17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" t="s" s="11">
+      <c r="E17" s="46"/>
+      <c r="F17" s="43" t="s">
         <v>43</v>
       </c>
+      <c r="G17" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="35"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="35"/>
+      <c r="BL17" s="35"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
+      <c r="BP17" s="35"/>
+      <c r="BQ17" s="35"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="35"/>
+      <c r="BT17" s="35"/>
+      <c r="BU17" s="35"/>
+      <c r="BV17" s="35"/>
+      <c r="BW17" s="35"/>
+      <c r="BX17" s="35"/>
+      <c r="BY17" s="35"/>
+      <c r="BZ17" s="35"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="35"/>
+      <c r="CC17" s="35"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="35"/>
+      <c r="CH17" s="35"/>
+      <c r="CI17" s="35"/>
+      <c r="CJ17" s="35"/>
+      <c r="CK17" s="35"/>
+      <c r="CL17" s="35"/>
+      <c r="CM17" s="35"/>
+      <c r="CN17" s="35"/>
+      <c r="CO17" s="35"/>
+      <c r="CP17" s="35"/>
+      <c r="CQ17" s="35"/>
+      <c r="CR17" s="35"/>
+      <c r="CS17" s="35"/>
+      <c r="CT17" s="35"/>
+      <c r="CU17" s="35"/>
+      <c r="CV17" s="35"/>
+      <c r="CW17" s="35"/>
+      <c r="CX17" s="35"/>
+      <c r="CY17" s="35"/>
+      <c r="CZ17" s="35"/>
+      <c r="DA17" s="35"/>
+      <c r="DB17" s="35"/>
+      <c r="DC17" s="35"/>
+      <c r="DD17" s="35"/>
+      <c r="DE17" s="35"/>
+      <c r="DF17" s="35"/>
+      <c r="DG17" s="35"/>
+      <c r="DH17" s="35"/>
+      <c r="DI17" s="35"/>
+      <c r="DJ17" s="35"/>
+      <c r="DK17" s="35"/>
+      <c r="DL17" s="35"/>
+      <c r="DM17" s="35"/>
+      <c r="DN17" s="35"/>
+      <c r="DO17" s="35"/>
+      <c r="DP17" s="35"/>
+      <c r="DQ17" s="35"/>
+      <c r="DR17" s="35"/>
+      <c r="DS17" s="35"/>
+      <c r="DT17" s="35"/>
+      <c r="DU17" s="35"/>
+      <c r="DV17" s="35"/>
+      <c r="DW17" s="35"/>
+      <c r="DX17" s="35"/>
+      <c r="DY17" s="35"/>
+      <c r="DZ17" s="35"/>
+      <c r="EA17" s="35"/>
+      <c r="EB17" s="35"/>
+      <c r="EC17" s="35"/>
+      <c r="ED17" s="35"/>
+      <c r="EE17" s="35"/>
+      <c r="EF17" s="35"/>
+      <c r="EG17" s="35"/>
+      <c r="EH17" s="35"/>
+      <c r="EI17" s="35"/>
+      <c r="EJ17" s="35"/>
+      <c r="EK17" s="35"/>
+      <c r="EL17" s="35"/>
+      <c r="EM17" s="35"/>
+      <c r="EN17" s="35"/>
+      <c r="EO17" s="35"/>
+      <c r="EP17" s="35"/>
+      <c r="EQ17" s="35"/>
+      <c r="ER17" s="35"/>
+      <c r="ES17" s="35"/>
+      <c r="ET17" s="35"/>
+      <c r="EU17" s="35"/>
+      <c r="EV17" s="35"/>
+      <c r="EW17" s="35"/>
+      <c r="EX17" s="35"/>
+      <c r="EY17" s="35"/>
+      <c r="EZ17" s="35"/>
+      <c r="FA17" s="35"/>
+      <c r="FB17" s="35"/>
+      <c r="FC17" s="35"/>
+      <c r="FD17" s="35"/>
+      <c r="FE17" s="35"/>
+      <c r="FF17" s="35"/>
+      <c r="FG17" s="35"/>
+      <c r="FH17" s="35"/>
+      <c r="FI17" s="35"/>
+      <c r="FJ17" s="35"/>
+      <c r="FK17" s="35"/>
+      <c r="FL17" s="35"/>
+      <c r="FM17" s="35"/>
+      <c r="FN17" s="35"/>
+      <c r="FO17" s="35"/>
+      <c r="FP17" s="35"/>
+      <c r="FQ17" s="35"/>
+      <c r="FR17" s="35"/>
+      <c r="FS17" s="35"/>
+      <c r="FT17" s="35"/>
+      <c r="FU17" s="35"/>
+      <c r="FV17" s="35"/>
+      <c r="FW17" s="35"/>
+      <c r="FX17" s="35"/>
+      <c r="FY17" s="35"/>
+      <c r="FZ17" s="35"/>
+      <c r="GA17" s="35"/>
+      <c r="GB17" s="35"/>
+      <c r="GC17" s="35"/>
+      <c r="GD17" s="35"/>
+      <c r="GE17" s="35"/>
+      <c r="GF17" s="35"/>
+      <c r="GG17" s="35"/>
+      <c r="GH17" s="35"/>
+      <c r="GI17" s="35"/>
+      <c r="GJ17" s="35"/>
+      <c r="GK17" s="35"/>
+      <c r="GL17" s="35"/>
+      <c r="GM17" s="35"/>
+      <c r="GN17" s="35"/>
+      <c r="GO17" s="35"/>
+      <c r="GP17" s="35"/>
+      <c r="GQ17" s="35"/>
+      <c r="GR17" s="35"/>
+      <c r="GS17" s="35"/>
+      <c r="GT17" s="35"/>
+      <c r="GU17" s="35"/>
+      <c r="GV17" s="35"/>
+      <c r="GW17" s="35"/>
+      <c r="GX17" s="35"/>
+      <c r="GY17" s="35"/>
+      <c r="GZ17" s="35"/>
+      <c r="HA17" s="35"/>
+      <c r="HB17" s="35"/>
+      <c r="HC17" s="35"/>
+      <c r="HD17" s="35"/>
+      <c r="HE17" s="35"/>
+      <c r="HF17" s="35"/>
+      <c r="HG17" s="35"/>
+      <c r="HH17" s="35"/>
+      <c r="HI17" s="35"/>
+      <c r="HJ17" s="35"/>
+      <c r="HK17" s="35"/>
+      <c r="HL17" s="35"/>
+      <c r="HM17" s="35"/>
+      <c r="HN17" s="35"/>
+      <c r="HO17" s="35"/>
+      <c r="HP17" s="35"/>
+      <c r="HQ17" s="35"/>
+      <c r="HR17" s="35"/>
+      <c r="HS17" s="35"/>
+      <c r="HT17" s="35"/>
+      <c r="HU17" s="35"/>
+      <c r="HV17" s="35"/>
+      <c r="HW17" s="35"/>
+      <c r="HX17" s="35"/>
+      <c r="HY17" s="35"/>
+      <c r="HZ17" s="35"/>
+      <c r="IA17" s="35"/>
+      <c r="IB17" s="35"/>
+      <c r="IC17" s="35"/>
+      <c r="ID17" s="35"/>
+      <c r="IE17" s="35"/>
+      <c r="IF17" s="35"/>
+      <c r="IG17" s="35"/>
+      <c r="IH17" s="35"/>
+      <c r="II17" s="35"/>
+      <c r="IJ17" s="35"/>
+      <c r="IK17" s="35"/>
+      <c r="IL17" s="35"/>
+      <c r="IM17" s="35"/>
+      <c r="IN17" s="35"/>
+      <c r="IO17" s="35"/>
+      <c r="IP17" s="35"/>
+      <c r="IQ17" s="35"/>
+      <c r="IR17" s="35"/>
+      <c r="IS17" s="35"/>
+      <c r="IT17" s="35"/>
+      <c r="IU17" s="35"/>
+      <c r="IV17" s="35"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s" s="10">
+    <row r="18" spans="1:256" s="36" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" t="s" s="11">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="43" t="s">
         <v>45</v>
       </c>
+      <c r="G18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="35"/>
+      <c r="BQ18" s="35"/>
+      <c r="BR18" s="35"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="35"/>
+      <c r="BU18" s="35"/>
+      <c r="BV18" s="35"/>
+      <c r="BW18" s="35"/>
+      <c r="BX18" s="35"/>
+      <c r="BY18" s="35"/>
+      <c r="BZ18" s="35"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="35"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="35"/>
+      <c r="CJ18" s="35"/>
+      <c r="CK18" s="35"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="35"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="35"/>
+      <c r="CW18" s="35"/>
+      <c r="CX18" s="35"/>
+      <c r="CY18" s="35"/>
+      <c r="CZ18" s="35"/>
+      <c r="DA18" s="35"/>
+      <c r="DB18" s="35"/>
+      <c r="DC18" s="35"/>
+      <c r="DD18" s="35"/>
+      <c r="DE18" s="35"/>
+      <c r="DF18" s="35"/>
+      <c r="DG18" s="35"/>
+      <c r="DH18" s="35"/>
+      <c r="DI18" s="35"/>
+      <c r="DJ18" s="35"/>
+      <c r="DK18" s="35"/>
+      <c r="DL18" s="35"/>
+      <c r="DM18" s="35"/>
+      <c r="DN18" s="35"/>
+      <c r="DO18" s="35"/>
+      <c r="DP18" s="35"/>
+      <c r="DQ18" s="35"/>
+      <c r="DR18" s="35"/>
+      <c r="DS18" s="35"/>
+      <c r="DT18" s="35"/>
+      <c r="DU18" s="35"/>
+      <c r="DV18" s="35"/>
+      <c r="DW18" s="35"/>
+      <c r="DX18" s="35"/>
+      <c r="DY18" s="35"/>
+      <c r="DZ18" s="35"/>
+      <c r="EA18" s="35"/>
+      <c r="EB18" s="35"/>
+      <c r="EC18" s="35"/>
+      <c r="ED18" s="35"/>
+      <c r="EE18" s="35"/>
+      <c r="EF18" s="35"/>
+      <c r="EG18" s="35"/>
+      <c r="EH18" s="35"/>
+      <c r="EI18" s="35"/>
+      <c r="EJ18" s="35"/>
+      <c r="EK18" s="35"/>
+      <c r="EL18" s="35"/>
+      <c r="EM18" s="35"/>
+      <c r="EN18" s="35"/>
+      <c r="EO18" s="35"/>
+      <c r="EP18" s="35"/>
+      <c r="EQ18" s="35"/>
+      <c r="ER18" s="35"/>
+      <c r="ES18" s="35"/>
+      <c r="ET18" s="35"/>
+      <c r="EU18" s="35"/>
+      <c r="EV18" s="35"/>
+      <c r="EW18" s="35"/>
+      <c r="EX18" s="35"/>
+      <c r="EY18" s="35"/>
+      <c r="EZ18" s="35"/>
+      <c r="FA18" s="35"/>
+      <c r="FB18" s="35"/>
+      <c r="FC18" s="35"/>
+      <c r="FD18" s="35"/>
+      <c r="FE18" s="35"/>
+      <c r="FF18" s="35"/>
+      <c r="FG18" s="35"/>
+      <c r="FH18" s="35"/>
+      <c r="FI18" s="35"/>
+      <c r="FJ18" s="35"/>
+      <c r="FK18" s="35"/>
+      <c r="FL18" s="35"/>
+      <c r="FM18" s="35"/>
+      <c r="FN18" s="35"/>
+      <c r="FO18" s="35"/>
+      <c r="FP18" s="35"/>
+      <c r="FQ18" s="35"/>
+      <c r="FR18" s="35"/>
+      <c r="FS18" s="35"/>
+      <c r="FT18" s="35"/>
+      <c r="FU18" s="35"/>
+      <c r="FV18" s="35"/>
+      <c r="FW18" s="35"/>
+      <c r="FX18" s="35"/>
+      <c r="FY18" s="35"/>
+      <c r="FZ18" s="35"/>
+      <c r="GA18" s="35"/>
+      <c r="GB18" s="35"/>
+      <c r="GC18" s="35"/>
+      <c r="GD18" s="35"/>
+      <c r="GE18" s="35"/>
+      <c r="GF18" s="35"/>
+      <c r="GG18" s="35"/>
+      <c r="GH18" s="35"/>
+      <c r="GI18" s="35"/>
+      <c r="GJ18" s="35"/>
+      <c r="GK18" s="35"/>
+      <c r="GL18" s="35"/>
+      <c r="GM18" s="35"/>
+      <c r="GN18" s="35"/>
+      <c r="GO18" s="35"/>
+      <c r="GP18" s="35"/>
+      <c r="GQ18" s="35"/>
+      <c r="GR18" s="35"/>
+      <c r="GS18" s="35"/>
+      <c r="GT18" s="35"/>
+      <c r="GU18" s="35"/>
+      <c r="GV18" s="35"/>
+      <c r="GW18" s="35"/>
+      <c r="GX18" s="35"/>
+      <c r="GY18" s="35"/>
+      <c r="GZ18" s="35"/>
+      <c r="HA18" s="35"/>
+      <c r="HB18" s="35"/>
+      <c r="HC18" s="35"/>
+      <c r="HD18" s="35"/>
+      <c r="HE18" s="35"/>
+      <c r="HF18" s="35"/>
+      <c r="HG18" s="35"/>
+      <c r="HH18" s="35"/>
+      <c r="HI18" s="35"/>
+      <c r="HJ18" s="35"/>
+      <c r="HK18" s="35"/>
+      <c r="HL18" s="35"/>
+      <c r="HM18" s="35"/>
+      <c r="HN18" s="35"/>
+      <c r="HO18" s="35"/>
+      <c r="HP18" s="35"/>
+      <c r="HQ18" s="35"/>
+      <c r="HR18" s="35"/>
+      <c r="HS18" s="35"/>
+      <c r="HT18" s="35"/>
+      <c r="HU18" s="35"/>
+      <c r="HV18" s="35"/>
+      <c r="HW18" s="35"/>
+      <c r="HX18" s="35"/>
+      <c r="HY18" s="35"/>
+      <c r="HZ18" s="35"/>
+      <c r="IA18" s="35"/>
+      <c r="IB18" s="35"/>
+      <c r="IC18" s="35"/>
+      <c r="ID18" s="35"/>
+      <c r="IE18" s="35"/>
+      <c r="IF18" s="35"/>
+      <c r="IG18" s="35"/>
+      <c r="IH18" s="35"/>
+      <c r="II18" s="35"/>
+      <c r="IJ18" s="35"/>
+      <c r="IK18" s="35"/>
+      <c r="IL18" s="35"/>
+      <c r="IM18" s="35"/>
+      <c r="IN18" s="35"/>
+      <c r="IO18" s="35"/>
+      <c r="IP18" s="35"/>
+      <c r="IQ18" s="35"/>
+      <c r="IR18" s="35"/>
+      <c r="IS18" s="35"/>
+      <c r="IT18" s="35"/>
+      <c r="IU18" s="35"/>
+      <c r="IV18" s="35"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" t="s" s="10">
+      <c r="B19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="48" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="20" ht="17.1" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" t="s" s="19">
+    <row r="20" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" t="s" s="21">
+      <c r="C20" s="54"/>
+      <c r="D20" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" t="s" s="23">
+      <c r="E20" s="54"/>
+      <c r="F20" s="57" t="s">
         <v>43</v>
       </c>
+      <c r="G20" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="35"/>
+      <c r="BB20" s="35"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="35"/>
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="35"/>
+      <c r="BQ20" s="35"/>
+      <c r="BR20" s="35"/>
+      <c r="BS20" s="35"/>
+      <c r="BT20" s="35"/>
+      <c r="BU20" s="35"/>
+      <c r="BV20" s="35"/>
+      <c r="BW20" s="35"/>
+      <c r="BX20" s="35"/>
+      <c r="BY20" s="35"/>
+      <c r="BZ20" s="35"/>
+      <c r="CA20" s="35"/>
+      <c r="CB20" s="35"/>
+      <c r="CC20" s="35"/>
+      <c r="CD20" s="35"/>
+      <c r="CE20" s="35"/>
+      <c r="CF20" s="35"/>
+      <c r="CG20" s="35"/>
+      <c r="CH20" s="35"/>
+      <c r="CI20" s="35"/>
+      <c r="CJ20" s="35"/>
+      <c r="CK20" s="35"/>
+      <c r="CL20" s="35"/>
+      <c r="CM20" s="35"/>
+      <c r="CN20" s="35"/>
+      <c r="CO20" s="35"/>
+      <c r="CP20" s="35"/>
+      <c r="CQ20" s="35"/>
+      <c r="CR20" s="35"/>
+      <c r="CS20" s="35"/>
+      <c r="CT20" s="35"/>
+      <c r="CU20" s="35"/>
+      <c r="CV20" s="35"/>
+      <c r="CW20" s="35"/>
+      <c r="CX20" s="35"/>
+      <c r="CY20" s="35"/>
+      <c r="CZ20" s="35"/>
+      <c r="DA20" s="35"/>
+      <c r="DB20" s="35"/>
+      <c r="DC20" s="35"/>
+      <c r="DD20" s="35"/>
+      <c r="DE20" s="35"/>
+      <c r="DF20" s="35"/>
+      <c r="DG20" s="35"/>
+      <c r="DH20" s="35"/>
+      <c r="DI20" s="35"/>
+      <c r="DJ20" s="35"/>
+      <c r="DK20" s="35"/>
+      <c r="DL20" s="35"/>
+      <c r="DM20" s="35"/>
+      <c r="DN20" s="35"/>
+      <c r="DO20" s="35"/>
+      <c r="DP20" s="35"/>
+      <c r="DQ20" s="35"/>
+      <c r="DR20" s="35"/>
+      <c r="DS20" s="35"/>
+      <c r="DT20" s="35"/>
+      <c r="DU20" s="35"/>
+      <c r="DV20" s="35"/>
+      <c r="DW20" s="35"/>
+      <c r="DX20" s="35"/>
+      <c r="DY20" s="35"/>
+      <c r="DZ20" s="35"/>
+      <c r="EA20" s="35"/>
+      <c r="EB20" s="35"/>
+      <c r="EC20" s="35"/>
+      <c r="ED20" s="35"/>
+      <c r="EE20" s="35"/>
+      <c r="EF20" s="35"/>
+      <c r="EG20" s="35"/>
+      <c r="EH20" s="35"/>
+      <c r="EI20" s="35"/>
+      <c r="EJ20" s="35"/>
+      <c r="EK20" s="35"/>
+      <c r="EL20" s="35"/>
+      <c r="EM20" s="35"/>
+      <c r="EN20" s="35"/>
+      <c r="EO20" s="35"/>
+      <c r="EP20" s="35"/>
+      <c r="EQ20" s="35"/>
+      <c r="ER20" s="35"/>
+      <c r="ES20" s="35"/>
+      <c r="ET20" s="35"/>
+      <c r="EU20" s="35"/>
+      <c r="EV20" s="35"/>
+      <c r="EW20" s="35"/>
+      <c r="EX20" s="35"/>
+      <c r="EY20" s="35"/>
+      <c r="EZ20" s="35"/>
+      <c r="FA20" s="35"/>
+      <c r="FB20" s="35"/>
+      <c r="FC20" s="35"/>
+      <c r="FD20" s="35"/>
+      <c r="FE20" s="35"/>
+      <c r="FF20" s="35"/>
+      <c r="FG20" s="35"/>
+      <c r="FH20" s="35"/>
+      <c r="FI20" s="35"/>
+      <c r="FJ20" s="35"/>
+      <c r="FK20" s="35"/>
+      <c r="FL20" s="35"/>
+      <c r="FM20" s="35"/>
+      <c r="FN20" s="35"/>
+      <c r="FO20" s="35"/>
+      <c r="FP20" s="35"/>
+      <c r="FQ20" s="35"/>
+      <c r="FR20" s="35"/>
+      <c r="FS20" s="35"/>
+      <c r="FT20" s="35"/>
+      <c r="FU20" s="35"/>
+      <c r="FV20" s="35"/>
+      <c r="FW20" s="35"/>
+      <c r="FX20" s="35"/>
+      <c r="FY20" s="35"/>
+      <c r="FZ20" s="35"/>
+      <c r="GA20" s="35"/>
+      <c r="GB20" s="35"/>
+      <c r="GC20" s="35"/>
+      <c r="GD20" s="35"/>
+      <c r="GE20" s="35"/>
+      <c r="GF20" s="35"/>
+      <c r="GG20" s="35"/>
+      <c r="GH20" s="35"/>
+      <c r="GI20" s="35"/>
+      <c r="GJ20" s="35"/>
+      <c r="GK20" s="35"/>
+      <c r="GL20" s="35"/>
+      <c r="GM20" s="35"/>
+      <c r="GN20" s="35"/>
+      <c r="GO20" s="35"/>
+      <c r="GP20" s="35"/>
+      <c r="GQ20" s="35"/>
+      <c r="GR20" s="35"/>
+      <c r="GS20" s="35"/>
+      <c r="GT20" s="35"/>
+      <c r="GU20" s="35"/>
+      <c r="GV20" s="35"/>
+      <c r="GW20" s="35"/>
+      <c r="GX20" s="35"/>
+      <c r="GY20" s="35"/>
+      <c r="GZ20" s="35"/>
+      <c r="HA20" s="35"/>
+      <c r="HB20" s="35"/>
+      <c r="HC20" s="35"/>
+      <c r="HD20" s="35"/>
+      <c r="HE20" s="35"/>
+      <c r="HF20" s="35"/>
+      <c r="HG20" s="35"/>
+      <c r="HH20" s="35"/>
+      <c r="HI20" s="35"/>
+      <c r="HJ20" s="35"/>
+      <c r="HK20" s="35"/>
+      <c r="HL20" s="35"/>
+      <c r="HM20" s="35"/>
+      <c r="HN20" s="35"/>
+      <c r="HO20" s="35"/>
+      <c r="HP20" s="35"/>
+      <c r="HQ20" s="35"/>
+      <c r="HR20" s="35"/>
+      <c r="HS20" s="35"/>
+      <c r="HT20" s="35"/>
+      <c r="HU20" s="35"/>
+      <c r="HV20" s="35"/>
+      <c r="HW20" s="35"/>
+      <c r="HX20" s="35"/>
+      <c r="HY20" s="35"/>
+      <c r="HZ20" s="35"/>
+      <c r="IA20" s="35"/>
+      <c r="IB20" s="35"/>
+      <c r="IC20" s="35"/>
+      <c r="ID20" s="35"/>
+      <c r="IE20" s="35"/>
+      <c r="IF20" s="35"/>
+      <c r="IG20" s="35"/>
+      <c r="IH20" s="35"/>
+      <c r="II20" s="35"/>
+      <c r="IJ20" s="35"/>
+      <c r="IK20" s="35"/>
+      <c r="IL20" s="35"/>
+      <c r="IM20" s="35"/>
+      <c r="IN20" s="35"/>
+      <c r="IO20" s="35"/>
+      <c r="IP20" s="35"/>
+      <c r="IQ20" s="35"/>
+      <c r="IR20" s="35"/>
+      <c r="IS20" s="35"/>
+      <c r="IT20" s="35"/>
+      <c r="IU20" s="35"/>
+      <c r="IV20" s="35"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
     </row>
-    <row r="22" ht="29" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:256" s="36" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s" s="31">
+      <c r="B22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" t="s" s="33">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>9</v>
       </c>
-      <c r="F22" t="s" s="35">
+      <c r="F22" s="34" t="s">
         <v>33</v>
       </c>
+      <c r="G22" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="35"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="35"/>
+      <c r="BP22" s="35"/>
+      <c r="BQ22" s="35"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BT22" s="35"/>
+      <c r="BU22" s="35"/>
+      <c r="BV22" s="35"/>
+      <c r="BW22" s="35"/>
+      <c r="BX22" s="35"/>
+      <c r="BY22" s="35"/>
+      <c r="BZ22" s="35"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="35"/>
+      <c r="CC22" s="35"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="35"/>
+      <c r="CG22" s="35"/>
+      <c r="CH22" s="35"/>
+      <c r="CI22" s="35"/>
+      <c r="CJ22" s="35"/>
+      <c r="CK22" s="35"/>
+      <c r="CL22" s="35"/>
+      <c r="CM22" s="35"/>
+      <c r="CN22" s="35"/>
+      <c r="CO22" s="35"/>
+      <c r="CP22" s="35"/>
+      <c r="CQ22" s="35"/>
+      <c r="CR22" s="35"/>
+      <c r="CS22" s="35"/>
+      <c r="CT22" s="35"/>
+      <c r="CU22" s="35"/>
+      <c r="CV22" s="35"/>
+      <c r="CW22" s="35"/>
+      <c r="CX22" s="35"/>
+      <c r="CY22" s="35"/>
+      <c r="CZ22" s="35"/>
+      <c r="DA22" s="35"/>
+      <c r="DB22" s="35"/>
+      <c r="DC22" s="35"/>
+      <c r="DD22" s="35"/>
+      <c r="DE22" s="35"/>
+      <c r="DF22" s="35"/>
+      <c r="DG22" s="35"/>
+      <c r="DH22" s="35"/>
+      <c r="DI22" s="35"/>
+      <c r="DJ22" s="35"/>
+      <c r="DK22" s="35"/>
+      <c r="DL22" s="35"/>
+      <c r="DM22" s="35"/>
+      <c r="DN22" s="35"/>
+      <c r="DO22" s="35"/>
+      <c r="DP22" s="35"/>
+      <c r="DQ22" s="35"/>
+      <c r="DR22" s="35"/>
+      <c r="DS22" s="35"/>
+      <c r="DT22" s="35"/>
+      <c r="DU22" s="35"/>
+      <c r="DV22" s="35"/>
+      <c r="DW22" s="35"/>
+      <c r="DX22" s="35"/>
+      <c r="DY22" s="35"/>
+      <c r="DZ22" s="35"/>
+      <c r="EA22" s="35"/>
+      <c r="EB22" s="35"/>
+      <c r="EC22" s="35"/>
+      <c r="ED22" s="35"/>
+      <c r="EE22" s="35"/>
+      <c r="EF22" s="35"/>
+      <c r="EG22" s="35"/>
+      <c r="EH22" s="35"/>
+      <c r="EI22" s="35"/>
+      <c r="EJ22" s="35"/>
+      <c r="EK22" s="35"/>
+      <c r="EL22" s="35"/>
+      <c r="EM22" s="35"/>
+      <c r="EN22" s="35"/>
+      <c r="EO22" s="35"/>
+      <c r="EP22" s="35"/>
+      <c r="EQ22" s="35"/>
+      <c r="ER22" s="35"/>
+      <c r="ES22" s="35"/>
+      <c r="ET22" s="35"/>
+      <c r="EU22" s="35"/>
+      <c r="EV22" s="35"/>
+      <c r="EW22" s="35"/>
+      <c r="EX22" s="35"/>
+      <c r="EY22" s="35"/>
+      <c r="EZ22" s="35"/>
+      <c r="FA22" s="35"/>
+      <c r="FB22" s="35"/>
+      <c r="FC22" s="35"/>
+      <c r="FD22" s="35"/>
+      <c r="FE22" s="35"/>
+      <c r="FF22" s="35"/>
+      <c r="FG22" s="35"/>
+      <c r="FH22" s="35"/>
+      <c r="FI22" s="35"/>
+      <c r="FJ22" s="35"/>
+      <c r="FK22" s="35"/>
+      <c r="FL22" s="35"/>
+      <c r="FM22" s="35"/>
+      <c r="FN22" s="35"/>
+      <c r="FO22" s="35"/>
+      <c r="FP22" s="35"/>
+      <c r="FQ22" s="35"/>
+      <c r="FR22" s="35"/>
+      <c r="FS22" s="35"/>
+      <c r="FT22" s="35"/>
+      <c r="FU22" s="35"/>
+      <c r="FV22" s="35"/>
+      <c r="FW22" s="35"/>
+      <c r="FX22" s="35"/>
+      <c r="FY22" s="35"/>
+      <c r="FZ22" s="35"/>
+      <c r="GA22" s="35"/>
+      <c r="GB22" s="35"/>
+      <c r="GC22" s="35"/>
+      <c r="GD22" s="35"/>
+      <c r="GE22" s="35"/>
+      <c r="GF22" s="35"/>
+      <c r="GG22" s="35"/>
+      <c r="GH22" s="35"/>
+      <c r="GI22" s="35"/>
+      <c r="GJ22" s="35"/>
+      <c r="GK22" s="35"/>
+      <c r="GL22" s="35"/>
+      <c r="GM22" s="35"/>
+      <c r="GN22" s="35"/>
+      <c r="GO22" s="35"/>
+      <c r="GP22" s="35"/>
+      <c r="GQ22" s="35"/>
+      <c r="GR22" s="35"/>
+      <c r="GS22" s="35"/>
+      <c r="GT22" s="35"/>
+      <c r="GU22" s="35"/>
+      <c r="GV22" s="35"/>
+      <c r="GW22" s="35"/>
+      <c r="GX22" s="35"/>
+      <c r="GY22" s="35"/>
+      <c r="GZ22" s="35"/>
+      <c r="HA22" s="35"/>
+      <c r="HB22" s="35"/>
+      <c r="HC22" s="35"/>
+      <c r="HD22" s="35"/>
+      <c r="HE22" s="35"/>
+      <c r="HF22" s="35"/>
+      <c r="HG22" s="35"/>
+      <c r="HH22" s="35"/>
+      <c r="HI22" s="35"/>
+      <c r="HJ22" s="35"/>
+      <c r="HK22" s="35"/>
+      <c r="HL22" s="35"/>
+      <c r="HM22" s="35"/>
+      <c r="HN22" s="35"/>
+      <c r="HO22" s="35"/>
+      <c r="HP22" s="35"/>
+      <c r="HQ22" s="35"/>
+      <c r="HR22" s="35"/>
+      <c r="HS22" s="35"/>
+      <c r="HT22" s="35"/>
+      <c r="HU22" s="35"/>
+      <c r="HV22" s="35"/>
+      <c r="HW22" s="35"/>
+      <c r="HX22" s="35"/>
+      <c r="HY22" s="35"/>
+      <c r="HZ22" s="35"/>
+      <c r="IA22" s="35"/>
+      <c r="IB22" s="35"/>
+      <c r="IC22" s="35"/>
+      <c r="ID22" s="35"/>
+      <c r="IE22" s="35"/>
+      <c r="IF22" s="35"/>
+      <c r="IG22" s="35"/>
+      <c r="IH22" s="35"/>
+      <c r="II22" s="35"/>
+      <c r="IJ22" s="35"/>
+      <c r="IK22" s="35"/>
+      <c r="IL22" s="35"/>
+      <c r="IM22" s="35"/>
+      <c r="IN22" s="35"/>
+      <c r="IO22" s="35"/>
+      <c r="IP22" s="35"/>
+      <c r="IQ22" s="35"/>
+      <c r="IR22" s="35"/>
+      <c r="IS22" s="35"/>
+      <c r="IT22" s="35"/>
+      <c r="IU22" s="35"/>
+      <c r="IV22" s="35"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s" s="26">
+      <c r="B24" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" t="s" s="29">
+      <c r="D24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="21">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="29">
+      <c r="F24" s="22" t="s">
         <v>55</v>
       </c>
+      <c r="G24" s="51" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="6">
+    <row r="25" spans="1:256" s="65" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s" s="19">
+      <c r="B25" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" t="s" s="23">
+      <c r="C25" s="78"/>
+      <c r="D25" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="80">
         <v>11</v>
       </c>
-      <c r="F25" t="s" s="23">
+      <c r="F25" s="79" t="s">
         <v>59</v>
       </c>
+      <c r="G25" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="64"/>
+      <c r="BA25" s="64"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="64"/>
+      <c r="BE25" s="64"/>
+      <c r="BF25" s="64"/>
+      <c r="BG25" s="64"/>
+      <c r="BH25" s="64"/>
+      <c r="BI25" s="64"/>
+      <c r="BJ25" s="64"/>
+      <c r="BK25" s="64"/>
+      <c r="BL25" s="64"/>
+      <c r="BM25" s="64"/>
+      <c r="BN25" s="64"/>
+      <c r="BO25" s="64"/>
+      <c r="BP25" s="64"/>
+      <c r="BQ25" s="64"/>
+      <c r="BR25" s="64"/>
+      <c r="BS25" s="64"/>
+      <c r="BT25" s="64"/>
+      <c r="BU25" s="64"/>
+      <c r="BV25" s="64"/>
+      <c r="BW25" s="64"/>
+      <c r="BX25" s="64"/>
+      <c r="BY25" s="64"/>
+      <c r="BZ25" s="64"/>
+      <c r="CA25" s="64"/>
+      <c r="CB25" s="64"/>
+      <c r="CC25" s="64"/>
+      <c r="CD25" s="64"/>
+      <c r="CE25" s="64"/>
+      <c r="CF25" s="64"/>
+      <c r="CG25" s="64"/>
+      <c r="CH25" s="64"/>
+      <c r="CI25" s="64"/>
+      <c r="CJ25" s="64"/>
+      <c r="CK25" s="64"/>
+      <c r="CL25" s="64"/>
+      <c r="CM25" s="64"/>
+      <c r="CN25" s="64"/>
+      <c r="CO25" s="64"/>
+      <c r="CP25" s="64"/>
+      <c r="CQ25" s="64"/>
+      <c r="CR25" s="64"/>
+      <c r="CS25" s="64"/>
+      <c r="CT25" s="64"/>
+      <c r="CU25" s="64"/>
+      <c r="CV25" s="64"/>
+      <c r="CW25" s="64"/>
+      <c r="CX25" s="64"/>
+      <c r="CY25" s="64"/>
+      <c r="CZ25" s="64"/>
+      <c r="DA25" s="64"/>
+      <c r="DB25" s="64"/>
+      <c r="DC25" s="64"/>
+      <c r="DD25" s="64"/>
+      <c r="DE25" s="64"/>
+      <c r="DF25" s="64"/>
+      <c r="DG25" s="64"/>
+      <c r="DH25" s="64"/>
+      <c r="DI25" s="64"/>
+      <c r="DJ25" s="64"/>
+      <c r="DK25" s="64"/>
+      <c r="DL25" s="64"/>
+      <c r="DM25" s="64"/>
+      <c r="DN25" s="64"/>
+      <c r="DO25" s="64"/>
+      <c r="DP25" s="64"/>
+      <c r="DQ25" s="64"/>
+      <c r="DR25" s="64"/>
+      <c r="DS25" s="64"/>
+      <c r="DT25" s="64"/>
+      <c r="DU25" s="64"/>
+      <c r="DV25" s="64"/>
+      <c r="DW25" s="64"/>
+      <c r="DX25" s="64"/>
+      <c r="DY25" s="64"/>
+      <c r="DZ25" s="64"/>
+      <c r="EA25" s="64"/>
+      <c r="EB25" s="64"/>
+      <c r="EC25" s="64"/>
+      <c r="ED25" s="64"/>
+      <c r="EE25" s="64"/>
+      <c r="EF25" s="64"/>
+      <c r="EG25" s="64"/>
+      <c r="EH25" s="64"/>
+      <c r="EI25" s="64"/>
+      <c r="EJ25" s="64"/>
+      <c r="EK25" s="64"/>
+      <c r="EL25" s="64"/>
+      <c r="EM25" s="64"/>
+      <c r="EN25" s="64"/>
+      <c r="EO25" s="64"/>
+      <c r="EP25" s="64"/>
+      <c r="EQ25" s="64"/>
+      <c r="ER25" s="64"/>
+      <c r="ES25" s="64"/>
+      <c r="ET25" s="64"/>
+      <c r="EU25" s="64"/>
+      <c r="EV25" s="64"/>
+      <c r="EW25" s="64"/>
+      <c r="EX25" s="64"/>
+      <c r="EY25" s="64"/>
+      <c r="EZ25" s="64"/>
+      <c r="FA25" s="64"/>
+      <c r="FB25" s="64"/>
+      <c r="FC25" s="64"/>
+      <c r="FD25" s="64"/>
+      <c r="FE25" s="64"/>
+      <c r="FF25" s="64"/>
+      <c r="FG25" s="64"/>
+      <c r="FH25" s="64"/>
+      <c r="FI25" s="64"/>
+      <c r="FJ25" s="64"/>
+      <c r="FK25" s="64"/>
+      <c r="FL25" s="64"/>
+      <c r="FM25" s="64"/>
+      <c r="FN25" s="64"/>
+      <c r="FO25" s="64"/>
+      <c r="FP25" s="64"/>
+      <c r="FQ25" s="64"/>
+      <c r="FR25" s="64"/>
+      <c r="FS25" s="64"/>
+      <c r="FT25" s="64"/>
+      <c r="FU25" s="64"/>
+      <c r="FV25" s="64"/>
+      <c r="FW25" s="64"/>
+      <c r="FX25" s="64"/>
+      <c r="FY25" s="64"/>
+      <c r="FZ25" s="64"/>
+      <c r="GA25" s="64"/>
+      <c r="GB25" s="64"/>
+      <c r="GC25" s="64"/>
+      <c r="GD25" s="64"/>
+      <c r="GE25" s="64"/>
+      <c r="GF25" s="64"/>
+      <c r="GG25" s="64"/>
+      <c r="GH25" s="64"/>
+      <c r="GI25" s="64"/>
+      <c r="GJ25" s="64"/>
+      <c r="GK25" s="64"/>
+      <c r="GL25" s="64"/>
+      <c r="GM25" s="64"/>
+      <c r="GN25" s="64"/>
+      <c r="GO25" s="64"/>
+      <c r="GP25" s="64"/>
+      <c r="GQ25" s="64"/>
+      <c r="GR25" s="64"/>
+      <c r="GS25" s="64"/>
+      <c r="GT25" s="64"/>
+      <c r="GU25" s="64"/>
+      <c r="GV25" s="64"/>
+      <c r="GW25" s="64"/>
+      <c r="GX25" s="64"/>
+      <c r="GY25" s="64"/>
+      <c r="GZ25" s="64"/>
+      <c r="HA25" s="64"/>
+      <c r="HB25" s="64"/>
+      <c r="HC25" s="64"/>
+      <c r="HD25" s="64"/>
+      <c r="HE25" s="64"/>
+      <c r="HF25" s="64"/>
+      <c r="HG25" s="64"/>
+      <c r="HH25" s="64"/>
+      <c r="HI25" s="64"/>
+      <c r="HJ25" s="64"/>
+      <c r="HK25" s="64"/>
+      <c r="HL25" s="64"/>
+      <c r="HM25" s="64"/>
+      <c r="HN25" s="64"/>
+      <c r="HO25" s="64"/>
+      <c r="HP25" s="64"/>
+      <c r="HQ25" s="64"/>
+      <c r="HR25" s="64"/>
+      <c r="HS25" s="64"/>
+      <c r="HT25" s="64"/>
+      <c r="HU25" s="64"/>
+      <c r="HV25" s="64"/>
+      <c r="HW25" s="64"/>
+      <c r="HX25" s="64"/>
+      <c r="HY25" s="64"/>
+      <c r="HZ25" s="64"/>
+      <c r="IA25" s="64"/>
+      <c r="IB25" s="64"/>
+      <c r="IC25" s="64"/>
+      <c r="ID25" s="64"/>
+      <c r="IE25" s="64"/>
+      <c r="IF25" s="64"/>
+      <c r="IG25" s="64"/>
+      <c r="IH25" s="64"/>
+      <c r="II25" s="64"/>
+      <c r="IJ25" s="64"/>
+      <c r="IK25" s="64"/>
+      <c r="IL25" s="64"/>
+      <c r="IM25" s="64"/>
+      <c r="IN25" s="64"/>
+      <c r="IO25" s="64"/>
+      <c r="IP25" s="64"/>
+      <c r="IQ25" s="64"/>
+      <c r="IR25" s="64"/>
+      <c r="IS25" s="64"/>
+      <c r="IT25" s="64"/>
+      <c r="IU25" s="64"/>
+      <c r="IV25" s="64"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
-    <row r="27" ht="32.7" customHeight="1">
-      <c r="A27" t="s" s="6">
+    <row r="27" spans="1:256" s="65" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s" s="26">
+      <c r="B27" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" t="s" s="27">
+      <c r="C27" s="83"/>
+      <c r="D27" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" t="s" s="36">
+      <c r="E27" s="83"/>
+      <c r="F27" s="84" t="s">
         <v>63</v>
       </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BL27" s="64"/>
+      <c r="BM27" s="64"/>
+      <c r="BN27" s="64"/>
+      <c r="BO27" s="64"/>
+      <c r="BP27" s="64"/>
+      <c r="BQ27" s="64"/>
+      <c r="BR27" s="64"/>
+      <c r="BS27" s="64"/>
+      <c r="BT27" s="64"/>
+      <c r="BU27" s="64"/>
+      <c r="BV27" s="64"/>
+      <c r="BW27" s="64"/>
+      <c r="BX27" s="64"/>
+      <c r="BY27" s="64"/>
+      <c r="BZ27" s="64"/>
+      <c r="CA27" s="64"/>
+      <c r="CB27" s="64"/>
+      <c r="CC27" s="64"/>
+      <c r="CD27" s="64"/>
+      <c r="CE27" s="64"/>
+      <c r="CF27" s="64"/>
+      <c r="CG27" s="64"/>
+      <c r="CH27" s="64"/>
+      <c r="CI27" s="64"/>
+      <c r="CJ27" s="64"/>
+      <c r="CK27" s="64"/>
+      <c r="CL27" s="64"/>
+      <c r="CM27" s="64"/>
+      <c r="CN27" s="64"/>
+      <c r="CO27" s="64"/>
+      <c r="CP27" s="64"/>
+      <c r="CQ27" s="64"/>
+      <c r="CR27" s="64"/>
+      <c r="CS27" s="64"/>
+      <c r="CT27" s="64"/>
+      <c r="CU27" s="64"/>
+      <c r="CV27" s="64"/>
+      <c r="CW27" s="64"/>
+      <c r="CX27" s="64"/>
+      <c r="CY27" s="64"/>
+      <c r="CZ27" s="64"/>
+      <c r="DA27" s="64"/>
+      <c r="DB27" s="64"/>
+      <c r="DC27" s="64"/>
+      <c r="DD27" s="64"/>
+      <c r="DE27" s="64"/>
+      <c r="DF27" s="64"/>
+      <c r="DG27" s="64"/>
+      <c r="DH27" s="64"/>
+      <c r="DI27" s="64"/>
+      <c r="DJ27" s="64"/>
+      <c r="DK27" s="64"/>
+      <c r="DL27" s="64"/>
+      <c r="DM27" s="64"/>
+      <c r="DN27" s="64"/>
+      <c r="DO27" s="64"/>
+      <c r="DP27" s="64"/>
+      <c r="DQ27" s="64"/>
+      <c r="DR27" s="64"/>
+      <c r="DS27" s="64"/>
+      <c r="DT27" s="64"/>
+      <c r="DU27" s="64"/>
+      <c r="DV27" s="64"/>
+      <c r="DW27" s="64"/>
+      <c r="DX27" s="64"/>
+      <c r="DY27" s="64"/>
+      <c r="DZ27" s="64"/>
+      <c r="EA27" s="64"/>
+      <c r="EB27" s="64"/>
+      <c r="EC27" s="64"/>
+      <c r="ED27" s="64"/>
+      <c r="EE27" s="64"/>
+      <c r="EF27" s="64"/>
+      <c r="EG27" s="64"/>
+      <c r="EH27" s="64"/>
+      <c r="EI27" s="64"/>
+      <c r="EJ27" s="64"/>
+      <c r="EK27" s="64"/>
+      <c r="EL27" s="64"/>
+      <c r="EM27" s="64"/>
+      <c r="EN27" s="64"/>
+      <c r="EO27" s="64"/>
+      <c r="EP27" s="64"/>
+      <c r="EQ27" s="64"/>
+      <c r="ER27" s="64"/>
+      <c r="ES27" s="64"/>
+      <c r="ET27" s="64"/>
+      <c r="EU27" s="64"/>
+      <c r="EV27" s="64"/>
+      <c r="EW27" s="64"/>
+      <c r="EX27" s="64"/>
+      <c r="EY27" s="64"/>
+      <c r="EZ27" s="64"/>
+      <c r="FA27" s="64"/>
+      <c r="FB27" s="64"/>
+      <c r="FC27" s="64"/>
+      <c r="FD27" s="64"/>
+      <c r="FE27" s="64"/>
+      <c r="FF27" s="64"/>
+      <c r="FG27" s="64"/>
+      <c r="FH27" s="64"/>
+      <c r="FI27" s="64"/>
+      <c r="FJ27" s="64"/>
+      <c r="FK27" s="64"/>
+      <c r="FL27" s="64"/>
+      <c r="FM27" s="64"/>
+      <c r="FN27" s="64"/>
+      <c r="FO27" s="64"/>
+      <c r="FP27" s="64"/>
+      <c r="FQ27" s="64"/>
+      <c r="FR27" s="64"/>
+      <c r="FS27" s="64"/>
+      <c r="FT27" s="64"/>
+      <c r="FU27" s="64"/>
+      <c r="FV27" s="64"/>
+      <c r="FW27" s="64"/>
+      <c r="FX27" s="64"/>
+      <c r="FY27" s="64"/>
+      <c r="FZ27" s="64"/>
+      <c r="GA27" s="64"/>
+      <c r="GB27" s="64"/>
+      <c r="GC27" s="64"/>
+      <c r="GD27" s="64"/>
+      <c r="GE27" s="64"/>
+      <c r="GF27" s="64"/>
+      <c r="GG27" s="64"/>
+      <c r="GH27" s="64"/>
+      <c r="GI27" s="64"/>
+      <c r="GJ27" s="64"/>
+      <c r="GK27" s="64"/>
+      <c r="GL27" s="64"/>
+      <c r="GM27" s="64"/>
+      <c r="GN27" s="64"/>
+      <c r="GO27" s="64"/>
+      <c r="GP27" s="64"/>
+      <c r="GQ27" s="64"/>
+      <c r="GR27" s="64"/>
+      <c r="GS27" s="64"/>
+      <c r="GT27" s="64"/>
+      <c r="GU27" s="64"/>
+      <c r="GV27" s="64"/>
+      <c r="GW27" s="64"/>
+      <c r="GX27" s="64"/>
+      <c r="GY27" s="64"/>
+      <c r="GZ27" s="64"/>
+      <c r="HA27" s="64"/>
+      <c r="HB27" s="64"/>
+      <c r="HC27" s="64"/>
+      <c r="HD27" s="64"/>
+      <c r="HE27" s="64"/>
+      <c r="HF27" s="64"/>
+      <c r="HG27" s="64"/>
+      <c r="HH27" s="64"/>
+      <c r="HI27" s="64"/>
+      <c r="HJ27" s="64"/>
+      <c r="HK27" s="64"/>
+      <c r="HL27" s="64"/>
+      <c r="HM27" s="64"/>
+      <c r="HN27" s="64"/>
+      <c r="HO27" s="64"/>
+      <c r="HP27" s="64"/>
+      <c r="HQ27" s="64"/>
+      <c r="HR27" s="64"/>
+      <c r="HS27" s="64"/>
+      <c r="HT27" s="64"/>
+      <c r="HU27" s="64"/>
+      <c r="HV27" s="64"/>
+      <c r="HW27" s="64"/>
+      <c r="HX27" s="64"/>
+      <c r="HY27" s="64"/>
+      <c r="HZ27" s="64"/>
+      <c r="IA27" s="64"/>
+      <c r="IB27" s="64"/>
+      <c r="IC27" s="64"/>
+      <c r="ID27" s="64"/>
+      <c r="IE27" s="64"/>
+      <c r="IF27" s="64"/>
+      <c r="IG27" s="64"/>
+      <c r="IH27" s="64"/>
+      <c r="II27" s="64"/>
+      <c r="IJ27" s="64"/>
+      <c r="IK27" s="64"/>
+      <c r="IL27" s="64"/>
+      <c r="IM27" s="64"/>
+      <c r="IN27" s="64"/>
+      <c r="IO27" s="64"/>
+      <c r="IP27" s="64"/>
+      <c r="IQ27" s="64"/>
+      <c r="IR27" s="64"/>
+      <c r="IS27" s="64"/>
+      <c r="IT27" s="64"/>
+      <c r="IU27" s="64"/>
+      <c r="IV27" s="64"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
-    <row r="30" ht="29" customHeight="1">
-      <c r="A30" t="s" s="6">
+    <row r="30" spans="1:256" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="32"/>
-      <c r="D30" t="s" s="33">
+      <c r="B30" s="27"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" t="s" s="35">
+      <c r="E30" s="24"/>
+      <c r="F30" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="6">
+    <row r="32" spans="1:256" s="36" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s" s="26">
+      <c r="B32" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" t="s" s="29">
+      <c r="C32" s="38"/>
+      <c r="D32" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="40">
         <v>12</v>
       </c>
-      <c r="F32" t="s" s="29">
+      <c r="F32" s="39" t="s">
         <v>33</v>
       </c>
+      <c r="G32" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="35"/>
+      <c r="AS32" s="35"/>
+      <c r="AT32" s="35"/>
+      <c r="AU32" s="35"/>
+      <c r="AV32" s="35"/>
+      <c r="AW32" s="35"/>
+      <c r="AX32" s="35"/>
+      <c r="AY32" s="35"/>
+      <c r="AZ32" s="35"/>
+      <c r="BA32" s="35"/>
+      <c r="BB32" s="35"/>
+      <c r="BC32" s="35"/>
+      <c r="BD32" s="35"/>
+      <c r="BE32" s="35"/>
+      <c r="BF32" s="35"/>
+      <c r="BG32" s="35"/>
+      <c r="BH32" s="35"/>
+      <c r="BI32" s="35"/>
+      <c r="BJ32" s="35"/>
+      <c r="BK32" s="35"/>
+      <c r="BL32" s="35"/>
+      <c r="BM32" s="35"/>
+      <c r="BN32" s="35"/>
+      <c r="BO32" s="35"/>
+      <c r="BP32" s="35"/>
+      <c r="BQ32" s="35"/>
+      <c r="BR32" s="35"/>
+      <c r="BS32" s="35"/>
+      <c r="BT32" s="35"/>
+      <c r="BU32" s="35"/>
+      <c r="BV32" s="35"/>
+      <c r="BW32" s="35"/>
+      <c r="BX32" s="35"/>
+      <c r="BY32" s="35"/>
+      <c r="BZ32" s="35"/>
+      <c r="CA32" s="35"/>
+      <c r="CB32" s="35"/>
+      <c r="CC32" s="35"/>
+      <c r="CD32" s="35"/>
+      <c r="CE32" s="35"/>
+      <c r="CF32" s="35"/>
+      <c r="CG32" s="35"/>
+      <c r="CH32" s="35"/>
+      <c r="CI32" s="35"/>
+      <c r="CJ32" s="35"/>
+      <c r="CK32" s="35"/>
+      <c r="CL32" s="35"/>
+      <c r="CM32" s="35"/>
+      <c r="CN32" s="35"/>
+      <c r="CO32" s="35"/>
+      <c r="CP32" s="35"/>
+      <c r="CQ32" s="35"/>
+      <c r="CR32" s="35"/>
+      <c r="CS32" s="35"/>
+      <c r="CT32" s="35"/>
+      <c r="CU32" s="35"/>
+      <c r="CV32" s="35"/>
+      <c r="CW32" s="35"/>
+      <c r="CX32" s="35"/>
+      <c r="CY32" s="35"/>
+      <c r="CZ32" s="35"/>
+      <c r="DA32" s="35"/>
+      <c r="DB32" s="35"/>
+      <c r="DC32" s="35"/>
+      <c r="DD32" s="35"/>
+      <c r="DE32" s="35"/>
+      <c r="DF32" s="35"/>
+      <c r="DG32" s="35"/>
+      <c r="DH32" s="35"/>
+      <c r="DI32" s="35"/>
+      <c r="DJ32" s="35"/>
+      <c r="DK32" s="35"/>
+      <c r="DL32" s="35"/>
+      <c r="DM32" s="35"/>
+      <c r="DN32" s="35"/>
+      <c r="DO32" s="35"/>
+      <c r="DP32" s="35"/>
+      <c r="DQ32" s="35"/>
+      <c r="DR32" s="35"/>
+      <c r="DS32" s="35"/>
+      <c r="DT32" s="35"/>
+      <c r="DU32" s="35"/>
+      <c r="DV32" s="35"/>
+      <c r="DW32" s="35"/>
+      <c r="DX32" s="35"/>
+      <c r="DY32" s="35"/>
+      <c r="DZ32" s="35"/>
+      <c r="EA32" s="35"/>
+      <c r="EB32" s="35"/>
+      <c r="EC32" s="35"/>
+      <c r="ED32" s="35"/>
+      <c r="EE32" s="35"/>
+      <c r="EF32" s="35"/>
+      <c r="EG32" s="35"/>
+      <c r="EH32" s="35"/>
+      <c r="EI32" s="35"/>
+      <c r="EJ32" s="35"/>
+      <c r="EK32" s="35"/>
+      <c r="EL32" s="35"/>
+      <c r="EM32" s="35"/>
+      <c r="EN32" s="35"/>
+      <c r="EO32" s="35"/>
+      <c r="EP32" s="35"/>
+      <c r="EQ32" s="35"/>
+      <c r="ER32" s="35"/>
+      <c r="ES32" s="35"/>
+      <c r="ET32" s="35"/>
+      <c r="EU32" s="35"/>
+      <c r="EV32" s="35"/>
+      <c r="EW32" s="35"/>
+      <c r="EX32" s="35"/>
+      <c r="EY32" s="35"/>
+      <c r="EZ32" s="35"/>
+      <c r="FA32" s="35"/>
+      <c r="FB32" s="35"/>
+      <c r="FC32" s="35"/>
+      <c r="FD32" s="35"/>
+      <c r="FE32" s="35"/>
+      <c r="FF32" s="35"/>
+      <c r="FG32" s="35"/>
+      <c r="FH32" s="35"/>
+      <c r="FI32" s="35"/>
+      <c r="FJ32" s="35"/>
+      <c r="FK32" s="35"/>
+      <c r="FL32" s="35"/>
+      <c r="FM32" s="35"/>
+      <c r="FN32" s="35"/>
+      <c r="FO32" s="35"/>
+      <c r="FP32" s="35"/>
+      <c r="FQ32" s="35"/>
+      <c r="FR32" s="35"/>
+      <c r="FS32" s="35"/>
+      <c r="FT32" s="35"/>
+      <c r="FU32" s="35"/>
+      <c r="FV32" s="35"/>
+      <c r="FW32" s="35"/>
+      <c r="FX32" s="35"/>
+      <c r="FY32" s="35"/>
+      <c r="FZ32" s="35"/>
+      <c r="GA32" s="35"/>
+      <c r="GB32" s="35"/>
+      <c r="GC32" s="35"/>
+      <c r="GD32" s="35"/>
+      <c r="GE32" s="35"/>
+      <c r="GF32" s="35"/>
+      <c r="GG32" s="35"/>
+      <c r="GH32" s="35"/>
+      <c r="GI32" s="35"/>
+      <c r="GJ32" s="35"/>
+      <c r="GK32" s="35"/>
+      <c r="GL32" s="35"/>
+      <c r="GM32" s="35"/>
+      <c r="GN32" s="35"/>
+      <c r="GO32" s="35"/>
+      <c r="GP32" s="35"/>
+      <c r="GQ32" s="35"/>
+      <c r="GR32" s="35"/>
+      <c r="GS32" s="35"/>
+      <c r="GT32" s="35"/>
+      <c r="GU32" s="35"/>
+      <c r="GV32" s="35"/>
+      <c r="GW32" s="35"/>
+      <c r="GX32" s="35"/>
+      <c r="GY32" s="35"/>
+      <c r="GZ32" s="35"/>
+      <c r="HA32" s="35"/>
+      <c r="HB32" s="35"/>
+      <c r="HC32" s="35"/>
+      <c r="HD32" s="35"/>
+      <c r="HE32" s="35"/>
+      <c r="HF32" s="35"/>
+      <c r="HG32" s="35"/>
+      <c r="HH32" s="35"/>
+      <c r="HI32" s="35"/>
+      <c r="HJ32" s="35"/>
+      <c r="HK32" s="35"/>
+      <c r="HL32" s="35"/>
+      <c r="HM32" s="35"/>
+      <c r="HN32" s="35"/>
+      <c r="HO32" s="35"/>
+      <c r="HP32" s="35"/>
+      <c r="HQ32" s="35"/>
+      <c r="HR32" s="35"/>
+      <c r="HS32" s="35"/>
+      <c r="HT32" s="35"/>
+      <c r="HU32" s="35"/>
+      <c r="HV32" s="35"/>
+      <c r="HW32" s="35"/>
+      <c r="HX32" s="35"/>
+      <c r="HY32" s="35"/>
+      <c r="HZ32" s="35"/>
+      <c r="IA32" s="35"/>
+      <c r="IB32" s="35"/>
+      <c r="IC32" s="35"/>
+      <c r="ID32" s="35"/>
+      <c r="IE32" s="35"/>
+      <c r="IF32" s="35"/>
+      <c r="IG32" s="35"/>
+      <c r="IH32" s="35"/>
+      <c r="II32" s="35"/>
+      <c r="IJ32" s="35"/>
+      <c r="IK32" s="35"/>
+      <c r="IL32" s="35"/>
+      <c r="IM32" s="35"/>
+      <c r="IN32" s="35"/>
+      <c r="IO32" s="35"/>
+      <c r="IP32" s="35"/>
+      <c r="IQ32" s="35"/>
+      <c r="IR32" s="35"/>
+      <c r="IS32" s="35"/>
+      <c r="IT32" s="35"/>
+      <c r="IU32" s="35"/>
+      <c r="IV32" s="35"/>
     </row>
-    <row r="33" ht="78.9" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" t="s" s="10">
+    <row r="33" spans="1:6" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" t="s" s="15">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" t="s" s="11">
+      <c r="E33" s="13"/>
+      <c r="F33" s="11" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/doc/v3/design 2.xlsx
+++ b/doc/v3/design 2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t xml:space="preserve">الملاحظة</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">تصميم</t>
   </si>
   <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
     <t xml:space="preserve">الدخول / التسجيل</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t xml:space="preserve">برمجة / حذف النصوص</t>
   </si>
   <si>
-    <t xml:space="preserve">done</t>
-  </si>
-  <si>
     <t xml:space="preserve">التابز</t>
   </si>
   <si>
@@ -196,9 +196,6 @@
     <t xml:space="preserve">تعتمد على المتصفح / مبرمج</t>
   </si>
   <si>
-    <t xml:space="preserve">next</t>
-  </si>
-  <si>
     <t xml:space="preserve">الأسئلة الشائعة + دليل المستخدم</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">مبرمج / الجهة اليمني</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">اتصل بنا</t>
@@ -294,14 +288,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFFDB94D"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -312,8 +306,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2E0AE"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,7 +429,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -508,15 +502,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,20 +578,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -644,6 +642,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,15 +666,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,40 +706,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -740,7 +730,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,7 +812,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFDB94D"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -832,7 +842,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,16 +897,18 @@
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" s="16" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="14" t="n">
         <v>1</v>
@@ -904,94 +916,96 @@
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" s="16" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="G4" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="D5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" s="16" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" s="27" customFormat="true" ht="95.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" s="29" customFormat="true" ht="95.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="D8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" s="34" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29" t="s">
+      <c r="F8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" s="36" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="D9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="35" t="s">
+      <c r="G9" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" s="39" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="37" t="s">
@@ -1000,598 +1014,1095 @@
       <c r="E10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29"/>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="29"/>
+      <c r="BF10" s="29"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="29"/>
+      <c r="BI10" s="29"/>
+      <c r="BJ10" s="29"/>
+      <c r="BK10" s="29"/>
+      <c r="BL10" s="29"/>
+      <c r="BM10" s="29"/>
+      <c r="BN10" s="29"/>
+      <c r="BO10" s="29"/>
+      <c r="BP10" s="29"/>
+      <c r="BQ10" s="29"/>
+      <c r="BR10" s="29"/>
+      <c r="BS10" s="29"/>
+      <c r="BT10" s="29"/>
+      <c r="BU10" s="29"/>
+      <c r="BV10" s="29"/>
+      <c r="BW10" s="29"/>
+      <c r="BX10" s="29"/>
+      <c r="BY10" s="29"/>
+      <c r="BZ10" s="29"/>
+      <c r="CA10" s="29"/>
+      <c r="CB10" s="29"/>
+      <c r="CC10" s="29"/>
+      <c r="CD10" s="29"/>
+      <c r="CE10" s="29"/>
+      <c r="CF10" s="29"/>
+      <c r="CG10" s="29"/>
+      <c r="CH10" s="29"/>
+      <c r="CI10" s="29"/>
+      <c r="CJ10" s="29"/>
+      <c r="CK10" s="29"/>
+      <c r="CL10" s="29"/>
+      <c r="CM10" s="29"/>
+      <c r="CN10" s="29"/>
+      <c r="CO10" s="29"/>
+      <c r="CP10" s="29"/>
+      <c r="CQ10" s="29"/>
+      <c r="CR10" s="29"/>
+      <c r="CS10" s="29"/>
+      <c r="CT10" s="29"/>
+      <c r="CU10" s="29"/>
+      <c r="CV10" s="29"/>
+      <c r="CW10" s="29"/>
+      <c r="CX10" s="29"/>
+      <c r="CY10" s="29"/>
+      <c r="CZ10" s="29"/>
+      <c r="DA10" s="29"/>
+      <c r="DB10" s="29"/>
+      <c r="DC10" s="29"/>
+      <c r="DD10" s="29"/>
+      <c r="DE10" s="29"/>
+      <c r="DF10" s="29"/>
+      <c r="DG10" s="29"/>
+      <c r="DH10" s="29"/>
+      <c r="DI10" s="29"/>
+      <c r="DJ10" s="29"/>
+      <c r="DK10" s="29"/>
+      <c r="DL10" s="29"/>
+      <c r="DM10" s="29"/>
+      <c r="DN10" s="29"/>
+      <c r="DO10" s="29"/>
+      <c r="DP10" s="29"/>
+      <c r="DQ10" s="29"/>
+      <c r="DR10" s="29"/>
+      <c r="DS10" s="29"/>
+      <c r="DT10" s="29"/>
+      <c r="DU10" s="29"/>
+      <c r="DV10" s="29"/>
+      <c r="DW10" s="29"/>
+      <c r="DX10" s="29"/>
+      <c r="DY10" s="29"/>
+      <c r="DZ10" s="29"/>
+      <c r="EA10" s="29"/>
+      <c r="EB10" s="29"/>
+      <c r="EC10" s="29"/>
+      <c r="ED10" s="29"/>
+      <c r="EE10" s="29"/>
+      <c r="EF10" s="29"/>
+      <c r="EG10" s="29"/>
+      <c r="EH10" s="29"/>
+      <c r="EI10" s="29"/>
+      <c r="EJ10" s="29"/>
+      <c r="EK10" s="29"/>
+      <c r="EL10" s="29"/>
+      <c r="EM10" s="29"/>
+      <c r="EN10" s="29"/>
+      <c r="EO10" s="29"/>
+      <c r="EP10" s="29"/>
+      <c r="EQ10" s="29"/>
+      <c r="ER10" s="29"/>
+      <c r="ES10" s="29"/>
+      <c r="ET10" s="29"/>
+      <c r="EU10" s="29"/>
+      <c r="EV10" s="29"/>
+      <c r="EW10" s="29"/>
+      <c r="EX10" s="29"/>
+      <c r="EY10" s="29"/>
+      <c r="EZ10" s="29"/>
+      <c r="FA10" s="29"/>
+      <c r="FB10" s="29"/>
+      <c r="FC10" s="29"/>
+      <c r="FD10" s="29"/>
+      <c r="FE10" s="29"/>
+      <c r="FF10" s="29"/>
+      <c r="FG10" s="29"/>
+      <c r="FH10" s="29"/>
+      <c r="FI10" s="29"/>
+      <c r="FJ10" s="29"/>
+      <c r="FK10" s="29"/>
+      <c r="FL10" s="29"/>
+      <c r="FM10" s="29"/>
+      <c r="FN10" s="29"/>
+      <c r="FO10" s="29"/>
+      <c r="FP10" s="29"/>
+      <c r="FQ10" s="29"/>
+      <c r="FR10" s="29"/>
+      <c r="FS10" s="29"/>
+      <c r="FT10" s="29"/>
+      <c r="FU10" s="29"/>
+      <c r="FV10" s="29"/>
+      <c r="FW10" s="29"/>
+      <c r="FX10" s="29"/>
+      <c r="FY10" s="29"/>
+      <c r="FZ10" s="29"/>
+      <c r="GA10" s="29"/>
+      <c r="GB10" s="29"/>
+      <c r="GC10" s="29"/>
+      <c r="GD10" s="29"/>
+      <c r="GE10" s="29"/>
+      <c r="GF10" s="29"/>
+      <c r="GG10" s="29"/>
+      <c r="GH10" s="29"/>
+      <c r="GI10" s="29"/>
+      <c r="GJ10" s="29"/>
+      <c r="GK10" s="29"/>
+      <c r="GL10" s="29"/>
+      <c r="GM10" s="29"/>
+      <c r="GN10" s="29"/>
+      <c r="GO10" s="29"/>
+      <c r="GP10" s="29"/>
+      <c r="GQ10" s="29"/>
+      <c r="GR10" s="29"/>
+      <c r="GS10" s="29"/>
+      <c r="GT10" s="29"/>
+      <c r="GU10" s="29"/>
+      <c r="GV10" s="29"/>
+      <c r="GW10" s="29"/>
+      <c r="GX10" s="29"/>
+      <c r="GY10" s="29"/>
+      <c r="GZ10" s="29"/>
+      <c r="HA10" s="29"/>
+      <c r="HB10" s="29"/>
+      <c r="HC10" s="29"/>
+      <c r="HD10" s="29"/>
+      <c r="HE10" s="29"/>
+      <c r="HF10" s="29"/>
+      <c r="HG10" s="29"/>
+      <c r="HH10" s="29"/>
+      <c r="HI10" s="29"/>
+      <c r="HJ10" s="29"/>
+      <c r="HK10" s="29"/>
+      <c r="HL10" s="29"/>
+      <c r="HM10" s="29"/>
+      <c r="HN10" s="29"/>
+      <c r="HO10" s="29"/>
+      <c r="HP10" s="29"/>
+      <c r="HQ10" s="29"/>
+      <c r="HR10" s="29"/>
+      <c r="HS10" s="29"/>
+      <c r="HT10" s="29"/>
+      <c r="HU10" s="29"/>
+      <c r="HV10" s="29"/>
+      <c r="HW10" s="29"/>
+      <c r="HX10" s="29"/>
+      <c r="HY10" s="29"/>
+      <c r="HZ10" s="29"/>
+      <c r="IA10" s="29"/>
+      <c r="IB10" s="29"/>
+      <c r="IC10" s="29"/>
+      <c r="ID10" s="29"/>
+      <c r="IE10" s="29"/>
+      <c r="IF10" s="29"/>
+      <c r="IG10" s="29"/>
+      <c r="IH10" s="29"/>
+      <c r="II10" s="29"/>
+      <c r="IJ10" s="29"/>
+      <c r="IK10" s="29"/>
+      <c r="IL10" s="29"/>
+      <c r="IM10" s="29"/>
+      <c r="IN10" s="29"/>
+      <c r="IO10" s="29"/>
+      <c r="IP10" s="29"/>
+      <c r="IQ10" s="29"/>
+      <c r="IR10" s="29"/>
+      <c r="IS10" s="29"/>
+      <c r="IT10" s="29"/>
+      <c r="IU10" s="29"/>
+      <c r="IV10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" s="34" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29" t="s">
+    <row r="12" s="36" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" s="34" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28"/>
-      <c r="B13" s="40" t="s">
+      <c r="G12" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" s="36" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30"/>
+      <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="41" t="n">
+      <c r="E13" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="44" t="s">
-        <v>21</v>
+      <c r="G13" s="45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" s="34" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" s="36" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="49" t="n">
+      <c r="E15" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" s="34" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+      <c r="G15" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" s="36" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" s="34" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
+      <c r="G16" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" s="36" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" s="34" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="G17" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" s="36" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>21</v>
+      <c r="G18" s="45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28"/>
-      <c r="B20" s="40" t="s">
+    <row r="20" s="36" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30"/>
+      <c r="B20" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>21</v>
+      <c r="G20" s="45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" s="34" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" s="36" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="54" t="n">
+      <c r="E22" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="44" t="s">
-        <v>21</v>
+      <c r="G22" s="45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" s="39" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
+      <c r="BE24" s="29"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
+      <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
+      <c r="BO24" s="29"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="29"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="29"/>
+      <c r="BU24" s="29"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="29"/>
+      <c r="BX24" s="29"/>
+      <c r="BY24" s="29"/>
+      <c r="BZ24" s="29"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="29"/>
+      <c r="CC24" s="29"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="29"/>
+      <c r="CF24" s="29"/>
+      <c r="CG24" s="29"/>
+      <c r="CH24" s="29"/>
+      <c r="CI24" s="29"/>
+      <c r="CJ24" s="29"/>
+      <c r="CK24" s="29"/>
+      <c r="CL24" s="29"/>
+      <c r="CM24" s="29"/>
+      <c r="CN24" s="29"/>
+      <c r="CO24" s="29"/>
+      <c r="CP24" s="29"/>
+      <c r="CQ24" s="29"/>
+      <c r="CR24" s="29"/>
+      <c r="CS24" s="29"/>
+      <c r="CT24" s="29"/>
+      <c r="CU24" s="29"/>
+      <c r="CV24" s="29"/>
+      <c r="CW24" s="29"/>
+      <c r="CX24" s="29"/>
+      <c r="CY24" s="29"/>
+      <c r="CZ24" s="29"/>
+      <c r="DA24" s="29"/>
+      <c r="DB24" s="29"/>
+      <c r="DC24" s="29"/>
+      <c r="DD24" s="29"/>
+      <c r="DE24" s="29"/>
+      <c r="DF24" s="29"/>
+      <c r="DG24" s="29"/>
+      <c r="DH24" s="29"/>
+      <c r="DI24" s="29"/>
+      <c r="DJ24" s="29"/>
+      <c r="DK24" s="29"/>
+      <c r="DL24" s="29"/>
+      <c r="DM24" s="29"/>
+      <c r="DN24" s="29"/>
+      <c r="DO24" s="29"/>
+      <c r="DP24" s="29"/>
+      <c r="DQ24" s="29"/>
+      <c r="DR24" s="29"/>
+      <c r="DS24" s="29"/>
+      <c r="DT24" s="29"/>
+      <c r="DU24" s="29"/>
+      <c r="DV24" s="29"/>
+      <c r="DW24" s="29"/>
+      <c r="DX24" s="29"/>
+      <c r="DY24" s="29"/>
+      <c r="DZ24" s="29"/>
+      <c r="EA24" s="29"/>
+      <c r="EB24" s="29"/>
+      <c r="EC24" s="29"/>
+      <c r="ED24" s="29"/>
+      <c r="EE24" s="29"/>
+      <c r="EF24" s="29"/>
+      <c r="EG24" s="29"/>
+      <c r="EH24" s="29"/>
+      <c r="EI24" s="29"/>
+      <c r="EJ24" s="29"/>
+      <c r="EK24" s="29"/>
+      <c r="EL24" s="29"/>
+      <c r="EM24" s="29"/>
+      <c r="EN24" s="29"/>
+      <c r="EO24" s="29"/>
+      <c r="EP24" s="29"/>
+      <c r="EQ24" s="29"/>
+      <c r="ER24" s="29"/>
+      <c r="ES24" s="29"/>
+      <c r="ET24" s="29"/>
+      <c r="EU24" s="29"/>
+      <c r="EV24" s="29"/>
+      <c r="EW24" s="29"/>
+      <c r="EX24" s="29"/>
+      <c r="EY24" s="29"/>
+      <c r="EZ24" s="29"/>
+      <c r="FA24" s="29"/>
+      <c r="FB24" s="29"/>
+      <c r="FC24" s="29"/>
+      <c r="FD24" s="29"/>
+      <c r="FE24" s="29"/>
+      <c r="FF24" s="29"/>
+      <c r="FG24" s="29"/>
+      <c r="FH24" s="29"/>
+      <c r="FI24" s="29"/>
+      <c r="FJ24" s="29"/>
+      <c r="FK24" s="29"/>
+      <c r="FL24" s="29"/>
+      <c r="FM24" s="29"/>
+      <c r="FN24" s="29"/>
+      <c r="FO24" s="29"/>
+      <c r="FP24" s="29"/>
+      <c r="FQ24" s="29"/>
+      <c r="FR24" s="29"/>
+      <c r="FS24" s="29"/>
+      <c r="FT24" s="29"/>
+      <c r="FU24" s="29"/>
+      <c r="FV24" s="29"/>
+      <c r="FW24" s="29"/>
+      <c r="FX24" s="29"/>
+      <c r="FY24" s="29"/>
+      <c r="FZ24" s="29"/>
+      <c r="GA24" s="29"/>
+      <c r="GB24" s="29"/>
+      <c r="GC24" s="29"/>
+      <c r="GD24" s="29"/>
+      <c r="GE24" s="29"/>
+      <c r="GF24" s="29"/>
+      <c r="GG24" s="29"/>
+      <c r="GH24" s="29"/>
+      <c r="GI24" s="29"/>
+      <c r="GJ24" s="29"/>
+      <c r="GK24" s="29"/>
+      <c r="GL24" s="29"/>
+      <c r="GM24" s="29"/>
+      <c r="GN24" s="29"/>
+      <c r="GO24" s="29"/>
+      <c r="GP24" s="29"/>
+      <c r="GQ24" s="29"/>
+      <c r="GR24" s="29"/>
+      <c r="GS24" s="29"/>
+      <c r="GT24" s="29"/>
+      <c r="GU24" s="29"/>
+      <c r="GV24" s="29"/>
+      <c r="GW24" s="29"/>
+      <c r="GX24" s="29"/>
+      <c r="GY24" s="29"/>
+      <c r="GZ24" s="29"/>
+      <c r="HA24" s="29"/>
+      <c r="HB24" s="29"/>
+      <c r="HC24" s="29"/>
+      <c r="HD24" s="29"/>
+      <c r="HE24" s="29"/>
+      <c r="HF24" s="29"/>
+      <c r="HG24" s="29"/>
+      <c r="HH24" s="29"/>
+      <c r="HI24" s="29"/>
+      <c r="HJ24" s="29"/>
+      <c r="HK24" s="29"/>
+      <c r="HL24" s="29"/>
+      <c r="HM24" s="29"/>
+      <c r="HN24" s="29"/>
+      <c r="HO24" s="29"/>
+      <c r="HP24" s="29"/>
+      <c r="HQ24" s="29"/>
+      <c r="HR24" s="29"/>
+      <c r="HS24" s="29"/>
+      <c r="HT24" s="29"/>
+      <c r="HU24" s="29"/>
+      <c r="HV24" s="29"/>
+      <c r="HW24" s="29"/>
+      <c r="HX24" s="29"/>
+      <c r="HY24" s="29"/>
+      <c r="HZ24" s="29"/>
+      <c r="IA24" s="29"/>
+      <c r="IB24" s="29"/>
+      <c r="IC24" s="29"/>
+      <c r="ID24" s="29"/>
+      <c r="IE24" s="29"/>
+      <c r="IF24" s="29"/>
+      <c r="IG24" s="29"/>
+      <c r="IH24" s="29"/>
+      <c r="II24" s="29"/>
+      <c r="IJ24" s="29"/>
+      <c r="IK24" s="29"/>
+      <c r="IL24" s="29"/>
+      <c r="IM24" s="29"/>
+      <c r="IN24" s="29"/>
+      <c r="IO24" s="29"/>
+      <c r="IP24" s="29"/>
+      <c r="IQ24" s="29"/>
+      <c r="IR24" s="29"/>
+      <c r="IS24" s="29"/>
+      <c r="IT24" s="29"/>
+      <c r="IU24" s="29"/>
+      <c r="IV24" s="29"/>
+    </row>
+    <row r="25" s="16" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="64" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" s="16" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="60" t="s">
+      <c r="B25" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63" t="s">
+      <c r="E25" s="66" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="62" t="n">
-        <v>11</v>
-      </c>
-      <c r="F25" s="63" t="s">
+      <c r="G25" s="68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+    </row>
+    <row r="27" s="74" customFormat="true" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" s="16" customFormat="true" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60" t="s">
+      <c r="C27" s="71"/>
+      <c r="D27" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="E27" s="71"/>
+      <c r="F27" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67" t="s">
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" s="80" customFormat="true" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" s="76" customFormat="true" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="69" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="16"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="16"/>
+      <c r="AX30" s="16"/>
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="16"/>
+      <c r="BG30" s="16"/>
+      <c r="BH30" s="16"/>
+      <c r="BI30" s="16"/>
+      <c r="BJ30" s="16"/>
+      <c r="BK30" s="16"/>
+      <c r="BL30" s="16"/>
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="16"/>
+      <c r="BW30" s="16"/>
+      <c r="BX30" s="16"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="16"/>
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="16"/>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="16"/>
+      <c r="CE30" s="16"/>
+      <c r="CF30" s="16"/>
+      <c r="CG30" s="16"/>
+      <c r="CH30" s="16"/>
+      <c r="CI30" s="16"/>
+      <c r="CJ30" s="16"/>
+      <c r="CK30" s="16"/>
+      <c r="CL30" s="16"/>
+      <c r="CM30" s="16"/>
+      <c r="CN30" s="16"/>
+      <c r="CO30" s="16"/>
+      <c r="CP30" s="16"/>
+      <c r="CQ30" s="16"/>
+      <c r="CR30" s="16"/>
+      <c r="CS30" s="16"/>
+      <c r="CT30" s="16"/>
+      <c r="CU30" s="16"/>
+      <c r="CV30" s="16"/>
+      <c r="CW30" s="16"/>
+      <c r="CX30" s="16"/>
+      <c r="CY30" s="16"/>
+      <c r="CZ30" s="16"/>
+      <c r="DA30" s="16"/>
+      <c r="DB30" s="16"/>
+      <c r="DC30" s="16"/>
+      <c r="DD30" s="16"/>
+      <c r="DE30" s="16"/>
+      <c r="DF30" s="16"/>
+      <c r="DG30" s="16"/>
+      <c r="DH30" s="16"/>
+      <c r="DI30" s="16"/>
+      <c r="DJ30" s="16"/>
+      <c r="DK30" s="16"/>
+      <c r="DL30" s="16"/>
+      <c r="DM30" s="16"/>
+      <c r="DN30" s="16"/>
+      <c r="DO30" s="16"/>
+      <c r="DP30" s="16"/>
+      <c r="DQ30" s="16"/>
+      <c r="DR30" s="16"/>
+      <c r="DS30" s="16"/>
+      <c r="DT30" s="16"/>
+      <c r="DU30" s="16"/>
+      <c r="DV30" s="16"/>
+      <c r="DW30" s="16"/>
+      <c r="DX30" s="16"/>
+      <c r="DY30" s="16"/>
+      <c r="DZ30" s="16"/>
+      <c r="EA30" s="16"/>
+      <c r="EB30" s="16"/>
+      <c r="EC30" s="16"/>
+      <c r="ED30" s="16"/>
+      <c r="EE30" s="16"/>
+      <c r="EF30" s="16"/>
+      <c r="EG30" s="16"/>
+      <c r="EH30" s="16"/>
+      <c r="EI30" s="16"/>
+      <c r="EJ30" s="16"/>
+      <c r="EK30" s="16"/>
+      <c r="EL30" s="16"/>
+      <c r="EM30" s="16"/>
+      <c r="EN30" s="16"/>
+      <c r="EO30" s="16"/>
+      <c r="EP30" s="16"/>
+      <c r="EQ30" s="16"/>
+      <c r="ER30" s="16"/>
+      <c r="ES30" s="16"/>
+      <c r="ET30" s="16"/>
+      <c r="EU30" s="16"/>
+      <c r="EV30" s="16"/>
+      <c r="EW30" s="16"/>
+      <c r="EX30" s="16"/>
+      <c r="EY30" s="16"/>
+      <c r="EZ30" s="16"/>
+      <c r="FA30" s="16"/>
+      <c r="FB30" s="16"/>
+      <c r="FC30" s="16"/>
+      <c r="FD30" s="16"/>
+      <c r="FE30" s="16"/>
+      <c r="FF30" s="16"/>
+      <c r="FG30" s="16"/>
+      <c r="FH30" s="16"/>
+      <c r="FI30" s="16"/>
+      <c r="FJ30" s="16"/>
+      <c r="FK30" s="16"/>
+      <c r="FL30" s="16"/>
+      <c r="FM30" s="16"/>
+      <c r="FN30" s="16"/>
+      <c r="FO30" s="16"/>
+      <c r="FP30" s="16"/>
+      <c r="FQ30" s="16"/>
+      <c r="FR30" s="16"/>
+      <c r="FS30" s="16"/>
+      <c r="FT30" s="16"/>
+      <c r="FU30" s="16"/>
+      <c r="FV30" s="16"/>
+      <c r="FW30" s="16"/>
+      <c r="FX30" s="16"/>
+      <c r="FY30" s="16"/>
+      <c r="FZ30" s="16"/>
+      <c r="GA30" s="16"/>
+      <c r="GB30" s="16"/>
+      <c r="GC30" s="16"/>
+      <c r="GD30" s="16"/>
+      <c r="GE30" s="16"/>
+      <c r="GF30" s="16"/>
+      <c r="GG30" s="16"/>
+      <c r="GH30" s="16"/>
+      <c r="GI30" s="16"/>
+      <c r="GJ30" s="16"/>
+      <c r="GK30" s="16"/>
+      <c r="GL30" s="16"/>
+      <c r="GM30" s="16"/>
+      <c r="GN30" s="16"/>
+      <c r="GO30" s="16"/>
+      <c r="GP30" s="16"/>
+      <c r="GQ30" s="16"/>
+      <c r="GR30" s="16"/>
+      <c r="GS30" s="16"/>
+      <c r="GT30" s="16"/>
+      <c r="GU30" s="16"/>
+      <c r="GV30" s="16"/>
+      <c r="GW30" s="16"/>
+      <c r="GX30" s="16"/>
+      <c r="GY30" s="16"/>
+      <c r="GZ30" s="16"/>
+      <c r="HA30" s="16"/>
+      <c r="HB30" s="16"/>
+      <c r="HC30" s="16"/>
+      <c r="HD30" s="16"/>
+      <c r="HE30" s="16"/>
+      <c r="HF30" s="16"/>
+      <c r="HG30" s="16"/>
+      <c r="HH30" s="16"/>
+      <c r="HI30" s="16"/>
+      <c r="HJ30" s="16"/>
+      <c r="HK30" s="16"/>
+      <c r="HL30" s="16"/>
+      <c r="HM30" s="16"/>
+      <c r="HN30" s="16"/>
+      <c r="HO30" s="16"/>
+      <c r="HP30" s="16"/>
+      <c r="HQ30" s="16"/>
+      <c r="HR30" s="16"/>
+      <c r="HS30" s="16"/>
+      <c r="HT30" s="16"/>
+      <c r="HU30" s="16"/>
+      <c r="HV30" s="16"/>
+      <c r="HW30" s="16"/>
+      <c r="HX30" s="16"/>
+      <c r="HY30" s="16"/>
+      <c r="HZ30" s="16"/>
+      <c r="IA30" s="16"/>
+      <c r="IB30" s="16"/>
+      <c r="IC30" s="16"/>
+      <c r="ID30" s="16"/>
+      <c r="IE30" s="16"/>
+      <c r="IF30" s="16"/>
+      <c r="IG30" s="16"/>
+      <c r="IH30" s="16"/>
+      <c r="II30" s="16"/>
+      <c r="IJ30" s="16"/>
+      <c r="IK30" s="16"/>
+      <c r="IL30" s="16"/>
+      <c r="IM30" s="16"/>
+      <c r="IN30" s="16"/>
+      <c r="IO30" s="16"/>
+      <c r="IP30" s="16"/>
+      <c r="IQ30" s="16"/>
+      <c r="IR30" s="16"/>
+      <c r="IS30" s="16"/>
+      <c r="IT30" s="16"/>
+      <c r="IU30" s="16"/>
+      <c r="IV30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" s="36" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72" t="s">
+      <c r="B32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="73" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="75"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="75"/>
-      <c r="AP30" s="75"/>
-      <c r="AQ30" s="75"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="75"/>
-      <c r="AU30" s="75"/>
-      <c r="AV30" s="75"/>
-      <c r="AW30" s="75"/>
-      <c r="AX30" s="75"/>
-      <c r="AY30" s="75"/>
-      <c r="AZ30" s="75"/>
-      <c r="BA30" s="75"/>
-      <c r="BB30" s="75"/>
-      <c r="BC30" s="75"/>
-      <c r="BD30" s="75"/>
-      <c r="BE30" s="75"/>
-      <c r="BF30" s="75"/>
-      <c r="BG30" s="75"/>
-      <c r="BH30" s="75"/>
-      <c r="BI30" s="75"/>
-      <c r="BJ30" s="75"/>
-      <c r="BK30" s="75"/>
-      <c r="BL30" s="75"/>
-      <c r="BM30" s="75"/>
-      <c r="BN30" s="75"/>
-      <c r="BO30" s="75"/>
-      <c r="BP30" s="75"/>
-      <c r="BQ30" s="75"/>
-      <c r="BR30" s="75"/>
-      <c r="BS30" s="75"/>
-      <c r="BT30" s="75"/>
-      <c r="BU30" s="75"/>
-      <c r="BV30" s="75"/>
-      <c r="BW30" s="75"/>
-      <c r="BX30" s="75"/>
-      <c r="BY30" s="75"/>
-      <c r="BZ30" s="75"/>
-      <c r="CA30" s="75"/>
-      <c r="CB30" s="75"/>
-      <c r="CC30" s="75"/>
-      <c r="CD30" s="75"/>
-      <c r="CE30" s="75"/>
-      <c r="CF30" s="75"/>
-      <c r="CG30" s="75"/>
-      <c r="CH30" s="75"/>
-      <c r="CI30" s="75"/>
-      <c r="CJ30" s="75"/>
-      <c r="CK30" s="75"/>
-      <c r="CL30" s="75"/>
-      <c r="CM30" s="75"/>
-      <c r="CN30" s="75"/>
-      <c r="CO30" s="75"/>
-      <c r="CP30" s="75"/>
-      <c r="CQ30" s="75"/>
-      <c r="CR30" s="75"/>
-      <c r="CS30" s="75"/>
-      <c r="CT30" s="75"/>
-      <c r="CU30" s="75"/>
-      <c r="CV30" s="75"/>
-      <c r="CW30" s="75"/>
-      <c r="CX30" s="75"/>
-      <c r="CY30" s="75"/>
-      <c r="CZ30" s="75"/>
-      <c r="DA30" s="75"/>
-      <c r="DB30" s="75"/>
-      <c r="DC30" s="75"/>
-      <c r="DD30" s="75"/>
-      <c r="DE30" s="75"/>
-      <c r="DF30" s="75"/>
-      <c r="DG30" s="75"/>
-      <c r="DH30" s="75"/>
-      <c r="DI30" s="75"/>
-      <c r="DJ30" s="75"/>
-      <c r="DK30" s="75"/>
-      <c r="DL30" s="75"/>
-      <c r="DM30" s="75"/>
-      <c r="DN30" s="75"/>
-      <c r="DO30" s="75"/>
-      <c r="DP30" s="75"/>
-      <c r="DQ30" s="75"/>
-      <c r="DR30" s="75"/>
-      <c r="DS30" s="75"/>
-      <c r="DT30" s="75"/>
-      <c r="DU30" s="75"/>
-      <c r="DV30" s="75"/>
-      <c r="DW30" s="75"/>
-      <c r="DX30" s="75"/>
-      <c r="DY30" s="75"/>
-      <c r="DZ30" s="75"/>
-      <c r="EA30" s="75"/>
-      <c r="EB30" s="75"/>
-      <c r="EC30" s="75"/>
-      <c r="ED30" s="75"/>
-      <c r="EE30" s="75"/>
-      <c r="EF30" s="75"/>
-      <c r="EG30" s="75"/>
-      <c r="EH30" s="75"/>
-      <c r="EI30" s="75"/>
-      <c r="EJ30" s="75"/>
-      <c r="EK30" s="75"/>
-      <c r="EL30" s="75"/>
-      <c r="EM30" s="75"/>
-      <c r="EN30" s="75"/>
-      <c r="EO30" s="75"/>
-      <c r="EP30" s="75"/>
-      <c r="EQ30" s="75"/>
-      <c r="ER30" s="75"/>
-      <c r="ES30" s="75"/>
-      <c r="ET30" s="75"/>
-      <c r="EU30" s="75"/>
-      <c r="EV30" s="75"/>
-      <c r="EW30" s="75"/>
-      <c r="EX30" s="75"/>
-      <c r="EY30" s="75"/>
-      <c r="EZ30" s="75"/>
-      <c r="FA30" s="75"/>
-      <c r="FB30" s="75"/>
-      <c r="FC30" s="75"/>
-      <c r="FD30" s="75"/>
-      <c r="FE30" s="75"/>
-      <c r="FF30" s="75"/>
-      <c r="FG30" s="75"/>
-      <c r="FH30" s="75"/>
-      <c r="FI30" s="75"/>
-      <c r="FJ30" s="75"/>
-      <c r="FK30" s="75"/>
-      <c r="FL30" s="75"/>
-      <c r="FM30" s="75"/>
-      <c r="FN30" s="75"/>
-      <c r="FO30" s="75"/>
-      <c r="FP30" s="75"/>
-      <c r="FQ30" s="75"/>
-      <c r="FR30" s="75"/>
-      <c r="FS30" s="75"/>
-      <c r="FT30" s="75"/>
-      <c r="FU30" s="75"/>
-      <c r="FV30" s="75"/>
-      <c r="FW30" s="75"/>
-      <c r="FX30" s="75"/>
-      <c r="FY30" s="75"/>
-      <c r="FZ30" s="75"/>
-      <c r="GA30" s="75"/>
-      <c r="GB30" s="75"/>
-      <c r="GC30" s="75"/>
-      <c r="GD30" s="75"/>
-      <c r="GE30" s="75"/>
-      <c r="GF30" s="75"/>
-      <c r="GG30" s="75"/>
-      <c r="GH30" s="75"/>
-      <c r="GI30" s="75"/>
-      <c r="GJ30" s="75"/>
-      <c r="GK30" s="75"/>
-      <c r="GL30" s="75"/>
-      <c r="GM30" s="75"/>
-      <c r="GN30" s="75"/>
-      <c r="GO30" s="75"/>
-      <c r="GP30" s="75"/>
-      <c r="GQ30" s="75"/>
-      <c r="GR30" s="75"/>
-      <c r="GS30" s="75"/>
-      <c r="GT30" s="75"/>
-      <c r="GU30" s="75"/>
-      <c r="GV30" s="75"/>
-      <c r="GW30" s="75"/>
-      <c r="GX30" s="75"/>
-      <c r="GY30" s="75"/>
-      <c r="GZ30" s="75"/>
-      <c r="HA30" s="75"/>
-      <c r="HB30" s="75"/>
-      <c r="HC30" s="75"/>
-      <c r="HD30" s="75"/>
-      <c r="HE30" s="75"/>
-      <c r="HF30" s="75"/>
-      <c r="HG30" s="75"/>
-      <c r="HH30" s="75"/>
-      <c r="HI30" s="75"/>
-      <c r="HJ30" s="75"/>
-      <c r="HK30" s="75"/>
-      <c r="HL30" s="75"/>
-      <c r="HM30" s="75"/>
-      <c r="HN30" s="75"/>
-      <c r="HO30" s="75"/>
-      <c r="HP30" s="75"/>
-      <c r="HQ30" s="75"/>
-      <c r="HR30" s="75"/>
-      <c r="HS30" s="75"/>
-      <c r="HT30" s="75"/>
-      <c r="HU30" s="75"/>
-      <c r="HV30" s="75"/>
-      <c r="HW30" s="75"/>
-      <c r="HX30" s="75"/>
-      <c r="HY30" s="75"/>
-      <c r="HZ30" s="75"/>
-      <c r="IA30" s="75"/>
-      <c r="IB30" s="75"/>
-      <c r="IC30" s="75"/>
-      <c r="ID30" s="75"/>
-      <c r="IE30" s="75"/>
-      <c r="IF30" s="75"/>
-      <c r="IG30" s="75"/>
-      <c r="IH30" s="75"/>
-      <c r="II30" s="75"/>
-      <c r="IJ30" s="75"/>
-      <c r="IK30" s="75"/>
-      <c r="IL30" s="75"/>
-      <c r="IM30" s="75"/>
-      <c r="IN30" s="75"/>
-      <c r="IO30" s="75"/>
-      <c r="IP30" s="75"/>
-      <c r="IQ30" s="75"/>
-      <c r="IR30" s="75"/>
-      <c r="IS30" s="75"/>
-      <c r="IT30" s="75"/>
-      <c r="IU30" s="75"/>
-      <c r="IV30" s="75"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-    </row>
-    <row r="32" s="34" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="48" t="s">
+      <c r="G32" s="81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="78.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="82"/>
+      <c r="B33" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="51" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="49" t="n">
-        <v>12</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="78.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="78"/>
-      <c r="B33" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="36" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="20" t="s">
         <v>34</v>
       </c>
     </row>

--- a/doc/v3/design 2.xlsx
+++ b/doc/v3/design 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\citizen-account\doc\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498153FE-317B-4A83-B7EA-22258B7B04F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C837F8-064D-46AF-A631-9F08761AAF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +281,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
         <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF9AE"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -310,6 +304,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A19A"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -418,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -452,12 +458,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -465,12 +480,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -483,107 +492,81 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -596,26 +579,29 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -625,10 +611,40 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,6 +718,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF7A19A"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1014,13 +1033,13 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="71" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="58" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
@@ -1032,16 +1051,16 @@
   <sheetData>
     <row r="1" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="72"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1094,94 +1113,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:256" s="64" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="61">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" s="64" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:256" s="20" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="77" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="74">
-        <v>1</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="76" t="s">
+    <row r="9" spans="1:256" s="26" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:256" s="25" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:256" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="29">
-        <v>3</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:256" s="34" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" s="29" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>23</v>
@@ -1189,10 +1208,10 @@
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1451,745 +1470,745 @@
       <c r="IU10" s="12"/>
       <c r="IV10" s="12"/>
     </row>
-    <row r="11" spans="1:256" s="35" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:256" s="71" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
-      <c r="BN11" s="25"/>
-      <c r="BO11" s="25"/>
-      <c r="BP11" s="25"/>
-      <c r="BQ11" s="25"/>
-      <c r="BR11" s="25"/>
-      <c r="BS11" s="25"/>
-      <c r="BT11" s="25"/>
-      <c r="BU11" s="25"/>
-      <c r="BV11" s="25"/>
-      <c r="BW11" s="25"/>
-      <c r="BX11" s="25"/>
-      <c r="BY11" s="25"/>
-      <c r="BZ11" s="25"/>
-      <c r="CA11" s="25"/>
-      <c r="CB11" s="25"/>
-      <c r="CC11" s="25"/>
-      <c r="CD11" s="25"/>
-      <c r="CE11" s="25"/>
-      <c r="CF11" s="25"/>
-      <c r="CG11" s="25"/>
-      <c r="CH11" s="25"/>
-      <c r="CI11" s="25"/>
-      <c r="CJ11" s="25"/>
-      <c r="CK11" s="25"/>
-      <c r="CL11" s="25"/>
-      <c r="CM11" s="25"/>
-      <c r="CN11" s="25"/>
-      <c r="CO11" s="25"/>
-      <c r="CP11" s="25"/>
-      <c r="CQ11" s="25"/>
-      <c r="CR11" s="25"/>
-      <c r="CS11" s="25"/>
-      <c r="CT11" s="25"/>
-      <c r="CU11" s="25"/>
-      <c r="CV11" s="25"/>
-      <c r="CW11" s="25"/>
-      <c r="CX11" s="25"/>
-      <c r="CY11" s="25"/>
-      <c r="CZ11" s="25"/>
-      <c r="DA11" s="25"/>
-      <c r="DB11" s="25"/>
-      <c r="DC11" s="25"/>
-      <c r="DD11" s="25"/>
-      <c r="DE11" s="25"/>
-      <c r="DF11" s="25"/>
-      <c r="DG11" s="25"/>
-      <c r="DH11" s="25"/>
-      <c r="DI11" s="25"/>
-      <c r="DJ11" s="25"/>
-      <c r="DK11" s="25"/>
-      <c r="DL11" s="25"/>
-      <c r="DM11" s="25"/>
-      <c r="DN11" s="25"/>
-      <c r="DO11" s="25"/>
-      <c r="DP11" s="25"/>
-      <c r="DQ11" s="25"/>
-      <c r="DR11" s="25"/>
-      <c r="DS11" s="25"/>
-      <c r="DT11" s="25"/>
-      <c r="DU11" s="25"/>
-      <c r="DV11" s="25"/>
-      <c r="DW11" s="25"/>
-      <c r="DX11" s="25"/>
-      <c r="DY11" s="25"/>
-      <c r="DZ11" s="25"/>
-      <c r="EA11" s="25"/>
-      <c r="EB11" s="25"/>
-      <c r="EC11" s="25"/>
-      <c r="ED11" s="25"/>
-      <c r="EE11" s="25"/>
-      <c r="EF11" s="25"/>
-      <c r="EG11" s="25"/>
-      <c r="EH11" s="25"/>
-      <c r="EI11" s="25"/>
-      <c r="EJ11" s="25"/>
-      <c r="EK11" s="25"/>
-      <c r="EL11" s="25"/>
-      <c r="EM11" s="25"/>
-      <c r="EN11" s="25"/>
-      <c r="EO11" s="25"/>
-      <c r="EP11" s="25"/>
-      <c r="EQ11" s="25"/>
-      <c r="ER11" s="25"/>
-      <c r="ES11" s="25"/>
-      <c r="ET11" s="25"/>
-      <c r="EU11" s="25"/>
-      <c r="EV11" s="25"/>
-      <c r="EW11" s="25"/>
-      <c r="EX11" s="25"/>
-      <c r="EY11" s="25"/>
-      <c r="EZ11" s="25"/>
-      <c r="FA11" s="25"/>
-      <c r="FB11" s="25"/>
-      <c r="FC11" s="25"/>
-      <c r="FD11" s="25"/>
-      <c r="FE11" s="25"/>
-      <c r="FF11" s="25"/>
-      <c r="FG11" s="25"/>
-      <c r="FH11" s="25"/>
-      <c r="FI11" s="25"/>
-      <c r="FJ11" s="25"/>
-      <c r="FK11" s="25"/>
-      <c r="FL11" s="25"/>
-      <c r="FM11" s="25"/>
-      <c r="FN11" s="25"/>
-      <c r="FO11" s="25"/>
-      <c r="FP11" s="25"/>
-      <c r="FQ11" s="25"/>
-      <c r="FR11" s="25"/>
-      <c r="FS11" s="25"/>
-      <c r="FT11" s="25"/>
-      <c r="FU11" s="25"/>
-      <c r="FV11" s="25"/>
-      <c r="FW11" s="25"/>
-      <c r="FX11" s="25"/>
-      <c r="FY11" s="25"/>
-      <c r="FZ11" s="25"/>
-      <c r="GA11" s="25"/>
-      <c r="GB11" s="25"/>
-      <c r="GC11" s="25"/>
-      <c r="GD11" s="25"/>
-      <c r="GE11" s="25"/>
-      <c r="GF11" s="25"/>
-      <c r="GG11" s="25"/>
-      <c r="GH11" s="25"/>
-      <c r="GI11" s="25"/>
-      <c r="GJ11" s="25"/>
-      <c r="GK11" s="25"/>
-      <c r="GL11" s="25"/>
-      <c r="GM11" s="25"/>
-      <c r="GN11" s="25"/>
-      <c r="GO11" s="25"/>
-      <c r="GP11" s="25"/>
-      <c r="GQ11" s="25"/>
-      <c r="GR11" s="25"/>
-      <c r="GS11" s="25"/>
-      <c r="GT11" s="25"/>
-      <c r="GU11" s="25"/>
-      <c r="GV11" s="25"/>
-      <c r="GW11" s="25"/>
-      <c r="GX11" s="25"/>
-      <c r="GY11" s="25"/>
-      <c r="GZ11" s="25"/>
-      <c r="HA11" s="25"/>
-      <c r="HB11" s="25"/>
-      <c r="HC11" s="25"/>
-      <c r="HD11" s="25"/>
-      <c r="HE11" s="25"/>
-      <c r="HF11" s="25"/>
-      <c r="HG11" s="25"/>
-      <c r="HH11" s="25"/>
-      <c r="HI11" s="25"/>
-      <c r="HJ11" s="25"/>
-      <c r="HK11" s="25"/>
-      <c r="HL11" s="25"/>
-      <c r="HM11" s="25"/>
-      <c r="HN11" s="25"/>
-      <c r="HO11" s="25"/>
-      <c r="HP11" s="25"/>
-      <c r="HQ11" s="25"/>
-      <c r="HR11" s="25"/>
-      <c r="HS11" s="25"/>
-      <c r="HT11" s="25"/>
-      <c r="HU11" s="25"/>
-      <c r="HV11" s="25"/>
-      <c r="HW11" s="25"/>
-      <c r="HX11" s="25"/>
-      <c r="HY11" s="25"/>
-      <c r="HZ11" s="25"/>
-      <c r="IA11" s="25"/>
-      <c r="IB11" s="25"/>
-      <c r="IC11" s="25"/>
-      <c r="ID11" s="25"/>
-      <c r="IE11" s="25"/>
-      <c r="IF11" s="25"/>
-      <c r="IG11" s="25"/>
-      <c r="IH11" s="25"/>
-      <c r="II11" s="25"/>
-      <c r="IJ11" s="25"/>
-      <c r="IK11" s="25"/>
-      <c r="IL11" s="25"/>
-      <c r="IM11" s="25"/>
-      <c r="IN11" s="25"/>
-      <c r="IO11" s="25"/>
-      <c r="IP11" s="25"/>
-      <c r="IQ11" s="25"/>
-      <c r="IR11" s="25"/>
-      <c r="IS11" s="25"/>
-      <c r="IT11" s="25"/>
-      <c r="IU11" s="25"/>
-      <c r="IV11" s="25"/>
-    </row>
-    <row r="12" spans="1:256" s="31" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="70"/>
+      <c r="BG11" s="70"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" s="70"/>
+      <c r="BN11" s="70"/>
+      <c r="BO11" s="70"/>
+      <c r="BP11" s="70"/>
+      <c r="BQ11" s="70"/>
+      <c r="BR11" s="70"/>
+      <c r="BS11" s="70"/>
+      <c r="BT11" s="70"/>
+      <c r="BU11" s="70"/>
+      <c r="BV11" s="70"/>
+      <c r="BW11" s="70"/>
+      <c r="BX11" s="70"/>
+      <c r="BY11" s="70"/>
+      <c r="BZ11" s="70"/>
+      <c r="CA11" s="70"/>
+      <c r="CB11" s="70"/>
+      <c r="CC11" s="70"/>
+      <c r="CD11" s="70"/>
+      <c r="CE11" s="70"/>
+      <c r="CF11" s="70"/>
+      <c r="CG11" s="70"/>
+      <c r="CH11" s="70"/>
+      <c r="CI11" s="70"/>
+      <c r="CJ11" s="70"/>
+      <c r="CK11" s="70"/>
+      <c r="CL11" s="70"/>
+      <c r="CM11" s="70"/>
+      <c r="CN11" s="70"/>
+      <c r="CO11" s="70"/>
+      <c r="CP11" s="70"/>
+      <c r="CQ11" s="70"/>
+      <c r="CR11" s="70"/>
+      <c r="CS11" s="70"/>
+      <c r="CT11" s="70"/>
+      <c r="CU11" s="70"/>
+      <c r="CV11" s="70"/>
+      <c r="CW11" s="70"/>
+      <c r="CX11" s="70"/>
+      <c r="CY11" s="70"/>
+      <c r="CZ11" s="70"/>
+      <c r="DA11" s="70"/>
+      <c r="DB11" s="70"/>
+      <c r="DC11" s="70"/>
+      <c r="DD11" s="70"/>
+      <c r="DE11" s="70"/>
+      <c r="DF11" s="70"/>
+      <c r="DG11" s="70"/>
+      <c r="DH11" s="70"/>
+      <c r="DI11" s="70"/>
+      <c r="DJ11" s="70"/>
+      <c r="DK11" s="70"/>
+      <c r="DL11" s="70"/>
+      <c r="DM11" s="70"/>
+      <c r="DN11" s="70"/>
+      <c r="DO11" s="70"/>
+      <c r="DP11" s="70"/>
+      <c r="DQ11" s="70"/>
+      <c r="DR11" s="70"/>
+      <c r="DS11" s="70"/>
+      <c r="DT11" s="70"/>
+      <c r="DU11" s="70"/>
+      <c r="DV11" s="70"/>
+      <c r="DW11" s="70"/>
+      <c r="DX11" s="70"/>
+      <c r="DY11" s="70"/>
+      <c r="DZ11" s="70"/>
+      <c r="EA11" s="70"/>
+      <c r="EB11" s="70"/>
+      <c r="EC11" s="70"/>
+      <c r="ED11" s="70"/>
+      <c r="EE11" s="70"/>
+      <c r="EF11" s="70"/>
+      <c r="EG11" s="70"/>
+      <c r="EH11" s="70"/>
+      <c r="EI11" s="70"/>
+      <c r="EJ11" s="70"/>
+      <c r="EK11" s="70"/>
+      <c r="EL11" s="70"/>
+      <c r="EM11" s="70"/>
+      <c r="EN11" s="70"/>
+      <c r="EO11" s="70"/>
+      <c r="EP11" s="70"/>
+      <c r="EQ11" s="70"/>
+      <c r="ER11" s="70"/>
+      <c r="ES11" s="70"/>
+      <c r="ET11" s="70"/>
+      <c r="EU11" s="70"/>
+      <c r="EV11" s="70"/>
+      <c r="EW11" s="70"/>
+      <c r="EX11" s="70"/>
+      <c r="EY11" s="70"/>
+      <c r="EZ11" s="70"/>
+      <c r="FA11" s="70"/>
+      <c r="FB11" s="70"/>
+      <c r="FC11" s="70"/>
+      <c r="FD11" s="70"/>
+      <c r="FE11" s="70"/>
+      <c r="FF11" s="70"/>
+      <c r="FG11" s="70"/>
+      <c r="FH11" s="70"/>
+      <c r="FI11" s="70"/>
+      <c r="FJ11" s="70"/>
+      <c r="FK11" s="70"/>
+      <c r="FL11" s="70"/>
+      <c r="FM11" s="70"/>
+      <c r="FN11" s="70"/>
+      <c r="FO11" s="70"/>
+      <c r="FP11" s="70"/>
+      <c r="FQ11" s="70"/>
+      <c r="FR11" s="70"/>
+      <c r="FS11" s="70"/>
+      <c r="FT11" s="70"/>
+      <c r="FU11" s="70"/>
+      <c r="FV11" s="70"/>
+      <c r="FW11" s="70"/>
+      <c r="FX11" s="70"/>
+      <c r="FY11" s="70"/>
+      <c r="FZ11" s="70"/>
+      <c r="GA11" s="70"/>
+      <c r="GB11" s="70"/>
+      <c r="GC11" s="70"/>
+      <c r="GD11" s="70"/>
+      <c r="GE11" s="70"/>
+      <c r="GF11" s="70"/>
+      <c r="GG11" s="70"/>
+      <c r="GH11" s="70"/>
+      <c r="GI11" s="70"/>
+      <c r="GJ11" s="70"/>
+      <c r="GK11" s="70"/>
+      <c r="GL11" s="70"/>
+      <c r="GM11" s="70"/>
+      <c r="GN11" s="70"/>
+      <c r="GO11" s="70"/>
+      <c r="GP11" s="70"/>
+      <c r="GQ11" s="70"/>
+      <c r="GR11" s="70"/>
+      <c r="GS11" s="70"/>
+      <c r="GT11" s="70"/>
+      <c r="GU11" s="70"/>
+      <c r="GV11" s="70"/>
+      <c r="GW11" s="70"/>
+      <c r="GX11" s="70"/>
+      <c r="GY11" s="70"/>
+      <c r="GZ11" s="70"/>
+      <c r="HA11" s="70"/>
+      <c r="HB11" s="70"/>
+      <c r="HC11" s="70"/>
+      <c r="HD11" s="70"/>
+      <c r="HE11" s="70"/>
+      <c r="HF11" s="70"/>
+      <c r="HG11" s="70"/>
+      <c r="HH11" s="70"/>
+      <c r="HI11" s="70"/>
+      <c r="HJ11" s="70"/>
+      <c r="HK11" s="70"/>
+      <c r="HL11" s="70"/>
+      <c r="HM11" s="70"/>
+      <c r="HN11" s="70"/>
+      <c r="HO11" s="70"/>
+      <c r="HP11" s="70"/>
+      <c r="HQ11" s="70"/>
+      <c r="HR11" s="70"/>
+      <c r="HS11" s="70"/>
+      <c r="HT11" s="70"/>
+      <c r="HU11" s="70"/>
+      <c r="HV11" s="70"/>
+      <c r="HW11" s="70"/>
+      <c r="HX11" s="70"/>
+      <c r="HY11" s="70"/>
+      <c r="HZ11" s="70"/>
+      <c r="IA11" s="70"/>
+      <c r="IB11" s="70"/>
+      <c r="IC11" s="70"/>
+      <c r="ID11" s="70"/>
+      <c r="IE11" s="70"/>
+      <c r="IF11" s="70"/>
+      <c r="IG11" s="70"/>
+      <c r="IH11" s="70"/>
+      <c r="II11" s="70"/>
+      <c r="IJ11" s="70"/>
+      <c r="IK11" s="70"/>
+      <c r="IL11" s="70"/>
+      <c r="IM11" s="70"/>
+      <c r="IN11" s="70"/>
+      <c r="IO11" s="70"/>
+      <c r="IP11" s="70"/>
+      <c r="IQ11" s="70"/>
+      <c r="IR11" s="70"/>
+      <c r="IS11" s="70"/>
+      <c r="IT11" s="70"/>
+      <c r="IU11" s="70"/>
+      <c r="IV11" s="70"/>
+    </row>
+    <row r="12" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="24">
         <v>6</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="31" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="30">
         <v>7</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:256" s="31" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="37">
         <v>8</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="31" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="31" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+    <row r="17" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:256" s="31" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:256" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:256" s="31" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:256" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:256" s="26" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="41">
         <v>9</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:256" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:256" s="71" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="74">
         <v>10</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="25"/>
-      <c r="AY24" s="25"/>
-      <c r="AZ24" s="25"/>
-      <c r="BA24" s="25"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="25"/>
-      <c r="BD24" s="25"/>
-      <c r="BE24" s="25"/>
-      <c r="BF24" s="25"/>
-      <c r="BG24" s="25"/>
-      <c r="BH24" s="25"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="25"/>
-      <c r="BK24" s="25"/>
-      <c r="BL24" s="25"/>
-      <c r="BM24" s="25"/>
-      <c r="BN24" s="25"/>
-      <c r="BO24" s="25"/>
-      <c r="BP24" s="25"/>
-      <c r="BQ24" s="25"/>
-      <c r="BR24" s="25"/>
-      <c r="BS24" s="25"/>
-      <c r="BT24" s="25"/>
-      <c r="BU24" s="25"/>
-      <c r="BV24" s="25"/>
-      <c r="BW24" s="25"/>
-      <c r="BX24" s="25"/>
-      <c r="BY24" s="25"/>
-      <c r="BZ24" s="25"/>
-      <c r="CA24" s="25"/>
-      <c r="CB24" s="25"/>
-      <c r="CC24" s="25"/>
-      <c r="CD24" s="25"/>
-      <c r="CE24" s="25"/>
-      <c r="CF24" s="25"/>
-      <c r="CG24" s="25"/>
-      <c r="CH24" s="25"/>
-      <c r="CI24" s="25"/>
-      <c r="CJ24" s="25"/>
-      <c r="CK24" s="25"/>
-      <c r="CL24" s="25"/>
-      <c r="CM24" s="25"/>
-      <c r="CN24" s="25"/>
-      <c r="CO24" s="25"/>
-      <c r="CP24" s="25"/>
-      <c r="CQ24" s="25"/>
-      <c r="CR24" s="25"/>
-      <c r="CS24" s="25"/>
-      <c r="CT24" s="25"/>
-      <c r="CU24" s="25"/>
-      <c r="CV24" s="25"/>
-      <c r="CW24" s="25"/>
-      <c r="CX24" s="25"/>
-      <c r="CY24" s="25"/>
-      <c r="CZ24" s="25"/>
-      <c r="DA24" s="25"/>
-      <c r="DB24" s="25"/>
-      <c r="DC24" s="25"/>
-      <c r="DD24" s="25"/>
-      <c r="DE24" s="25"/>
-      <c r="DF24" s="25"/>
-      <c r="DG24" s="25"/>
-      <c r="DH24" s="25"/>
-      <c r="DI24" s="25"/>
-      <c r="DJ24" s="25"/>
-      <c r="DK24" s="25"/>
-      <c r="DL24" s="25"/>
-      <c r="DM24" s="25"/>
-      <c r="DN24" s="25"/>
-      <c r="DO24" s="25"/>
-      <c r="DP24" s="25"/>
-      <c r="DQ24" s="25"/>
-      <c r="DR24" s="25"/>
-      <c r="DS24" s="25"/>
-      <c r="DT24" s="25"/>
-      <c r="DU24" s="25"/>
-      <c r="DV24" s="25"/>
-      <c r="DW24" s="25"/>
-      <c r="DX24" s="25"/>
-      <c r="DY24" s="25"/>
-      <c r="DZ24" s="25"/>
-      <c r="EA24" s="25"/>
-      <c r="EB24" s="25"/>
-      <c r="EC24" s="25"/>
-      <c r="ED24" s="25"/>
-      <c r="EE24" s="25"/>
-      <c r="EF24" s="25"/>
-      <c r="EG24" s="25"/>
-      <c r="EH24" s="25"/>
-      <c r="EI24" s="25"/>
-      <c r="EJ24" s="25"/>
-      <c r="EK24" s="25"/>
-      <c r="EL24" s="25"/>
-      <c r="EM24" s="25"/>
-      <c r="EN24" s="25"/>
-      <c r="EO24" s="25"/>
-      <c r="EP24" s="25"/>
-      <c r="EQ24" s="25"/>
-      <c r="ER24" s="25"/>
-      <c r="ES24" s="25"/>
-      <c r="ET24" s="25"/>
-      <c r="EU24" s="25"/>
-      <c r="EV24" s="25"/>
-      <c r="EW24" s="25"/>
-      <c r="EX24" s="25"/>
-      <c r="EY24" s="25"/>
-      <c r="EZ24" s="25"/>
-      <c r="FA24" s="25"/>
-      <c r="FB24" s="25"/>
-      <c r="FC24" s="25"/>
-      <c r="FD24" s="25"/>
-      <c r="FE24" s="25"/>
-      <c r="FF24" s="25"/>
-      <c r="FG24" s="25"/>
-      <c r="FH24" s="25"/>
-      <c r="FI24" s="25"/>
-      <c r="FJ24" s="25"/>
-      <c r="FK24" s="25"/>
-      <c r="FL24" s="25"/>
-      <c r="FM24" s="25"/>
-      <c r="FN24" s="25"/>
-      <c r="FO24" s="25"/>
-      <c r="FP24" s="25"/>
-      <c r="FQ24" s="25"/>
-      <c r="FR24" s="25"/>
-      <c r="FS24" s="25"/>
-      <c r="FT24" s="25"/>
-      <c r="FU24" s="25"/>
-      <c r="FV24" s="25"/>
-      <c r="FW24" s="25"/>
-      <c r="FX24" s="25"/>
-      <c r="FY24" s="25"/>
-      <c r="FZ24" s="25"/>
-      <c r="GA24" s="25"/>
-      <c r="GB24" s="25"/>
-      <c r="GC24" s="25"/>
-      <c r="GD24" s="25"/>
-      <c r="GE24" s="25"/>
-      <c r="GF24" s="25"/>
-      <c r="GG24" s="25"/>
-      <c r="GH24" s="25"/>
-      <c r="GI24" s="25"/>
-      <c r="GJ24" s="25"/>
-      <c r="GK24" s="25"/>
-      <c r="GL24" s="25"/>
-      <c r="GM24" s="25"/>
-      <c r="GN24" s="25"/>
-      <c r="GO24" s="25"/>
-      <c r="GP24" s="25"/>
-      <c r="GQ24" s="25"/>
-      <c r="GR24" s="25"/>
-      <c r="GS24" s="25"/>
-      <c r="GT24" s="25"/>
-      <c r="GU24" s="25"/>
-      <c r="GV24" s="25"/>
-      <c r="GW24" s="25"/>
-      <c r="GX24" s="25"/>
-      <c r="GY24" s="25"/>
-      <c r="GZ24" s="25"/>
-      <c r="HA24" s="25"/>
-      <c r="HB24" s="25"/>
-      <c r="HC24" s="25"/>
-      <c r="HD24" s="25"/>
-      <c r="HE24" s="25"/>
-      <c r="HF24" s="25"/>
-      <c r="HG24" s="25"/>
-      <c r="HH24" s="25"/>
-      <c r="HI24" s="25"/>
-      <c r="HJ24" s="25"/>
-      <c r="HK24" s="25"/>
-      <c r="HL24" s="25"/>
-      <c r="HM24" s="25"/>
-      <c r="HN24" s="25"/>
-      <c r="HO24" s="25"/>
-      <c r="HP24" s="25"/>
-      <c r="HQ24" s="25"/>
-      <c r="HR24" s="25"/>
-      <c r="HS24" s="25"/>
-      <c r="HT24" s="25"/>
-      <c r="HU24" s="25"/>
-      <c r="HV24" s="25"/>
-      <c r="HW24" s="25"/>
-      <c r="HX24" s="25"/>
-      <c r="HY24" s="25"/>
-      <c r="HZ24" s="25"/>
-      <c r="IA24" s="25"/>
-      <c r="IB24" s="25"/>
-      <c r="IC24" s="25"/>
-      <c r="ID24" s="25"/>
-      <c r="IE24" s="25"/>
-      <c r="IF24" s="25"/>
-      <c r="IG24" s="25"/>
-      <c r="IH24" s="25"/>
-      <c r="II24" s="25"/>
-      <c r="IJ24" s="25"/>
-      <c r="IK24" s="25"/>
-      <c r="IL24" s="25"/>
-      <c r="IM24" s="25"/>
-      <c r="IN24" s="25"/>
-      <c r="IO24" s="25"/>
-      <c r="IP24" s="25"/>
-      <c r="IQ24" s="25"/>
-      <c r="IR24" s="25"/>
-      <c r="IS24" s="25"/>
-      <c r="IT24" s="25"/>
-      <c r="IU24" s="25"/>
-      <c r="IV24" s="25"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="70"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="70"/>
+      <c r="BA24" s="70"/>
+      <c r="BB24" s="70"/>
+      <c r="BC24" s="70"/>
+      <c r="BD24" s="70"/>
+      <c r="BE24" s="70"/>
+      <c r="BF24" s="70"/>
+      <c r="BG24" s="70"/>
+      <c r="BH24" s="70"/>
+      <c r="BI24" s="70"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
+      <c r="BL24" s="70"/>
+      <c r="BM24" s="70"/>
+      <c r="BN24" s="70"/>
+      <c r="BO24" s="70"/>
+      <c r="BP24" s="70"/>
+      <c r="BQ24" s="70"/>
+      <c r="BR24" s="70"/>
+      <c r="BS24" s="70"/>
+      <c r="BT24" s="70"/>
+      <c r="BU24" s="70"/>
+      <c r="BV24" s="70"/>
+      <c r="BW24" s="70"/>
+      <c r="BX24" s="70"/>
+      <c r="BY24" s="70"/>
+      <c r="BZ24" s="70"/>
+      <c r="CA24" s="70"/>
+      <c r="CB24" s="70"/>
+      <c r="CC24" s="70"/>
+      <c r="CD24" s="70"/>
+      <c r="CE24" s="70"/>
+      <c r="CF24" s="70"/>
+      <c r="CG24" s="70"/>
+      <c r="CH24" s="70"/>
+      <c r="CI24" s="70"/>
+      <c r="CJ24" s="70"/>
+      <c r="CK24" s="70"/>
+      <c r="CL24" s="70"/>
+      <c r="CM24" s="70"/>
+      <c r="CN24" s="70"/>
+      <c r="CO24" s="70"/>
+      <c r="CP24" s="70"/>
+      <c r="CQ24" s="70"/>
+      <c r="CR24" s="70"/>
+      <c r="CS24" s="70"/>
+      <c r="CT24" s="70"/>
+      <c r="CU24" s="70"/>
+      <c r="CV24" s="70"/>
+      <c r="CW24" s="70"/>
+      <c r="CX24" s="70"/>
+      <c r="CY24" s="70"/>
+      <c r="CZ24" s="70"/>
+      <c r="DA24" s="70"/>
+      <c r="DB24" s="70"/>
+      <c r="DC24" s="70"/>
+      <c r="DD24" s="70"/>
+      <c r="DE24" s="70"/>
+      <c r="DF24" s="70"/>
+      <c r="DG24" s="70"/>
+      <c r="DH24" s="70"/>
+      <c r="DI24" s="70"/>
+      <c r="DJ24" s="70"/>
+      <c r="DK24" s="70"/>
+      <c r="DL24" s="70"/>
+      <c r="DM24" s="70"/>
+      <c r="DN24" s="70"/>
+      <c r="DO24" s="70"/>
+      <c r="DP24" s="70"/>
+      <c r="DQ24" s="70"/>
+      <c r="DR24" s="70"/>
+      <c r="DS24" s="70"/>
+      <c r="DT24" s="70"/>
+      <c r="DU24" s="70"/>
+      <c r="DV24" s="70"/>
+      <c r="DW24" s="70"/>
+      <c r="DX24" s="70"/>
+      <c r="DY24" s="70"/>
+      <c r="DZ24" s="70"/>
+      <c r="EA24" s="70"/>
+      <c r="EB24" s="70"/>
+      <c r="EC24" s="70"/>
+      <c r="ED24" s="70"/>
+      <c r="EE24" s="70"/>
+      <c r="EF24" s="70"/>
+      <c r="EG24" s="70"/>
+      <c r="EH24" s="70"/>
+      <c r="EI24" s="70"/>
+      <c r="EJ24" s="70"/>
+      <c r="EK24" s="70"/>
+      <c r="EL24" s="70"/>
+      <c r="EM24" s="70"/>
+      <c r="EN24" s="70"/>
+      <c r="EO24" s="70"/>
+      <c r="EP24" s="70"/>
+      <c r="EQ24" s="70"/>
+      <c r="ER24" s="70"/>
+      <c r="ES24" s="70"/>
+      <c r="ET24" s="70"/>
+      <c r="EU24" s="70"/>
+      <c r="EV24" s="70"/>
+      <c r="EW24" s="70"/>
+      <c r="EX24" s="70"/>
+      <c r="EY24" s="70"/>
+      <c r="EZ24" s="70"/>
+      <c r="FA24" s="70"/>
+      <c r="FB24" s="70"/>
+      <c r="FC24" s="70"/>
+      <c r="FD24" s="70"/>
+      <c r="FE24" s="70"/>
+      <c r="FF24" s="70"/>
+      <c r="FG24" s="70"/>
+      <c r="FH24" s="70"/>
+      <c r="FI24" s="70"/>
+      <c r="FJ24" s="70"/>
+      <c r="FK24" s="70"/>
+      <c r="FL24" s="70"/>
+      <c r="FM24" s="70"/>
+      <c r="FN24" s="70"/>
+      <c r="FO24" s="70"/>
+      <c r="FP24" s="70"/>
+      <c r="FQ24" s="70"/>
+      <c r="FR24" s="70"/>
+      <c r="FS24" s="70"/>
+      <c r="FT24" s="70"/>
+      <c r="FU24" s="70"/>
+      <c r="FV24" s="70"/>
+      <c r="FW24" s="70"/>
+      <c r="FX24" s="70"/>
+      <c r="FY24" s="70"/>
+      <c r="FZ24" s="70"/>
+      <c r="GA24" s="70"/>
+      <c r="GB24" s="70"/>
+      <c r="GC24" s="70"/>
+      <c r="GD24" s="70"/>
+      <c r="GE24" s="70"/>
+      <c r="GF24" s="70"/>
+      <c r="GG24" s="70"/>
+      <c r="GH24" s="70"/>
+      <c r="GI24" s="70"/>
+      <c r="GJ24" s="70"/>
+      <c r="GK24" s="70"/>
+      <c r="GL24" s="70"/>
+      <c r="GM24" s="70"/>
+      <c r="GN24" s="70"/>
+      <c r="GO24" s="70"/>
+      <c r="GP24" s="70"/>
+      <c r="GQ24" s="70"/>
+      <c r="GR24" s="70"/>
+      <c r="GS24" s="70"/>
+      <c r="GT24" s="70"/>
+      <c r="GU24" s="70"/>
+      <c r="GV24" s="70"/>
+      <c r="GW24" s="70"/>
+      <c r="GX24" s="70"/>
+      <c r="GY24" s="70"/>
+      <c r="GZ24" s="70"/>
+      <c r="HA24" s="70"/>
+      <c r="HB24" s="70"/>
+      <c r="HC24" s="70"/>
+      <c r="HD24" s="70"/>
+      <c r="HE24" s="70"/>
+      <c r="HF24" s="70"/>
+      <c r="HG24" s="70"/>
+      <c r="HH24" s="70"/>
+      <c r="HI24" s="70"/>
+      <c r="HJ24" s="70"/>
+      <c r="HK24" s="70"/>
+      <c r="HL24" s="70"/>
+      <c r="HM24" s="70"/>
+      <c r="HN24" s="70"/>
+      <c r="HO24" s="70"/>
+      <c r="HP24" s="70"/>
+      <c r="HQ24" s="70"/>
+      <c r="HR24" s="70"/>
+      <c r="HS24" s="70"/>
+      <c r="HT24" s="70"/>
+      <c r="HU24" s="70"/>
+      <c r="HV24" s="70"/>
+      <c r="HW24" s="70"/>
+      <c r="HX24" s="70"/>
+      <c r="HY24" s="70"/>
+      <c r="HZ24" s="70"/>
+      <c r="IA24" s="70"/>
+      <c r="IB24" s="70"/>
+      <c r="IC24" s="70"/>
+      <c r="ID24" s="70"/>
+      <c r="IE24" s="70"/>
+      <c r="IF24" s="70"/>
+      <c r="IG24" s="70"/>
+      <c r="IH24" s="70"/>
+      <c r="II24" s="70"/>
+      <c r="IJ24" s="70"/>
+      <c r="IK24" s="70"/>
+      <c r="IL24" s="70"/>
+      <c r="IM24" s="70"/>
+      <c r="IN24" s="70"/>
+      <c r="IO24" s="70"/>
+      <c r="IP24" s="70"/>
+      <c r="IQ24" s="70"/>
+      <c r="IR24" s="70"/>
+      <c r="IS24" s="70"/>
+      <c r="IT24" s="70"/>
+      <c r="IU24" s="70"/>
+      <c r="IV24" s="70"/>
     </row>
     <row r="25" spans="1:256" s="12" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="45">
         <v>11</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="46" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -2197,62 +2216,62 @@
       </c>
     </row>
     <row r="26" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:256" s="60" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:256" s="51" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58" t="s">
+      <c r="E27" s="48"/>
+      <c r="F27" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:256" s="34" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+    <row r="30" spans="1:256" s="29" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="64" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="55" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -2509,300 +2528,300 @@
       <c r="IV30" s="12"/>
     </row>
     <row r="31" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:256" s="31" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:256" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="45" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="37">
         <v>12</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:256" s="68" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="1:256" s="81" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+      <c r="B33" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="66" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="77"/>
+      <c r="F33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
-      <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
-      <c r="AW33" s="17"/>
-      <c r="AX33" s="17"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="17"/>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="17"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="17"/>
-      <c r="BE33" s="17"/>
-      <c r="BF33" s="17"/>
-      <c r="BG33" s="17"/>
-      <c r="BH33" s="17"/>
-      <c r="BI33" s="17"/>
-      <c r="BJ33" s="17"/>
-      <c r="BK33" s="17"/>
-      <c r="BL33" s="17"/>
-      <c r="BM33" s="17"/>
-      <c r="BN33" s="17"/>
-      <c r="BO33" s="17"/>
-      <c r="BP33" s="17"/>
-      <c r="BQ33" s="17"/>
-      <c r="BR33" s="17"/>
-      <c r="BS33" s="17"/>
-      <c r="BT33" s="17"/>
-      <c r="BU33" s="17"/>
-      <c r="BV33" s="17"/>
-      <c r="BW33" s="17"/>
-      <c r="BX33" s="17"/>
-      <c r="BY33" s="17"/>
-      <c r="BZ33" s="17"/>
-      <c r="CA33" s="17"/>
-      <c r="CB33" s="17"/>
-      <c r="CC33" s="17"/>
-      <c r="CD33" s="17"/>
-      <c r="CE33" s="17"/>
-      <c r="CF33" s="17"/>
-      <c r="CG33" s="17"/>
-      <c r="CH33" s="17"/>
-      <c r="CI33" s="17"/>
-      <c r="CJ33" s="17"/>
-      <c r="CK33" s="17"/>
-      <c r="CL33" s="17"/>
-      <c r="CM33" s="17"/>
-      <c r="CN33" s="17"/>
-      <c r="CO33" s="17"/>
-      <c r="CP33" s="17"/>
-      <c r="CQ33" s="17"/>
-      <c r="CR33" s="17"/>
-      <c r="CS33" s="17"/>
-      <c r="CT33" s="17"/>
-      <c r="CU33" s="17"/>
-      <c r="CV33" s="17"/>
-      <c r="CW33" s="17"/>
-      <c r="CX33" s="17"/>
-      <c r="CY33" s="17"/>
-      <c r="CZ33" s="17"/>
-      <c r="DA33" s="17"/>
-      <c r="DB33" s="17"/>
-      <c r="DC33" s="17"/>
-      <c r="DD33" s="17"/>
-      <c r="DE33" s="17"/>
-      <c r="DF33" s="17"/>
-      <c r="DG33" s="17"/>
-      <c r="DH33" s="17"/>
-      <c r="DI33" s="17"/>
-      <c r="DJ33" s="17"/>
-      <c r="DK33" s="17"/>
-      <c r="DL33" s="17"/>
-      <c r="DM33" s="17"/>
-      <c r="DN33" s="17"/>
-      <c r="DO33" s="17"/>
-      <c r="DP33" s="17"/>
-      <c r="DQ33" s="17"/>
-      <c r="DR33" s="17"/>
-      <c r="DS33" s="17"/>
-      <c r="DT33" s="17"/>
-      <c r="DU33" s="17"/>
-      <c r="DV33" s="17"/>
-      <c r="DW33" s="17"/>
-      <c r="DX33" s="17"/>
-      <c r="DY33" s="17"/>
-      <c r="DZ33" s="17"/>
-      <c r="EA33" s="17"/>
-      <c r="EB33" s="17"/>
-      <c r="EC33" s="17"/>
-      <c r="ED33" s="17"/>
-      <c r="EE33" s="17"/>
-      <c r="EF33" s="17"/>
-      <c r="EG33" s="17"/>
-      <c r="EH33" s="17"/>
-      <c r="EI33" s="17"/>
-      <c r="EJ33" s="17"/>
-      <c r="EK33" s="17"/>
-      <c r="EL33" s="17"/>
-      <c r="EM33" s="17"/>
-      <c r="EN33" s="17"/>
-      <c r="EO33" s="17"/>
-      <c r="EP33" s="17"/>
-      <c r="EQ33" s="17"/>
-      <c r="ER33" s="17"/>
-      <c r="ES33" s="17"/>
-      <c r="ET33" s="17"/>
-      <c r="EU33" s="17"/>
-      <c r="EV33" s="17"/>
-      <c r="EW33" s="17"/>
-      <c r="EX33" s="17"/>
-      <c r="EY33" s="17"/>
-      <c r="EZ33" s="17"/>
-      <c r="FA33" s="17"/>
-      <c r="FB33" s="17"/>
-      <c r="FC33" s="17"/>
-      <c r="FD33" s="17"/>
-      <c r="FE33" s="17"/>
-      <c r="FF33" s="17"/>
-      <c r="FG33" s="17"/>
-      <c r="FH33" s="17"/>
-      <c r="FI33" s="17"/>
-      <c r="FJ33" s="17"/>
-      <c r="FK33" s="17"/>
-      <c r="FL33" s="17"/>
-      <c r="FM33" s="17"/>
-      <c r="FN33" s="17"/>
-      <c r="FO33" s="17"/>
-      <c r="FP33" s="17"/>
-      <c r="FQ33" s="17"/>
-      <c r="FR33" s="17"/>
-      <c r="FS33" s="17"/>
-      <c r="FT33" s="17"/>
-      <c r="FU33" s="17"/>
-      <c r="FV33" s="17"/>
-      <c r="FW33" s="17"/>
-      <c r="FX33" s="17"/>
-      <c r="FY33" s="17"/>
-      <c r="FZ33" s="17"/>
-      <c r="GA33" s="17"/>
-      <c r="GB33" s="17"/>
-      <c r="GC33" s="17"/>
-      <c r="GD33" s="17"/>
-      <c r="GE33" s="17"/>
-      <c r="GF33" s="17"/>
-      <c r="GG33" s="17"/>
-      <c r="GH33" s="17"/>
-      <c r="GI33" s="17"/>
-      <c r="GJ33" s="17"/>
-      <c r="GK33" s="17"/>
-      <c r="GL33" s="17"/>
-      <c r="GM33" s="17"/>
-      <c r="GN33" s="17"/>
-      <c r="GO33" s="17"/>
-      <c r="GP33" s="17"/>
-      <c r="GQ33" s="17"/>
-      <c r="GR33" s="17"/>
-      <c r="GS33" s="17"/>
-      <c r="GT33" s="17"/>
-      <c r="GU33" s="17"/>
-      <c r="GV33" s="17"/>
-      <c r="GW33" s="17"/>
-      <c r="GX33" s="17"/>
-      <c r="GY33" s="17"/>
-      <c r="GZ33" s="17"/>
-      <c r="HA33" s="17"/>
-      <c r="HB33" s="17"/>
-      <c r="HC33" s="17"/>
-      <c r="HD33" s="17"/>
-      <c r="HE33" s="17"/>
-      <c r="HF33" s="17"/>
-      <c r="HG33" s="17"/>
-      <c r="HH33" s="17"/>
-      <c r="HI33" s="17"/>
-      <c r="HJ33" s="17"/>
-      <c r="HK33" s="17"/>
-      <c r="HL33" s="17"/>
-      <c r="HM33" s="17"/>
-      <c r="HN33" s="17"/>
-      <c r="HO33" s="17"/>
-      <c r="HP33" s="17"/>
-      <c r="HQ33" s="17"/>
-      <c r="HR33" s="17"/>
-      <c r="HS33" s="17"/>
-      <c r="HT33" s="17"/>
-      <c r="HU33" s="17"/>
-      <c r="HV33" s="17"/>
-      <c r="HW33" s="17"/>
-      <c r="HX33" s="17"/>
-      <c r="HY33" s="17"/>
-      <c r="HZ33" s="17"/>
-      <c r="IA33" s="17"/>
-      <c r="IB33" s="17"/>
-      <c r="IC33" s="17"/>
-      <c r="ID33" s="17"/>
-      <c r="IE33" s="17"/>
-      <c r="IF33" s="17"/>
-      <c r="IG33" s="17"/>
-      <c r="IH33" s="17"/>
-      <c r="II33" s="17"/>
-      <c r="IJ33" s="17"/>
-      <c r="IK33" s="17"/>
-      <c r="IL33" s="17"/>
-      <c r="IM33" s="17"/>
-      <c r="IN33" s="17"/>
-      <c r="IO33" s="17"/>
-      <c r="IP33" s="17"/>
-      <c r="IQ33" s="17"/>
-      <c r="IR33" s="17"/>
-      <c r="IS33" s="17"/>
-      <c r="IT33" s="17"/>
-      <c r="IU33" s="17"/>
-      <c r="IV33" s="17"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="80"/>
+      <c r="AD33" s="80"/>
+      <c r="AE33" s="80"/>
+      <c r="AF33" s="80"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="80"/>
+      <c r="AL33" s="80"/>
+      <c r="AM33" s="80"/>
+      <c r="AN33" s="80"/>
+      <c r="AO33" s="80"/>
+      <c r="AP33" s="80"/>
+      <c r="AQ33" s="80"/>
+      <c r="AR33" s="80"/>
+      <c r="AS33" s="80"/>
+      <c r="AT33" s="80"/>
+      <c r="AU33" s="80"/>
+      <c r="AV33" s="80"/>
+      <c r="AW33" s="80"/>
+      <c r="AX33" s="80"/>
+      <c r="AY33" s="80"/>
+      <c r="AZ33" s="80"/>
+      <c r="BA33" s="80"/>
+      <c r="BB33" s="80"/>
+      <c r="BC33" s="80"/>
+      <c r="BD33" s="80"/>
+      <c r="BE33" s="80"/>
+      <c r="BF33" s="80"/>
+      <c r="BG33" s="80"/>
+      <c r="BH33" s="80"/>
+      <c r="BI33" s="80"/>
+      <c r="BJ33" s="80"/>
+      <c r="BK33" s="80"/>
+      <c r="BL33" s="80"/>
+      <c r="BM33" s="80"/>
+      <c r="BN33" s="80"/>
+      <c r="BO33" s="80"/>
+      <c r="BP33" s="80"/>
+      <c r="BQ33" s="80"/>
+      <c r="BR33" s="80"/>
+      <c r="BS33" s="80"/>
+      <c r="BT33" s="80"/>
+      <c r="BU33" s="80"/>
+      <c r="BV33" s="80"/>
+      <c r="BW33" s="80"/>
+      <c r="BX33" s="80"/>
+      <c r="BY33" s="80"/>
+      <c r="BZ33" s="80"/>
+      <c r="CA33" s="80"/>
+      <c r="CB33" s="80"/>
+      <c r="CC33" s="80"/>
+      <c r="CD33" s="80"/>
+      <c r="CE33" s="80"/>
+      <c r="CF33" s="80"/>
+      <c r="CG33" s="80"/>
+      <c r="CH33" s="80"/>
+      <c r="CI33" s="80"/>
+      <c r="CJ33" s="80"/>
+      <c r="CK33" s="80"/>
+      <c r="CL33" s="80"/>
+      <c r="CM33" s="80"/>
+      <c r="CN33" s="80"/>
+      <c r="CO33" s="80"/>
+      <c r="CP33" s="80"/>
+      <c r="CQ33" s="80"/>
+      <c r="CR33" s="80"/>
+      <c r="CS33" s="80"/>
+      <c r="CT33" s="80"/>
+      <c r="CU33" s="80"/>
+      <c r="CV33" s="80"/>
+      <c r="CW33" s="80"/>
+      <c r="CX33" s="80"/>
+      <c r="CY33" s="80"/>
+      <c r="CZ33" s="80"/>
+      <c r="DA33" s="80"/>
+      <c r="DB33" s="80"/>
+      <c r="DC33" s="80"/>
+      <c r="DD33" s="80"/>
+      <c r="DE33" s="80"/>
+      <c r="DF33" s="80"/>
+      <c r="DG33" s="80"/>
+      <c r="DH33" s="80"/>
+      <c r="DI33" s="80"/>
+      <c r="DJ33" s="80"/>
+      <c r="DK33" s="80"/>
+      <c r="DL33" s="80"/>
+      <c r="DM33" s="80"/>
+      <c r="DN33" s="80"/>
+      <c r="DO33" s="80"/>
+      <c r="DP33" s="80"/>
+      <c r="DQ33" s="80"/>
+      <c r="DR33" s="80"/>
+      <c r="DS33" s="80"/>
+      <c r="DT33" s="80"/>
+      <c r="DU33" s="80"/>
+      <c r="DV33" s="80"/>
+      <c r="DW33" s="80"/>
+      <c r="DX33" s="80"/>
+      <c r="DY33" s="80"/>
+      <c r="DZ33" s="80"/>
+      <c r="EA33" s="80"/>
+      <c r="EB33" s="80"/>
+      <c r="EC33" s="80"/>
+      <c r="ED33" s="80"/>
+      <c r="EE33" s="80"/>
+      <c r="EF33" s="80"/>
+      <c r="EG33" s="80"/>
+      <c r="EH33" s="80"/>
+      <c r="EI33" s="80"/>
+      <c r="EJ33" s="80"/>
+      <c r="EK33" s="80"/>
+      <c r="EL33" s="80"/>
+      <c r="EM33" s="80"/>
+      <c r="EN33" s="80"/>
+      <c r="EO33" s="80"/>
+      <c r="EP33" s="80"/>
+      <c r="EQ33" s="80"/>
+      <c r="ER33" s="80"/>
+      <c r="ES33" s="80"/>
+      <c r="ET33" s="80"/>
+      <c r="EU33" s="80"/>
+      <c r="EV33" s="80"/>
+      <c r="EW33" s="80"/>
+      <c r="EX33" s="80"/>
+      <c r="EY33" s="80"/>
+      <c r="EZ33" s="80"/>
+      <c r="FA33" s="80"/>
+      <c r="FB33" s="80"/>
+      <c r="FC33" s="80"/>
+      <c r="FD33" s="80"/>
+      <c r="FE33" s="80"/>
+      <c r="FF33" s="80"/>
+      <c r="FG33" s="80"/>
+      <c r="FH33" s="80"/>
+      <c r="FI33" s="80"/>
+      <c r="FJ33" s="80"/>
+      <c r="FK33" s="80"/>
+      <c r="FL33" s="80"/>
+      <c r="FM33" s="80"/>
+      <c r="FN33" s="80"/>
+      <c r="FO33" s="80"/>
+      <c r="FP33" s="80"/>
+      <c r="FQ33" s="80"/>
+      <c r="FR33" s="80"/>
+      <c r="FS33" s="80"/>
+      <c r="FT33" s="80"/>
+      <c r="FU33" s="80"/>
+      <c r="FV33" s="80"/>
+      <c r="FW33" s="80"/>
+      <c r="FX33" s="80"/>
+      <c r="FY33" s="80"/>
+      <c r="FZ33" s="80"/>
+      <c r="GA33" s="80"/>
+      <c r="GB33" s="80"/>
+      <c r="GC33" s="80"/>
+      <c r="GD33" s="80"/>
+      <c r="GE33" s="80"/>
+      <c r="GF33" s="80"/>
+      <c r="GG33" s="80"/>
+      <c r="GH33" s="80"/>
+      <c r="GI33" s="80"/>
+      <c r="GJ33" s="80"/>
+      <c r="GK33" s="80"/>
+      <c r="GL33" s="80"/>
+      <c r="GM33" s="80"/>
+      <c r="GN33" s="80"/>
+      <c r="GO33" s="80"/>
+      <c r="GP33" s="80"/>
+      <c r="GQ33" s="80"/>
+      <c r="GR33" s="80"/>
+      <c r="GS33" s="80"/>
+      <c r="GT33" s="80"/>
+      <c r="GU33" s="80"/>
+      <c r="GV33" s="80"/>
+      <c r="GW33" s="80"/>
+      <c r="GX33" s="80"/>
+      <c r="GY33" s="80"/>
+      <c r="GZ33" s="80"/>
+      <c r="HA33" s="80"/>
+      <c r="HB33" s="80"/>
+      <c r="HC33" s="80"/>
+      <c r="HD33" s="80"/>
+      <c r="HE33" s="80"/>
+      <c r="HF33" s="80"/>
+      <c r="HG33" s="80"/>
+      <c r="HH33" s="80"/>
+      <c r="HI33" s="80"/>
+      <c r="HJ33" s="80"/>
+      <c r="HK33" s="80"/>
+      <c r="HL33" s="80"/>
+      <c r="HM33" s="80"/>
+      <c r="HN33" s="80"/>
+      <c r="HO33" s="80"/>
+      <c r="HP33" s="80"/>
+      <c r="HQ33" s="80"/>
+      <c r="HR33" s="80"/>
+      <c r="HS33" s="80"/>
+      <c r="HT33" s="80"/>
+      <c r="HU33" s="80"/>
+      <c r="HV33" s="80"/>
+      <c r="HW33" s="80"/>
+      <c r="HX33" s="80"/>
+      <c r="HY33" s="80"/>
+      <c r="HZ33" s="80"/>
+      <c r="IA33" s="80"/>
+      <c r="IB33" s="80"/>
+      <c r="IC33" s="80"/>
+      <c r="ID33" s="80"/>
+      <c r="IE33" s="80"/>
+      <c r="IF33" s="80"/>
+      <c r="IG33" s="80"/>
+      <c r="IH33" s="80"/>
+      <c r="II33" s="80"/>
+      <c r="IJ33" s="80"/>
+      <c r="IK33" s="80"/>
+      <c r="IL33" s="80"/>
+      <c r="IM33" s="80"/>
+      <c r="IN33" s="80"/>
+      <c r="IO33" s="80"/>
+      <c r="IP33" s="80"/>
+      <c r="IQ33" s="80"/>
+      <c r="IR33" s="80"/>
+      <c r="IS33" s="80"/>
+      <c r="IT33" s="80"/>
+      <c r="IU33" s="80"/>
+      <c r="IV33" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>

--- a/doc/v3/design 2.xlsx
+++ b/doc/v3/design 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\citizen-account\doc\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C837F8-064D-46AF-A631-9F08761AAF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B5BB6-E752-481E-A9F4-49FF88CC5F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,12 +297,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFF9AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
@@ -315,8 +309,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7A19A"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFF9AE"/>
       </patternFill>
     </fill>
   </fills>
@@ -554,19 +554,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -580,15 +567,25 @@
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -598,53 +595,54 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,14 +1030,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="52" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
@@ -1053,14 +1051,14 @@
       <c r="A1" s="4"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="14"/>
-      <c r="G1" s="59"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1113,39 +1111,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="64" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
+    <row r="5" spans="1:256" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="55">
         <v>1</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="64" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+    <row r="6" spans="1:256" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="55">
         <v>1</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1470,271 +1468,271 @@
       <c r="IU10" s="12"/>
       <c r="IV10" s="12"/>
     </row>
-    <row r="11" spans="1:256" s="71" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67" t="s">
+    <row r="11" spans="1:256" s="65" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
-      <c r="AK11" s="70"/>
-      <c r="AL11" s="70"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="70"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="70"/>
-      <c r="AQ11" s="70"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="70"/>
-      <c r="AT11" s="70"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="70"/>
-      <c r="BE11" s="70"/>
-      <c r="BF11" s="70"/>
-      <c r="BG11" s="70"/>
-      <c r="BH11" s="70"/>
-      <c r="BI11" s="70"/>
-      <c r="BJ11" s="70"/>
-      <c r="BK11" s="70"/>
-      <c r="BL11" s="70"/>
-      <c r="BM11" s="70"/>
-      <c r="BN11" s="70"/>
-      <c r="BO11" s="70"/>
-      <c r="BP11" s="70"/>
-      <c r="BQ11" s="70"/>
-      <c r="BR11" s="70"/>
-      <c r="BS11" s="70"/>
-      <c r="BT11" s="70"/>
-      <c r="BU11" s="70"/>
-      <c r="BV11" s="70"/>
-      <c r="BW11" s="70"/>
-      <c r="BX11" s="70"/>
-      <c r="BY11" s="70"/>
-      <c r="BZ11" s="70"/>
-      <c r="CA11" s="70"/>
-      <c r="CB11" s="70"/>
-      <c r="CC11" s="70"/>
-      <c r="CD11" s="70"/>
-      <c r="CE11" s="70"/>
-      <c r="CF11" s="70"/>
-      <c r="CG11" s="70"/>
-      <c r="CH11" s="70"/>
-      <c r="CI11" s="70"/>
-      <c r="CJ11" s="70"/>
-      <c r="CK11" s="70"/>
-      <c r="CL11" s="70"/>
-      <c r="CM11" s="70"/>
-      <c r="CN11" s="70"/>
-      <c r="CO11" s="70"/>
-      <c r="CP11" s="70"/>
-      <c r="CQ11" s="70"/>
-      <c r="CR11" s="70"/>
-      <c r="CS11" s="70"/>
-      <c r="CT11" s="70"/>
-      <c r="CU11" s="70"/>
-      <c r="CV11" s="70"/>
-      <c r="CW11" s="70"/>
-      <c r="CX11" s="70"/>
-      <c r="CY11" s="70"/>
-      <c r="CZ11" s="70"/>
-      <c r="DA11" s="70"/>
-      <c r="DB11" s="70"/>
-      <c r="DC11" s="70"/>
-      <c r="DD11" s="70"/>
-      <c r="DE11" s="70"/>
-      <c r="DF11" s="70"/>
-      <c r="DG11" s="70"/>
-      <c r="DH11" s="70"/>
-      <c r="DI11" s="70"/>
-      <c r="DJ11" s="70"/>
-      <c r="DK11" s="70"/>
-      <c r="DL11" s="70"/>
-      <c r="DM11" s="70"/>
-      <c r="DN11" s="70"/>
-      <c r="DO11" s="70"/>
-      <c r="DP11" s="70"/>
-      <c r="DQ11" s="70"/>
-      <c r="DR11" s="70"/>
-      <c r="DS11" s="70"/>
-      <c r="DT11" s="70"/>
-      <c r="DU11" s="70"/>
-      <c r="DV11" s="70"/>
-      <c r="DW11" s="70"/>
-      <c r="DX11" s="70"/>
-      <c r="DY11" s="70"/>
-      <c r="DZ11" s="70"/>
-      <c r="EA11" s="70"/>
-      <c r="EB11" s="70"/>
-      <c r="EC11" s="70"/>
-      <c r="ED11" s="70"/>
-      <c r="EE11" s="70"/>
-      <c r="EF11" s="70"/>
-      <c r="EG11" s="70"/>
-      <c r="EH11" s="70"/>
-      <c r="EI11" s="70"/>
-      <c r="EJ11" s="70"/>
-      <c r="EK11" s="70"/>
-      <c r="EL11" s="70"/>
-      <c r="EM11" s="70"/>
-      <c r="EN11" s="70"/>
-      <c r="EO11" s="70"/>
-      <c r="EP11" s="70"/>
-      <c r="EQ11" s="70"/>
-      <c r="ER11" s="70"/>
-      <c r="ES11" s="70"/>
-      <c r="ET11" s="70"/>
-      <c r="EU11" s="70"/>
-      <c r="EV11" s="70"/>
-      <c r="EW11" s="70"/>
-      <c r="EX11" s="70"/>
-      <c r="EY11" s="70"/>
-      <c r="EZ11" s="70"/>
-      <c r="FA11" s="70"/>
-      <c r="FB11" s="70"/>
-      <c r="FC11" s="70"/>
-      <c r="FD11" s="70"/>
-      <c r="FE11" s="70"/>
-      <c r="FF11" s="70"/>
-      <c r="FG11" s="70"/>
-      <c r="FH11" s="70"/>
-      <c r="FI11" s="70"/>
-      <c r="FJ11" s="70"/>
-      <c r="FK11" s="70"/>
-      <c r="FL11" s="70"/>
-      <c r="FM11" s="70"/>
-      <c r="FN11" s="70"/>
-      <c r="FO11" s="70"/>
-      <c r="FP11" s="70"/>
-      <c r="FQ11" s="70"/>
-      <c r="FR11" s="70"/>
-      <c r="FS11" s="70"/>
-      <c r="FT11" s="70"/>
-      <c r="FU11" s="70"/>
-      <c r="FV11" s="70"/>
-      <c r="FW11" s="70"/>
-      <c r="FX11" s="70"/>
-      <c r="FY11" s="70"/>
-      <c r="FZ11" s="70"/>
-      <c r="GA11" s="70"/>
-      <c r="GB11" s="70"/>
-      <c r="GC11" s="70"/>
-      <c r="GD11" s="70"/>
-      <c r="GE11" s="70"/>
-      <c r="GF11" s="70"/>
-      <c r="GG11" s="70"/>
-      <c r="GH11" s="70"/>
-      <c r="GI11" s="70"/>
-      <c r="GJ11" s="70"/>
-      <c r="GK11" s="70"/>
-      <c r="GL11" s="70"/>
-      <c r="GM11" s="70"/>
-      <c r="GN11" s="70"/>
-      <c r="GO11" s="70"/>
-      <c r="GP11" s="70"/>
-      <c r="GQ11" s="70"/>
-      <c r="GR11" s="70"/>
-      <c r="GS11" s="70"/>
-      <c r="GT11" s="70"/>
-      <c r="GU11" s="70"/>
-      <c r="GV11" s="70"/>
-      <c r="GW11" s="70"/>
-      <c r="GX11" s="70"/>
-      <c r="GY11" s="70"/>
-      <c r="GZ11" s="70"/>
-      <c r="HA11" s="70"/>
-      <c r="HB11" s="70"/>
-      <c r="HC11" s="70"/>
-      <c r="HD11" s="70"/>
-      <c r="HE11" s="70"/>
-      <c r="HF11" s="70"/>
-      <c r="HG11" s="70"/>
-      <c r="HH11" s="70"/>
-      <c r="HI11" s="70"/>
-      <c r="HJ11" s="70"/>
-      <c r="HK11" s="70"/>
-      <c r="HL11" s="70"/>
-      <c r="HM11" s="70"/>
-      <c r="HN11" s="70"/>
-      <c r="HO11" s="70"/>
-      <c r="HP11" s="70"/>
-      <c r="HQ11" s="70"/>
-      <c r="HR11" s="70"/>
-      <c r="HS11" s="70"/>
-      <c r="HT11" s="70"/>
-      <c r="HU11" s="70"/>
-      <c r="HV11" s="70"/>
-      <c r="HW11" s="70"/>
-      <c r="HX11" s="70"/>
-      <c r="HY11" s="70"/>
-      <c r="HZ11" s="70"/>
-      <c r="IA11" s="70"/>
-      <c r="IB11" s="70"/>
-      <c r="IC11" s="70"/>
-      <c r="ID11" s="70"/>
-      <c r="IE11" s="70"/>
-      <c r="IF11" s="70"/>
-      <c r="IG11" s="70"/>
-      <c r="IH11" s="70"/>
-      <c r="II11" s="70"/>
-      <c r="IJ11" s="70"/>
-      <c r="IK11" s="70"/>
-      <c r="IL11" s="70"/>
-      <c r="IM11" s="70"/>
-      <c r="IN11" s="70"/>
-      <c r="IO11" s="70"/>
-      <c r="IP11" s="70"/>
-      <c r="IQ11" s="70"/>
-      <c r="IR11" s="70"/>
-      <c r="IS11" s="70"/>
-      <c r="IT11" s="70"/>
-      <c r="IU11" s="70"/>
-      <c r="IV11" s="70"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="64"/>
+      <c r="BP11" s="64"/>
+      <c r="BQ11" s="64"/>
+      <c r="BR11" s="64"/>
+      <c r="BS11" s="64"/>
+      <c r="BT11" s="64"/>
+      <c r="BU11" s="64"/>
+      <c r="BV11" s="64"/>
+      <c r="BW11" s="64"/>
+      <c r="BX11" s="64"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="64"/>
+      <c r="CA11" s="64"/>
+      <c r="CB11" s="64"/>
+      <c r="CC11" s="64"/>
+      <c r="CD11" s="64"/>
+      <c r="CE11" s="64"/>
+      <c r="CF11" s="64"/>
+      <c r="CG11" s="64"/>
+      <c r="CH11" s="64"/>
+      <c r="CI11" s="64"/>
+      <c r="CJ11" s="64"/>
+      <c r="CK11" s="64"/>
+      <c r="CL11" s="64"/>
+      <c r="CM11" s="64"/>
+      <c r="CN11" s="64"/>
+      <c r="CO11" s="64"/>
+      <c r="CP11" s="64"/>
+      <c r="CQ11" s="64"/>
+      <c r="CR11" s="64"/>
+      <c r="CS11" s="64"/>
+      <c r="CT11" s="64"/>
+      <c r="CU11" s="64"/>
+      <c r="CV11" s="64"/>
+      <c r="CW11" s="64"/>
+      <c r="CX11" s="64"/>
+      <c r="CY11" s="64"/>
+      <c r="CZ11" s="64"/>
+      <c r="DA11" s="64"/>
+      <c r="DB11" s="64"/>
+      <c r="DC11" s="64"/>
+      <c r="DD11" s="64"/>
+      <c r="DE11" s="64"/>
+      <c r="DF11" s="64"/>
+      <c r="DG11" s="64"/>
+      <c r="DH11" s="64"/>
+      <c r="DI11" s="64"/>
+      <c r="DJ11" s="64"/>
+      <c r="DK11" s="64"/>
+      <c r="DL11" s="64"/>
+      <c r="DM11" s="64"/>
+      <c r="DN11" s="64"/>
+      <c r="DO11" s="64"/>
+      <c r="DP11" s="64"/>
+      <c r="DQ11" s="64"/>
+      <c r="DR11" s="64"/>
+      <c r="DS11" s="64"/>
+      <c r="DT11" s="64"/>
+      <c r="DU11" s="64"/>
+      <c r="DV11" s="64"/>
+      <c r="DW11" s="64"/>
+      <c r="DX11" s="64"/>
+      <c r="DY11" s="64"/>
+      <c r="DZ11" s="64"/>
+      <c r="EA11" s="64"/>
+      <c r="EB11" s="64"/>
+      <c r="EC11" s="64"/>
+      <c r="ED11" s="64"/>
+      <c r="EE11" s="64"/>
+      <c r="EF11" s="64"/>
+      <c r="EG11" s="64"/>
+      <c r="EH11" s="64"/>
+      <c r="EI11" s="64"/>
+      <c r="EJ11" s="64"/>
+      <c r="EK11" s="64"/>
+      <c r="EL11" s="64"/>
+      <c r="EM11" s="64"/>
+      <c r="EN11" s="64"/>
+      <c r="EO11" s="64"/>
+      <c r="EP11" s="64"/>
+      <c r="EQ11" s="64"/>
+      <c r="ER11" s="64"/>
+      <c r="ES11" s="64"/>
+      <c r="ET11" s="64"/>
+      <c r="EU11" s="64"/>
+      <c r="EV11" s="64"/>
+      <c r="EW11" s="64"/>
+      <c r="EX11" s="64"/>
+      <c r="EY11" s="64"/>
+      <c r="EZ11" s="64"/>
+      <c r="FA11" s="64"/>
+      <c r="FB11" s="64"/>
+      <c r="FC11" s="64"/>
+      <c r="FD11" s="64"/>
+      <c r="FE11" s="64"/>
+      <c r="FF11" s="64"/>
+      <c r="FG11" s="64"/>
+      <c r="FH11" s="64"/>
+      <c r="FI11" s="64"/>
+      <c r="FJ11" s="64"/>
+      <c r="FK11" s="64"/>
+      <c r="FL11" s="64"/>
+      <c r="FM11" s="64"/>
+      <c r="FN11" s="64"/>
+      <c r="FO11" s="64"/>
+      <c r="FP11" s="64"/>
+      <c r="FQ11" s="64"/>
+      <c r="FR11" s="64"/>
+      <c r="FS11" s="64"/>
+      <c r="FT11" s="64"/>
+      <c r="FU11" s="64"/>
+      <c r="FV11" s="64"/>
+      <c r="FW11" s="64"/>
+      <c r="FX11" s="64"/>
+      <c r="FY11" s="64"/>
+      <c r="FZ11" s="64"/>
+      <c r="GA11" s="64"/>
+      <c r="GB11" s="64"/>
+      <c r="GC11" s="64"/>
+      <c r="GD11" s="64"/>
+      <c r="GE11" s="64"/>
+      <c r="GF11" s="64"/>
+      <c r="GG11" s="64"/>
+      <c r="GH11" s="64"/>
+      <c r="GI11" s="64"/>
+      <c r="GJ11" s="64"/>
+      <c r="GK11" s="64"/>
+      <c r="GL11" s="64"/>
+      <c r="GM11" s="64"/>
+      <c r="GN11" s="64"/>
+      <c r="GO11" s="64"/>
+      <c r="GP11" s="64"/>
+      <c r="GQ11" s="64"/>
+      <c r="GR11" s="64"/>
+      <c r="GS11" s="64"/>
+      <c r="GT11" s="64"/>
+      <c r="GU11" s="64"/>
+      <c r="GV11" s="64"/>
+      <c r="GW11" s="64"/>
+      <c r="GX11" s="64"/>
+      <c r="GY11" s="64"/>
+      <c r="GZ11" s="64"/>
+      <c r="HA11" s="64"/>
+      <c r="HB11" s="64"/>
+      <c r="HC11" s="64"/>
+      <c r="HD11" s="64"/>
+      <c r="HE11" s="64"/>
+      <c r="HF11" s="64"/>
+      <c r="HG11" s="64"/>
+      <c r="HH11" s="64"/>
+      <c r="HI11" s="64"/>
+      <c r="HJ11" s="64"/>
+      <c r="HK11" s="64"/>
+      <c r="HL11" s="64"/>
+      <c r="HM11" s="64"/>
+      <c r="HN11" s="64"/>
+      <c r="HO11" s="64"/>
+      <c r="HP11" s="64"/>
+      <c r="HQ11" s="64"/>
+      <c r="HR11" s="64"/>
+      <c r="HS11" s="64"/>
+      <c r="HT11" s="64"/>
+      <c r="HU11" s="64"/>
+      <c r="HV11" s="64"/>
+      <c r="HW11" s="64"/>
+      <c r="HX11" s="64"/>
+      <c r="HY11" s="64"/>
+      <c r="HZ11" s="64"/>
+      <c r="IA11" s="64"/>
+      <c r="IB11" s="64"/>
+      <c r="IC11" s="64"/>
+      <c r="ID11" s="64"/>
+      <c r="IE11" s="64"/>
+      <c r="IF11" s="64"/>
+      <c r="IG11" s="64"/>
+      <c r="IH11" s="64"/>
+      <c r="II11" s="64"/>
+      <c r="IJ11" s="64"/>
+      <c r="IK11" s="64"/>
+      <c r="IL11" s="64"/>
+      <c r="IM11" s="64"/>
+      <c r="IN11" s="64"/>
+      <c r="IO11" s="64"/>
+      <c r="IP11" s="64"/>
+      <c r="IQ11" s="64"/>
+      <c r="IR11" s="64"/>
+      <c r="IS11" s="64"/>
+      <c r="IT11" s="64"/>
+      <c r="IU11" s="64"/>
+      <c r="IV11" s="64"/>
     </row>
     <row r="12" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1857,7 +1855,7 @@
     </row>
     <row r="19" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="14"/>
@@ -1925,24 +1923,24 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:256" s="71" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="73" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="68">
         <v>10</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="67" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
@@ -2224,32 +2222,32 @@
       <c r="F26" s="35"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:256" s="51" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:256" s="77" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49" t="s">
+      <c r="E27" s="74"/>
+      <c r="F27" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="50" t="s">
-        <v>30</v>
+      <c r="G27" s="76" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,13 +2263,13 @@
       <c r="A30" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="55" t="s">
+      <c r="E30" s="48"/>
+      <c r="F30" s="50" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -2558,270 +2556,270 @@
       </c>
     </row>
     <row r="33" spans="1:256" s="81" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="76" t="s">
+      <c r="E33" s="55"/>
+      <c r="F33" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="80"/>
-      <c r="AD33" s="80"/>
-      <c r="AE33" s="80"/>
-      <c r="AF33" s="80"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="80"/>
-      <c r="AJ33" s="80"/>
-      <c r="AK33" s="80"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="80"/>
-      <c r="AN33" s="80"/>
-      <c r="AO33" s="80"/>
-      <c r="AP33" s="80"/>
-      <c r="AQ33" s="80"/>
-      <c r="AR33" s="80"/>
-      <c r="AS33" s="80"/>
-      <c r="AT33" s="80"/>
-      <c r="AU33" s="80"/>
-      <c r="AV33" s="80"/>
-      <c r="AW33" s="80"/>
-      <c r="AX33" s="80"/>
-      <c r="AY33" s="80"/>
-      <c r="AZ33" s="80"/>
-      <c r="BA33" s="80"/>
-      <c r="BB33" s="80"/>
-      <c r="BC33" s="80"/>
-      <c r="BD33" s="80"/>
-      <c r="BE33" s="80"/>
-      <c r="BF33" s="80"/>
-      <c r="BG33" s="80"/>
-      <c r="BH33" s="80"/>
-      <c r="BI33" s="80"/>
-      <c r="BJ33" s="80"/>
-      <c r="BK33" s="80"/>
-      <c r="BL33" s="80"/>
-      <c r="BM33" s="80"/>
-      <c r="BN33" s="80"/>
-      <c r="BO33" s="80"/>
-      <c r="BP33" s="80"/>
-      <c r="BQ33" s="80"/>
-      <c r="BR33" s="80"/>
-      <c r="BS33" s="80"/>
-      <c r="BT33" s="80"/>
-      <c r="BU33" s="80"/>
-      <c r="BV33" s="80"/>
-      <c r="BW33" s="80"/>
-      <c r="BX33" s="80"/>
-      <c r="BY33" s="80"/>
-      <c r="BZ33" s="80"/>
-      <c r="CA33" s="80"/>
-      <c r="CB33" s="80"/>
-      <c r="CC33" s="80"/>
-      <c r="CD33" s="80"/>
-      <c r="CE33" s="80"/>
-      <c r="CF33" s="80"/>
-      <c r="CG33" s="80"/>
-      <c r="CH33" s="80"/>
-      <c r="CI33" s="80"/>
-      <c r="CJ33" s="80"/>
-      <c r="CK33" s="80"/>
-      <c r="CL33" s="80"/>
-      <c r="CM33" s="80"/>
-      <c r="CN33" s="80"/>
-      <c r="CO33" s="80"/>
-      <c r="CP33" s="80"/>
-      <c r="CQ33" s="80"/>
-      <c r="CR33" s="80"/>
-      <c r="CS33" s="80"/>
-      <c r="CT33" s="80"/>
-      <c r="CU33" s="80"/>
-      <c r="CV33" s="80"/>
-      <c r="CW33" s="80"/>
-      <c r="CX33" s="80"/>
-      <c r="CY33" s="80"/>
-      <c r="CZ33" s="80"/>
-      <c r="DA33" s="80"/>
-      <c r="DB33" s="80"/>
-      <c r="DC33" s="80"/>
-      <c r="DD33" s="80"/>
-      <c r="DE33" s="80"/>
-      <c r="DF33" s="80"/>
-      <c r="DG33" s="80"/>
-      <c r="DH33" s="80"/>
-      <c r="DI33" s="80"/>
-      <c r="DJ33" s="80"/>
-      <c r="DK33" s="80"/>
-      <c r="DL33" s="80"/>
-      <c r="DM33" s="80"/>
-      <c r="DN33" s="80"/>
-      <c r="DO33" s="80"/>
-      <c r="DP33" s="80"/>
-      <c r="DQ33" s="80"/>
-      <c r="DR33" s="80"/>
-      <c r="DS33" s="80"/>
-      <c r="DT33" s="80"/>
-      <c r="DU33" s="80"/>
-      <c r="DV33" s="80"/>
-      <c r="DW33" s="80"/>
-      <c r="DX33" s="80"/>
-      <c r="DY33" s="80"/>
-      <c r="DZ33" s="80"/>
-      <c r="EA33" s="80"/>
-      <c r="EB33" s="80"/>
-      <c r="EC33" s="80"/>
-      <c r="ED33" s="80"/>
-      <c r="EE33" s="80"/>
-      <c r="EF33" s="80"/>
-      <c r="EG33" s="80"/>
-      <c r="EH33" s="80"/>
-      <c r="EI33" s="80"/>
-      <c r="EJ33" s="80"/>
-      <c r="EK33" s="80"/>
-      <c r="EL33" s="80"/>
-      <c r="EM33" s="80"/>
-      <c r="EN33" s="80"/>
-      <c r="EO33" s="80"/>
-      <c r="EP33" s="80"/>
-      <c r="EQ33" s="80"/>
-      <c r="ER33" s="80"/>
-      <c r="ES33" s="80"/>
-      <c r="ET33" s="80"/>
-      <c r="EU33" s="80"/>
-      <c r="EV33" s="80"/>
-      <c r="EW33" s="80"/>
-      <c r="EX33" s="80"/>
-      <c r="EY33" s="80"/>
-      <c r="EZ33" s="80"/>
-      <c r="FA33" s="80"/>
-      <c r="FB33" s="80"/>
-      <c r="FC33" s="80"/>
-      <c r="FD33" s="80"/>
-      <c r="FE33" s="80"/>
-      <c r="FF33" s="80"/>
-      <c r="FG33" s="80"/>
-      <c r="FH33" s="80"/>
-      <c r="FI33" s="80"/>
-      <c r="FJ33" s="80"/>
-      <c r="FK33" s="80"/>
-      <c r="FL33" s="80"/>
-      <c r="FM33" s="80"/>
-      <c r="FN33" s="80"/>
-      <c r="FO33" s="80"/>
-      <c r="FP33" s="80"/>
-      <c r="FQ33" s="80"/>
-      <c r="FR33" s="80"/>
-      <c r="FS33" s="80"/>
-      <c r="FT33" s="80"/>
-      <c r="FU33" s="80"/>
-      <c r="FV33" s="80"/>
-      <c r="FW33" s="80"/>
-      <c r="FX33" s="80"/>
-      <c r="FY33" s="80"/>
-      <c r="FZ33" s="80"/>
-      <c r="GA33" s="80"/>
-      <c r="GB33" s="80"/>
-      <c r="GC33" s="80"/>
-      <c r="GD33" s="80"/>
-      <c r="GE33" s="80"/>
-      <c r="GF33" s="80"/>
-      <c r="GG33" s="80"/>
-      <c r="GH33" s="80"/>
-      <c r="GI33" s="80"/>
-      <c r="GJ33" s="80"/>
-      <c r="GK33" s="80"/>
-      <c r="GL33" s="80"/>
-      <c r="GM33" s="80"/>
-      <c r="GN33" s="80"/>
-      <c r="GO33" s="80"/>
-      <c r="GP33" s="80"/>
-      <c r="GQ33" s="80"/>
-      <c r="GR33" s="80"/>
-      <c r="GS33" s="80"/>
-      <c r="GT33" s="80"/>
-      <c r="GU33" s="80"/>
-      <c r="GV33" s="80"/>
-      <c r="GW33" s="80"/>
-      <c r="GX33" s="80"/>
-      <c r="GY33" s="80"/>
-      <c r="GZ33" s="80"/>
-      <c r="HA33" s="80"/>
-      <c r="HB33" s="80"/>
-      <c r="HC33" s="80"/>
-      <c r="HD33" s="80"/>
-      <c r="HE33" s="80"/>
-      <c r="HF33" s="80"/>
-      <c r="HG33" s="80"/>
-      <c r="HH33" s="80"/>
-      <c r="HI33" s="80"/>
-      <c r="HJ33" s="80"/>
-      <c r="HK33" s="80"/>
-      <c r="HL33" s="80"/>
-      <c r="HM33" s="80"/>
-      <c r="HN33" s="80"/>
-      <c r="HO33" s="80"/>
-      <c r="HP33" s="80"/>
-      <c r="HQ33" s="80"/>
-      <c r="HR33" s="80"/>
-      <c r="HS33" s="80"/>
-      <c r="HT33" s="80"/>
-      <c r="HU33" s="80"/>
-      <c r="HV33" s="80"/>
-      <c r="HW33" s="80"/>
-      <c r="HX33" s="80"/>
-      <c r="HY33" s="80"/>
-      <c r="HZ33" s="80"/>
-      <c r="IA33" s="80"/>
-      <c r="IB33" s="80"/>
-      <c r="IC33" s="80"/>
-      <c r="ID33" s="80"/>
-      <c r="IE33" s="80"/>
-      <c r="IF33" s="80"/>
-      <c r="IG33" s="80"/>
-      <c r="IH33" s="80"/>
-      <c r="II33" s="80"/>
-      <c r="IJ33" s="80"/>
-      <c r="IK33" s="80"/>
-      <c r="IL33" s="80"/>
-      <c r="IM33" s="80"/>
-      <c r="IN33" s="80"/>
-      <c r="IO33" s="80"/>
-      <c r="IP33" s="80"/>
-      <c r="IQ33" s="80"/>
-      <c r="IR33" s="80"/>
-      <c r="IS33" s="80"/>
-      <c r="IT33" s="80"/>
-      <c r="IU33" s="80"/>
-      <c r="IV33" s="80"/>
+      <c r="G33" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="58"/>
+      <c r="AL33" s="58"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="58"/>
+      <c r="AR33" s="58"/>
+      <c r="AS33" s="58"/>
+      <c r="AT33" s="58"/>
+      <c r="AU33" s="58"/>
+      <c r="AV33" s="58"/>
+      <c r="AW33" s="58"/>
+      <c r="AX33" s="58"/>
+      <c r="AY33" s="58"/>
+      <c r="AZ33" s="58"/>
+      <c r="BA33" s="58"/>
+      <c r="BB33" s="58"/>
+      <c r="BC33" s="58"/>
+      <c r="BD33" s="58"/>
+      <c r="BE33" s="58"/>
+      <c r="BF33" s="58"/>
+      <c r="BG33" s="58"/>
+      <c r="BH33" s="58"/>
+      <c r="BI33" s="58"/>
+      <c r="BJ33" s="58"/>
+      <c r="BK33" s="58"/>
+      <c r="BL33" s="58"/>
+      <c r="BM33" s="58"/>
+      <c r="BN33" s="58"/>
+      <c r="BO33" s="58"/>
+      <c r="BP33" s="58"/>
+      <c r="BQ33" s="58"/>
+      <c r="BR33" s="58"/>
+      <c r="BS33" s="58"/>
+      <c r="BT33" s="58"/>
+      <c r="BU33" s="58"/>
+      <c r="BV33" s="58"/>
+      <c r="BW33" s="58"/>
+      <c r="BX33" s="58"/>
+      <c r="BY33" s="58"/>
+      <c r="BZ33" s="58"/>
+      <c r="CA33" s="58"/>
+      <c r="CB33" s="58"/>
+      <c r="CC33" s="58"/>
+      <c r="CD33" s="58"/>
+      <c r="CE33" s="58"/>
+      <c r="CF33" s="58"/>
+      <c r="CG33" s="58"/>
+      <c r="CH33" s="58"/>
+      <c r="CI33" s="58"/>
+      <c r="CJ33" s="58"/>
+      <c r="CK33" s="58"/>
+      <c r="CL33" s="58"/>
+      <c r="CM33" s="58"/>
+      <c r="CN33" s="58"/>
+      <c r="CO33" s="58"/>
+      <c r="CP33" s="58"/>
+      <c r="CQ33" s="58"/>
+      <c r="CR33" s="58"/>
+      <c r="CS33" s="58"/>
+      <c r="CT33" s="58"/>
+      <c r="CU33" s="58"/>
+      <c r="CV33" s="58"/>
+      <c r="CW33" s="58"/>
+      <c r="CX33" s="58"/>
+      <c r="CY33" s="58"/>
+      <c r="CZ33" s="58"/>
+      <c r="DA33" s="58"/>
+      <c r="DB33" s="58"/>
+      <c r="DC33" s="58"/>
+      <c r="DD33" s="58"/>
+      <c r="DE33" s="58"/>
+      <c r="DF33" s="58"/>
+      <c r="DG33" s="58"/>
+      <c r="DH33" s="58"/>
+      <c r="DI33" s="58"/>
+      <c r="DJ33" s="58"/>
+      <c r="DK33" s="58"/>
+      <c r="DL33" s="58"/>
+      <c r="DM33" s="58"/>
+      <c r="DN33" s="58"/>
+      <c r="DO33" s="58"/>
+      <c r="DP33" s="58"/>
+      <c r="DQ33" s="58"/>
+      <c r="DR33" s="58"/>
+      <c r="DS33" s="58"/>
+      <c r="DT33" s="58"/>
+      <c r="DU33" s="58"/>
+      <c r="DV33" s="58"/>
+      <c r="DW33" s="58"/>
+      <c r="DX33" s="58"/>
+      <c r="DY33" s="58"/>
+      <c r="DZ33" s="58"/>
+      <c r="EA33" s="58"/>
+      <c r="EB33" s="58"/>
+      <c r="EC33" s="58"/>
+      <c r="ED33" s="58"/>
+      <c r="EE33" s="58"/>
+      <c r="EF33" s="58"/>
+      <c r="EG33" s="58"/>
+      <c r="EH33" s="58"/>
+      <c r="EI33" s="58"/>
+      <c r="EJ33" s="58"/>
+      <c r="EK33" s="58"/>
+      <c r="EL33" s="58"/>
+      <c r="EM33" s="58"/>
+      <c r="EN33" s="58"/>
+      <c r="EO33" s="58"/>
+      <c r="EP33" s="58"/>
+      <c r="EQ33" s="58"/>
+      <c r="ER33" s="58"/>
+      <c r="ES33" s="58"/>
+      <c r="ET33" s="58"/>
+      <c r="EU33" s="58"/>
+      <c r="EV33" s="58"/>
+      <c r="EW33" s="58"/>
+      <c r="EX33" s="58"/>
+      <c r="EY33" s="58"/>
+      <c r="EZ33" s="58"/>
+      <c r="FA33" s="58"/>
+      <c r="FB33" s="58"/>
+      <c r="FC33" s="58"/>
+      <c r="FD33" s="58"/>
+      <c r="FE33" s="58"/>
+      <c r="FF33" s="58"/>
+      <c r="FG33" s="58"/>
+      <c r="FH33" s="58"/>
+      <c r="FI33" s="58"/>
+      <c r="FJ33" s="58"/>
+      <c r="FK33" s="58"/>
+      <c r="FL33" s="58"/>
+      <c r="FM33" s="58"/>
+      <c r="FN33" s="58"/>
+      <c r="FO33" s="58"/>
+      <c r="FP33" s="58"/>
+      <c r="FQ33" s="58"/>
+      <c r="FR33" s="58"/>
+      <c r="FS33" s="58"/>
+      <c r="FT33" s="58"/>
+      <c r="FU33" s="58"/>
+      <c r="FV33" s="58"/>
+      <c r="FW33" s="58"/>
+      <c r="FX33" s="58"/>
+      <c r="FY33" s="58"/>
+      <c r="FZ33" s="58"/>
+      <c r="GA33" s="58"/>
+      <c r="GB33" s="58"/>
+      <c r="GC33" s="58"/>
+      <c r="GD33" s="58"/>
+      <c r="GE33" s="58"/>
+      <c r="GF33" s="58"/>
+      <c r="GG33" s="58"/>
+      <c r="GH33" s="58"/>
+      <c r="GI33" s="58"/>
+      <c r="GJ33" s="58"/>
+      <c r="GK33" s="58"/>
+      <c r="GL33" s="58"/>
+      <c r="GM33" s="58"/>
+      <c r="GN33" s="58"/>
+      <c r="GO33" s="58"/>
+      <c r="GP33" s="58"/>
+      <c r="GQ33" s="58"/>
+      <c r="GR33" s="58"/>
+      <c r="GS33" s="58"/>
+      <c r="GT33" s="58"/>
+      <c r="GU33" s="58"/>
+      <c r="GV33" s="58"/>
+      <c r="GW33" s="58"/>
+      <c r="GX33" s="58"/>
+      <c r="GY33" s="58"/>
+      <c r="GZ33" s="58"/>
+      <c r="HA33" s="58"/>
+      <c r="HB33" s="58"/>
+      <c r="HC33" s="58"/>
+      <c r="HD33" s="58"/>
+      <c r="HE33" s="58"/>
+      <c r="HF33" s="58"/>
+      <c r="HG33" s="58"/>
+      <c r="HH33" s="58"/>
+      <c r="HI33" s="58"/>
+      <c r="HJ33" s="58"/>
+      <c r="HK33" s="58"/>
+      <c r="HL33" s="58"/>
+      <c r="HM33" s="58"/>
+      <c r="HN33" s="58"/>
+      <c r="HO33" s="58"/>
+      <c r="HP33" s="58"/>
+      <c r="HQ33" s="58"/>
+      <c r="HR33" s="58"/>
+      <c r="HS33" s="58"/>
+      <c r="HT33" s="58"/>
+      <c r="HU33" s="58"/>
+      <c r="HV33" s="58"/>
+      <c r="HW33" s="58"/>
+      <c r="HX33" s="58"/>
+      <c r="HY33" s="58"/>
+      <c r="HZ33" s="58"/>
+      <c r="IA33" s="58"/>
+      <c r="IB33" s="58"/>
+      <c r="IC33" s="58"/>
+      <c r="ID33" s="58"/>
+      <c r="IE33" s="58"/>
+      <c r="IF33" s="58"/>
+      <c r="IG33" s="58"/>
+      <c r="IH33" s="58"/>
+      <c r="II33" s="58"/>
+      <c r="IJ33" s="58"/>
+      <c r="IK33" s="58"/>
+      <c r="IL33" s="58"/>
+      <c r="IM33" s="58"/>
+      <c r="IN33" s="58"/>
+      <c r="IO33" s="58"/>
+      <c r="IP33" s="58"/>
+      <c r="IQ33" s="58"/>
+      <c r="IR33" s="58"/>
+      <c r="IS33" s="58"/>
+      <c r="IT33" s="58"/>
+      <c r="IU33" s="58"/>
+      <c r="IV33" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>

--- a/doc/v3/design 2.xlsx
+++ b/doc/v3/design 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\citizen-account\doc\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B5BB6-E752-481E-A9F4-49FF88CC5F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8783E4-4B50-428E-BDE0-8CFE3E554E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>الملاحظة</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>الحاسبة التقديرية غير مطابقة للحالي كلياً</t>
-  </si>
-  <si>
-    <t>next day</t>
   </si>
   <si>
     <t>طريقة استخدام الآلة الحاسبة التقديرية</t>
@@ -264,7 +261,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,12 +296,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -424,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -586,17 +577,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,27 +600,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -643,6 +617,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,288 +1454,288 @@
       <c r="IU10" s="12"/>
       <c r="IV10" s="12"/>
     </row>
-    <row r="11" spans="1:256" s="65" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61" t="s">
+    <row r="11" spans="1:256" s="64" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61" t="s">
+      <c r="E11" s="76"/>
+      <c r="F11" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="64"/>
-      <c r="BH11" s="64"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
-      <c r="BP11" s="64"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="64"/>
-      <c r="BU11" s="64"/>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="64"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="64"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="64"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="64"/>
-      <c r="CK11" s="64"/>
-      <c r="CL11" s="64"/>
-      <c r="CM11" s="64"/>
-      <c r="CN11" s="64"/>
-      <c r="CO11" s="64"/>
-      <c r="CP11" s="64"/>
-      <c r="CQ11" s="64"/>
-      <c r="CR11" s="64"/>
-      <c r="CS11" s="64"/>
-      <c r="CT11" s="64"/>
-      <c r="CU11" s="64"/>
-      <c r="CV11" s="64"/>
-      <c r="CW11" s="64"/>
-      <c r="CX11" s="64"/>
-      <c r="CY11" s="64"/>
-      <c r="CZ11" s="64"/>
-      <c r="DA11" s="64"/>
-      <c r="DB11" s="64"/>
-      <c r="DC11" s="64"/>
-      <c r="DD11" s="64"/>
-      <c r="DE11" s="64"/>
-      <c r="DF11" s="64"/>
-      <c r="DG11" s="64"/>
-      <c r="DH11" s="64"/>
-      <c r="DI11" s="64"/>
-      <c r="DJ11" s="64"/>
-      <c r="DK11" s="64"/>
-      <c r="DL11" s="64"/>
-      <c r="DM11" s="64"/>
-      <c r="DN11" s="64"/>
-      <c r="DO11" s="64"/>
-      <c r="DP11" s="64"/>
-      <c r="DQ11" s="64"/>
-      <c r="DR11" s="64"/>
-      <c r="DS11" s="64"/>
-      <c r="DT11" s="64"/>
-      <c r="DU11" s="64"/>
-      <c r="DV11" s="64"/>
-      <c r="DW11" s="64"/>
-      <c r="DX11" s="64"/>
-      <c r="DY11" s="64"/>
-      <c r="DZ11" s="64"/>
-      <c r="EA11" s="64"/>
-      <c r="EB11" s="64"/>
-      <c r="EC11" s="64"/>
-      <c r="ED11" s="64"/>
-      <c r="EE11" s="64"/>
-      <c r="EF11" s="64"/>
-      <c r="EG11" s="64"/>
-      <c r="EH11" s="64"/>
-      <c r="EI11" s="64"/>
-      <c r="EJ11" s="64"/>
-      <c r="EK11" s="64"/>
-      <c r="EL11" s="64"/>
-      <c r="EM11" s="64"/>
-      <c r="EN11" s="64"/>
-      <c r="EO11" s="64"/>
-      <c r="EP11" s="64"/>
-      <c r="EQ11" s="64"/>
-      <c r="ER11" s="64"/>
-      <c r="ES11" s="64"/>
-      <c r="ET11" s="64"/>
-      <c r="EU11" s="64"/>
-      <c r="EV11" s="64"/>
-      <c r="EW11" s="64"/>
-      <c r="EX11" s="64"/>
-      <c r="EY11" s="64"/>
-      <c r="EZ11" s="64"/>
-      <c r="FA11" s="64"/>
-      <c r="FB11" s="64"/>
-      <c r="FC11" s="64"/>
-      <c r="FD11" s="64"/>
-      <c r="FE11" s="64"/>
-      <c r="FF11" s="64"/>
-      <c r="FG11" s="64"/>
-      <c r="FH11" s="64"/>
-      <c r="FI11" s="64"/>
-      <c r="FJ11" s="64"/>
-      <c r="FK11" s="64"/>
-      <c r="FL11" s="64"/>
-      <c r="FM11" s="64"/>
-      <c r="FN11" s="64"/>
-      <c r="FO11" s="64"/>
-      <c r="FP11" s="64"/>
-      <c r="FQ11" s="64"/>
-      <c r="FR11" s="64"/>
-      <c r="FS11" s="64"/>
-      <c r="FT11" s="64"/>
-      <c r="FU11" s="64"/>
-      <c r="FV11" s="64"/>
-      <c r="FW11" s="64"/>
-      <c r="FX11" s="64"/>
-      <c r="FY11" s="64"/>
-      <c r="FZ11" s="64"/>
-      <c r="GA11" s="64"/>
-      <c r="GB11" s="64"/>
-      <c r="GC11" s="64"/>
-      <c r="GD11" s="64"/>
-      <c r="GE11" s="64"/>
-      <c r="GF11" s="64"/>
-      <c r="GG11" s="64"/>
-      <c r="GH11" s="64"/>
-      <c r="GI11" s="64"/>
-      <c r="GJ11" s="64"/>
-      <c r="GK11" s="64"/>
-      <c r="GL11" s="64"/>
-      <c r="GM11" s="64"/>
-      <c r="GN11" s="64"/>
-      <c r="GO11" s="64"/>
-      <c r="GP11" s="64"/>
-      <c r="GQ11" s="64"/>
-      <c r="GR11" s="64"/>
-      <c r="GS11" s="64"/>
-      <c r="GT11" s="64"/>
-      <c r="GU11" s="64"/>
-      <c r="GV11" s="64"/>
-      <c r="GW11" s="64"/>
-      <c r="GX11" s="64"/>
-      <c r="GY11" s="64"/>
-      <c r="GZ11" s="64"/>
-      <c r="HA11" s="64"/>
-      <c r="HB11" s="64"/>
-      <c r="HC11" s="64"/>
-      <c r="HD11" s="64"/>
-      <c r="HE11" s="64"/>
-      <c r="HF11" s="64"/>
-      <c r="HG11" s="64"/>
-      <c r="HH11" s="64"/>
-      <c r="HI11" s="64"/>
-      <c r="HJ11" s="64"/>
-      <c r="HK11" s="64"/>
-      <c r="HL11" s="64"/>
-      <c r="HM11" s="64"/>
-      <c r="HN11" s="64"/>
-      <c r="HO11" s="64"/>
-      <c r="HP11" s="64"/>
-      <c r="HQ11" s="64"/>
-      <c r="HR11" s="64"/>
-      <c r="HS11" s="64"/>
-      <c r="HT11" s="64"/>
-      <c r="HU11" s="64"/>
-      <c r="HV11" s="64"/>
-      <c r="HW11" s="64"/>
-      <c r="HX11" s="64"/>
-      <c r="HY11" s="64"/>
-      <c r="HZ11" s="64"/>
-      <c r="IA11" s="64"/>
-      <c r="IB11" s="64"/>
-      <c r="IC11" s="64"/>
-      <c r="ID11" s="64"/>
-      <c r="IE11" s="64"/>
-      <c r="IF11" s="64"/>
-      <c r="IG11" s="64"/>
-      <c r="IH11" s="64"/>
-      <c r="II11" s="64"/>
-      <c r="IJ11" s="64"/>
-      <c r="IK11" s="64"/>
-      <c r="IL11" s="64"/>
-      <c r="IM11" s="64"/>
-      <c r="IN11" s="64"/>
-      <c r="IO11" s="64"/>
-      <c r="IP11" s="64"/>
-      <c r="IQ11" s="64"/>
-      <c r="IR11" s="64"/>
-      <c r="IS11" s="64"/>
-      <c r="IT11" s="64"/>
-      <c r="IU11" s="64"/>
-      <c r="IV11" s="64"/>
+      <c r="G11" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="63"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="63"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="63"/>
+      <c r="BJ11" s="63"/>
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="63"/>
+      <c r="BM11" s="63"/>
+      <c r="BN11" s="63"/>
+      <c r="BO11" s="63"/>
+      <c r="BP11" s="63"/>
+      <c r="BQ11" s="63"/>
+      <c r="BR11" s="63"/>
+      <c r="BS11" s="63"/>
+      <c r="BT11" s="63"/>
+      <c r="BU11" s="63"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="63"/>
+      <c r="BX11" s="63"/>
+      <c r="BY11" s="63"/>
+      <c r="BZ11" s="63"/>
+      <c r="CA11" s="63"/>
+      <c r="CB11" s="63"/>
+      <c r="CC11" s="63"/>
+      <c r="CD11" s="63"/>
+      <c r="CE11" s="63"/>
+      <c r="CF11" s="63"/>
+      <c r="CG11" s="63"/>
+      <c r="CH11" s="63"/>
+      <c r="CI11" s="63"/>
+      <c r="CJ11" s="63"/>
+      <c r="CK11" s="63"/>
+      <c r="CL11" s="63"/>
+      <c r="CM11" s="63"/>
+      <c r="CN11" s="63"/>
+      <c r="CO11" s="63"/>
+      <c r="CP11" s="63"/>
+      <c r="CQ11" s="63"/>
+      <c r="CR11" s="63"/>
+      <c r="CS11" s="63"/>
+      <c r="CT11" s="63"/>
+      <c r="CU11" s="63"/>
+      <c r="CV11" s="63"/>
+      <c r="CW11" s="63"/>
+      <c r="CX11" s="63"/>
+      <c r="CY11" s="63"/>
+      <c r="CZ11" s="63"/>
+      <c r="DA11" s="63"/>
+      <c r="DB11" s="63"/>
+      <c r="DC11" s="63"/>
+      <c r="DD11" s="63"/>
+      <c r="DE11" s="63"/>
+      <c r="DF11" s="63"/>
+      <c r="DG11" s="63"/>
+      <c r="DH11" s="63"/>
+      <c r="DI11" s="63"/>
+      <c r="DJ11" s="63"/>
+      <c r="DK11" s="63"/>
+      <c r="DL11" s="63"/>
+      <c r="DM11" s="63"/>
+      <c r="DN11" s="63"/>
+      <c r="DO11" s="63"/>
+      <c r="DP11" s="63"/>
+      <c r="DQ11" s="63"/>
+      <c r="DR11" s="63"/>
+      <c r="DS11" s="63"/>
+      <c r="DT11" s="63"/>
+      <c r="DU11" s="63"/>
+      <c r="DV11" s="63"/>
+      <c r="DW11" s="63"/>
+      <c r="DX11" s="63"/>
+      <c r="DY11" s="63"/>
+      <c r="DZ11" s="63"/>
+      <c r="EA11" s="63"/>
+      <c r="EB11" s="63"/>
+      <c r="EC11" s="63"/>
+      <c r="ED11" s="63"/>
+      <c r="EE11" s="63"/>
+      <c r="EF11" s="63"/>
+      <c r="EG11" s="63"/>
+      <c r="EH11" s="63"/>
+      <c r="EI11" s="63"/>
+      <c r="EJ11" s="63"/>
+      <c r="EK11" s="63"/>
+      <c r="EL11" s="63"/>
+      <c r="EM11" s="63"/>
+      <c r="EN11" s="63"/>
+      <c r="EO11" s="63"/>
+      <c r="EP11" s="63"/>
+      <c r="EQ11" s="63"/>
+      <c r="ER11" s="63"/>
+      <c r="ES11" s="63"/>
+      <c r="ET11" s="63"/>
+      <c r="EU11" s="63"/>
+      <c r="EV11" s="63"/>
+      <c r="EW11" s="63"/>
+      <c r="EX11" s="63"/>
+      <c r="EY11" s="63"/>
+      <c r="EZ11" s="63"/>
+      <c r="FA11" s="63"/>
+      <c r="FB11" s="63"/>
+      <c r="FC11" s="63"/>
+      <c r="FD11" s="63"/>
+      <c r="FE11" s="63"/>
+      <c r="FF11" s="63"/>
+      <c r="FG11" s="63"/>
+      <c r="FH11" s="63"/>
+      <c r="FI11" s="63"/>
+      <c r="FJ11" s="63"/>
+      <c r="FK11" s="63"/>
+      <c r="FL11" s="63"/>
+      <c r="FM11" s="63"/>
+      <c r="FN11" s="63"/>
+      <c r="FO11" s="63"/>
+      <c r="FP11" s="63"/>
+      <c r="FQ11" s="63"/>
+      <c r="FR11" s="63"/>
+      <c r="FS11" s="63"/>
+      <c r="FT11" s="63"/>
+      <c r="FU11" s="63"/>
+      <c r="FV11" s="63"/>
+      <c r="FW11" s="63"/>
+      <c r="FX11" s="63"/>
+      <c r="FY11" s="63"/>
+      <c r="FZ11" s="63"/>
+      <c r="GA11" s="63"/>
+      <c r="GB11" s="63"/>
+      <c r="GC11" s="63"/>
+      <c r="GD11" s="63"/>
+      <c r="GE11" s="63"/>
+      <c r="GF11" s="63"/>
+      <c r="GG11" s="63"/>
+      <c r="GH11" s="63"/>
+      <c r="GI11" s="63"/>
+      <c r="GJ11" s="63"/>
+      <c r="GK11" s="63"/>
+      <c r="GL11" s="63"/>
+      <c r="GM11" s="63"/>
+      <c r="GN11" s="63"/>
+      <c r="GO11" s="63"/>
+      <c r="GP11" s="63"/>
+      <c r="GQ11" s="63"/>
+      <c r="GR11" s="63"/>
+      <c r="GS11" s="63"/>
+      <c r="GT11" s="63"/>
+      <c r="GU11" s="63"/>
+      <c r="GV11" s="63"/>
+      <c r="GW11" s="63"/>
+      <c r="GX11" s="63"/>
+      <c r="GY11" s="63"/>
+      <c r="GZ11" s="63"/>
+      <c r="HA11" s="63"/>
+      <c r="HB11" s="63"/>
+      <c r="HC11" s="63"/>
+      <c r="HD11" s="63"/>
+      <c r="HE11" s="63"/>
+      <c r="HF11" s="63"/>
+      <c r="HG11" s="63"/>
+      <c r="HH11" s="63"/>
+      <c r="HI11" s="63"/>
+      <c r="HJ11" s="63"/>
+      <c r="HK11" s="63"/>
+      <c r="HL11" s="63"/>
+      <c r="HM11" s="63"/>
+      <c r="HN11" s="63"/>
+      <c r="HO11" s="63"/>
+      <c r="HP11" s="63"/>
+      <c r="HQ11" s="63"/>
+      <c r="HR11" s="63"/>
+      <c r="HS11" s="63"/>
+      <c r="HT11" s="63"/>
+      <c r="HU11" s="63"/>
+      <c r="HV11" s="63"/>
+      <c r="HW11" s="63"/>
+      <c r="HX11" s="63"/>
+      <c r="HY11" s="63"/>
+      <c r="HZ11" s="63"/>
+      <c r="IA11" s="63"/>
+      <c r="IB11" s="63"/>
+      <c r="IC11" s="63"/>
+      <c r="ID11" s="63"/>
+      <c r="IE11" s="63"/>
+      <c r="IF11" s="63"/>
+      <c r="IG11" s="63"/>
+      <c r="IH11" s="63"/>
+      <c r="II11" s="63"/>
+      <c r="IJ11" s="63"/>
+      <c r="IK11" s="63"/>
+      <c r="IL11" s="63"/>
+      <c r="IM11" s="63"/>
+      <c r="IN11" s="63"/>
+      <c r="IO11" s="63"/>
+      <c r="IP11" s="63"/>
+      <c r="IQ11" s="63"/>
+      <c r="IR11" s="63"/>
+      <c r="IS11" s="63"/>
+      <c r="IT11" s="63"/>
+      <c r="IU11" s="63"/>
+      <c r="IV11" s="63"/>
     </row>
     <row r="12" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="24">
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>7</v>
@@ -1758,17 +1744,17 @@
     <row r="13" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="30">
         <v>7</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>7</v>
@@ -1785,20 +1771,20 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="37">
         <v>8</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>7</v>
@@ -1807,15 +1793,15 @@
     <row r="16" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>7</v>
@@ -1824,15 +1810,15 @@
     <row r="17" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>7</v>
@@ -1841,13 +1827,13 @@
     <row r="18" spans="1:256" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>7</v>
@@ -1856,28 +1842,28 @@
     <row r="19" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:256" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>7</v>
@@ -1894,20 +1880,20 @@
     </row>
     <row r="22" spans="1:256" s="26" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="41">
         <v>9</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>7</v>
@@ -1922,292 +1908,292 @@
       <c r="F23" s="35"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:256" s="71" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+    <row r="24" spans="1:256" s="64" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="67" t="s">
+      <c r="E24" s="61">
+        <v>10</v>
+      </c>
+      <c r="F24" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="68">
-        <v>10</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="70"/>
-      <c r="AH24" s="70"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="70"/>
-      <c r="AO24" s="70"/>
-      <c r="AP24" s="70"/>
-      <c r="AQ24" s="70"/>
-      <c r="AR24" s="70"/>
-      <c r="AS24" s="70"/>
-      <c r="AT24" s="70"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="70"/>
-      <c r="AX24" s="70"/>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="70"/>
-      <c r="BA24" s="70"/>
-      <c r="BB24" s="70"/>
-      <c r="BC24" s="70"/>
-      <c r="BD24" s="70"/>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="70"/>
-      <c r="BG24" s="70"/>
-      <c r="BH24" s="70"/>
-      <c r="BI24" s="70"/>
-      <c r="BJ24" s="70"/>
-      <c r="BK24" s="70"/>
-      <c r="BL24" s="70"/>
-      <c r="BM24" s="70"/>
-      <c r="BN24" s="70"/>
-      <c r="BO24" s="70"/>
-      <c r="BP24" s="70"/>
-      <c r="BQ24" s="70"/>
-      <c r="BR24" s="70"/>
-      <c r="BS24" s="70"/>
-      <c r="BT24" s="70"/>
-      <c r="BU24" s="70"/>
-      <c r="BV24" s="70"/>
-      <c r="BW24" s="70"/>
-      <c r="BX24" s="70"/>
-      <c r="BY24" s="70"/>
-      <c r="BZ24" s="70"/>
-      <c r="CA24" s="70"/>
-      <c r="CB24" s="70"/>
-      <c r="CC24" s="70"/>
-      <c r="CD24" s="70"/>
-      <c r="CE24" s="70"/>
-      <c r="CF24" s="70"/>
-      <c r="CG24" s="70"/>
-      <c r="CH24" s="70"/>
-      <c r="CI24" s="70"/>
-      <c r="CJ24" s="70"/>
-      <c r="CK24" s="70"/>
-      <c r="CL24" s="70"/>
-      <c r="CM24" s="70"/>
-      <c r="CN24" s="70"/>
-      <c r="CO24" s="70"/>
-      <c r="CP24" s="70"/>
-      <c r="CQ24" s="70"/>
-      <c r="CR24" s="70"/>
-      <c r="CS24" s="70"/>
-      <c r="CT24" s="70"/>
-      <c r="CU24" s="70"/>
-      <c r="CV24" s="70"/>
-      <c r="CW24" s="70"/>
-      <c r="CX24" s="70"/>
-      <c r="CY24" s="70"/>
-      <c r="CZ24" s="70"/>
-      <c r="DA24" s="70"/>
-      <c r="DB24" s="70"/>
-      <c r="DC24" s="70"/>
-      <c r="DD24" s="70"/>
-      <c r="DE24" s="70"/>
-      <c r="DF24" s="70"/>
-      <c r="DG24" s="70"/>
-      <c r="DH24" s="70"/>
-      <c r="DI24" s="70"/>
-      <c r="DJ24" s="70"/>
-      <c r="DK24" s="70"/>
-      <c r="DL24" s="70"/>
-      <c r="DM24" s="70"/>
-      <c r="DN24" s="70"/>
-      <c r="DO24" s="70"/>
-      <c r="DP24" s="70"/>
-      <c r="DQ24" s="70"/>
-      <c r="DR24" s="70"/>
-      <c r="DS24" s="70"/>
-      <c r="DT24" s="70"/>
-      <c r="DU24" s="70"/>
-      <c r="DV24" s="70"/>
-      <c r="DW24" s="70"/>
-      <c r="DX24" s="70"/>
-      <c r="DY24" s="70"/>
-      <c r="DZ24" s="70"/>
-      <c r="EA24" s="70"/>
-      <c r="EB24" s="70"/>
-      <c r="EC24" s="70"/>
-      <c r="ED24" s="70"/>
-      <c r="EE24" s="70"/>
-      <c r="EF24" s="70"/>
-      <c r="EG24" s="70"/>
-      <c r="EH24" s="70"/>
-      <c r="EI24" s="70"/>
-      <c r="EJ24" s="70"/>
-      <c r="EK24" s="70"/>
-      <c r="EL24" s="70"/>
-      <c r="EM24" s="70"/>
-      <c r="EN24" s="70"/>
-      <c r="EO24" s="70"/>
-      <c r="EP24" s="70"/>
-      <c r="EQ24" s="70"/>
-      <c r="ER24" s="70"/>
-      <c r="ES24" s="70"/>
-      <c r="ET24" s="70"/>
-      <c r="EU24" s="70"/>
-      <c r="EV24" s="70"/>
-      <c r="EW24" s="70"/>
-      <c r="EX24" s="70"/>
-      <c r="EY24" s="70"/>
-      <c r="EZ24" s="70"/>
-      <c r="FA24" s="70"/>
-      <c r="FB24" s="70"/>
-      <c r="FC24" s="70"/>
-      <c r="FD24" s="70"/>
-      <c r="FE24" s="70"/>
-      <c r="FF24" s="70"/>
-      <c r="FG24" s="70"/>
-      <c r="FH24" s="70"/>
-      <c r="FI24" s="70"/>
-      <c r="FJ24" s="70"/>
-      <c r="FK24" s="70"/>
-      <c r="FL24" s="70"/>
-      <c r="FM24" s="70"/>
-      <c r="FN24" s="70"/>
-      <c r="FO24" s="70"/>
-      <c r="FP24" s="70"/>
-      <c r="FQ24" s="70"/>
-      <c r="FR24" s="70"/>
-      <c r="FS24" s="70"/>
-      <c r="FT24" s="70"/>
-      <c r="FU24" s="70"/>
-      <c r="FV24" s="70"/>
-      <c r="FW24" s="70"/>
-      <c r="FX24" s="70"/>
-      <c r="FY24" s="70"/>
-      <c r="FZ24" s="70"/>
-      <c r="GA24" s="70"/>
-      <c r="GB24" s="70"/>
-      <c r="GC24" s="70"/>
-      <c r="GD24" s="70"/>
-      <c r="GE24" s="70"/>
-      <c r="GF24" s="70"/>
-      <c r="GG24" s="70"/>
-      <c r="GH24" s="70"/>
-      <c r="GI24" s="70"/>
-      <c r="GJ24" s="70"/>
-      <c r="GK24" s="70"/>
-      <c r="GL24" s="70"/>
-      <c r="GM24" s="70"/>
-      <c r="GN24" s="70"/>
-      <c r="GO24" s="70"/>
-      <c r="GP24" s="70"/>
-      <c r="GQ24" s="70"/>
-      <c r="GR24" s="70"/>
-      <c r="GS24" s="70"/>
-      <c r="GT24" s="70"/>
-      <c r="GU24" s="70"/>
-      <c r="GV24" s="70"/>
-      <c r="GW24" s="70"/>
-      <c r="GX24" s="70"/>
-      <c r="GY24" s="70"/>
-      <c r="GZ24" s="70"/>
-      <c r="HA24" s="70"/>
-      <c r="HB24" s="70"/>
-      <c r="HC24" s="70"/>
-      <c r="HD24" s="70"/>
-      <c r="HE24" s="70"/>
-      <c r="HF24" s="70"/>
-      <c r="HG24" s="70"/>
-      <c r="HH24" s="70"/>
-      <c r="HI24" s="70"/>
-      <c r="HJ24" s="70"/>
-      <c r="HK24" s="70"/>
-      <c r="HL24" s="70"/>
-      <c r="HM24" s="70"/>
-      <c r="HN24" s="70"/>
-      <c r="HO24" s="70"/>
-      <c r="HP24" s="70"/>
-      <c r="HQ24" s="70"/>
-      <c r="HR24" s="70"/>
-      <c r="HS24" s="70"/>
-      <c r="HT24" s="70"/>
-      <c r="HU24" s="70"/>
-      <c r="HV24" s="70"/>
-      <c r="HW24" s="70"/>
-      <c r="HX24" s="70"/>
-      <c r="HY24" s="70"/>
-      <c r="HZ24" s="70"/>
-      <c r="IA24" s="70"/>
-      <c r="IB24" s="70"/>
-      <c r="IC24" s="70"/>
-      <c r="ID24" s="70"/>
-      <c r="IE24" s="70"/>
-      <c r="IF24" s="70"/>
-      <c r="IG24" s="70"/>
-      <c r="IH24" s="70"/>
-      <c r="II24" s="70"/>
-      <c r="IJ24" s="70"/>
-      <c r="IK24" s="70"/>
-      <c r="IL24" s="70"/>
-      <c r="IM24" s="70"/>
-      <c r="IN24" s="70"/>
-      <c r="IO24" s="70"/>
-      <c r="IP24" s="70"/>
-      <c r="IQ24" s="70"/>
-      <c r="IR24" s="70"/>
-      <c r="IS24" s="70"/>
-      <c r="IT24" s="70"/>
-      <c r="IU24" s="70"/>
-      <c r="IV24" s="70"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="63"/>
+      <c r="AQ24" s="63"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="63"/>
+      <c r="AW24" s="63"/>
+      <c r="AX24" s="63"/>
+      <c r="AY24" s="63"/>
+      <c r="AZ24" s="63"/>
+      <c r="BA24" s="63"/>
+      <c r="BB24" s="63"/>
+      <c r="BC24" s="63"/>
+      <c r="BD24" s="63"/>
+      <c r="BE24" s="63"/>
+      <c r="BF24" s="63"/>
+      <c r="BG24" s="63"/>
+      <c r="BH24" s="63"/>
+      <c r="BI24" s="63"/>
+      <c r="BJ24" s="63"/>
+      <c r="BK24" s="63"/>
+      <c r="BL24" s="63"/>
+      <c r="BM24" s="63"/>
+      <c r="BN24" s="63"/>
+      <c r="BO24" s="63"/>
+      <c r="BP24" s="63"/>
+      <c r="BQ24" s="63"/>
+      <c r="BR24" s="63"/>
+      <c r="BS24" s="63"/>
+      <c r="BT24" s="63"/>
+      <c r="BU24" s="63"/>
+      <c r="BV24" s="63"/>
+      <c r="BW24" s="63"/>
+      <c r="BX24" s="63"/>
+      <c r="BY24" s="63"/>
+      <c r="BZ24" s="63"/>
+      <c r="CA24" s="63"/>
+      <c r="CB24" s="63"/>
+      <c r="CC24" s="63"/>
+      <c r="CD24" s="63"/>
+      <c r="CE24" s="63"/>
+      <c r="CF24" s="63"/>
+      <c r="CG24" s="63"/>
+      <c r="CH24" s="63"/>
+      <c r="CI24" s="63"/>
+      <c r="CJ24" s="63"/>
+      <c r="CK24" s="63"/>
+      <c r="CL24" s="63"/>
+      <c r="CM24" s="63"/>
+      <c r="CN24" s="63"/>
+      <c r="CO24" s="63"/>
+      <c r="CP24" s="63"/>
+      <c r="CQ24" s="63"/>
+      <c r="CR24" s="63"/>
+      <c r="CS24" s="63"/>
+      <c r="CT24" s="63"/>
+      <c r="CU24" s="63"/>
+      <c r="CV24" s="63"/>
+      <c r="CW24" s="63"/>
+      <c r="CX24" s="63"/>
+      <c r="CY24" s="63"/>
+      <c r="CZ24" s="63"/>
+      <c r="DA24" s="63"/>
+      <c r="DB24" s="63"/>
+      <c r="DC24" s="63"/>
+      <c r="DD24" s="63"/>
+      <c r="DE24" s="63"/>
+      <c r="DF24" s="63"/>
+      <c r="DG24" s="63"/>
+      <c r="DH24" s="63"/>
+      <c r="DI24" s="63"/>
+      <c r="DJ24" s="63"/>
+      <c r="DK24" s="63"/>
+      <c r="DL24" s="63"/>
+      <c r="DM24" s="63"/>
+      <c r="DN24" s="63"/>
+      <c r="DO24" s="63"/>
+      <c r="DP24" s="63"/>
+      <c r="DQ24" s="63"/>
+      <c r="DR24" s="63"/>
+      <c r="DS24" s="63"/>
+      <c r="DT24" s="63"/>
+      <c r="DU24" s="63"/>
+      <c r="DV24" s="63"/>
+      <c r="DW24" s="63"/>
+      <c r="DX24" s="63"/>
+      <c r="DY24" s="63"/>
+      <c r="DZ24" s="63"/>
+      <c r="EA24" s="63"/>
+      <c r="EB24" s="63"/>
+      <c r="EC24" s="63"/>
+      <c r="ED24" s="63"/>
+      <c r="EE24" s="63"/>
+      <c r="EF24" s="63"/>
+      <c r="EG24" s="63"/>
+      <c r="EH24" s="63"/>
+      <c r="EI24" s="63"/>
+      <c r="EJ24" s="63"/>
+      <c r="EK24" s="63"/>
+      <c r="EL24" s="63"/>
+      <c r="EM24" s="63"/>
+      <c r="EN24" s="63"/>
+      <c r="EO24" s="63"/>
+      <c r="EP24" s="63"/>
+      <c r="EQ24" s="63"/>
+      <c r="ER24" s="63"/>
+      <c r="ES24" s="63"/>
+      <c r="ET24" s="63"/>
+      <c r="EU24" s="63"/>
+      <c r="EV24" s="63"/>
+      <c r="EW24" s="63"/>
+      <c r="EX24" s="63"/>
+      <c r="EY24" s="63"/>
+      <c r="EZ24" s="63"/>
+      <c r="FA24" s="63"/>
+      <c r="FB24" s="63"/>
+      <c r="FC24" s="63"/>
+      <c r="FD24" s="63"/>
+      <c r="FE24" s="63"/>
+      <c r="FF24" s="63"/>
+      <c r="FG24" s="63"/>
+      <c r="FH24" s="63"/>
+      <c r="FI24" s="63"/>
+      <c r="FJ24" s="63"/>
+      <c r="FK24" s="63"/>
+      <c r="FL24" s="63"/>
+      <c r="FM24" s="63"/>
+      <c r="FN24" s="63"/>
+      <c r="FO24" s="63"/>
+      <c r="FP24" s="63"/>
+      <c r="FQ24" s="63"/>
+      <c r="FR24" s="63"/>
+      <c r="FS24" s="63"/>
+      <c r="FT24" s="63"/>
+      <c r="FU24" s="63"/>
+      <c r="FV24" s="63"/>
+      <c r="FW24" s="63"/>
+      <c r="FX24" s="63"/>
+      <c r="FY24" s="63"/>
+      <c r="FZ24" s="63"/>
+      <c r="GA24" s="63"/>
+      <c r="GB24" s="63"/>
+      <c r="GC24" s="63"/>
+      <c r="GD24" s="63"/>
+      <c r="GE24" s="63"/>
+      <c r="GF24" s="63"/>
+      <c r="GG24" s="63"/>
+      <c r="GH24" s="63"/>
+      <c r="GI24" s="63"/>
+      <c r="GJ24" s="63"/>
+      <c r="GK24" s="63"/>
+      <c r="GL24" s="63"/>
+      <c r="GM24" s="63"/>
+      <c r="GN24" s="63"/>
+      <c r="GO24" s="63"/>
+      <c r="GP24" s="63"/>
+      <c r="GQ24" s="63"/>
+      <c r="GR24" s="63"/>
+      <c r="GS24" s="63"/>
+      <c r="GT24" s="63"/>
+      <c r="GU24" s="63"/>
+      <c r="GV24" s="63"/>
+      <c r="GW24" s="63"/>
+      <c r="GX24" s="63"/>
+      <c r="GY24" s="63"/>
+      <c r="GZ24" s="63"/>
+      <c r="HA24" s="63"/>
+      <c r="HB24" s="63"/>
+      <c r="HC24" s="63"/>
+      <c r="HD24" s="63"/>
+      <c r="HE24" s="63"/>
+      <c r="HF24" s="63"/>
+      <c r="HG24" s="63"/>
+      <c r="HH24" s="63"/>
+      <c r="HI24" s="63"/>
+      <c r="HJ24" s="63"/>
+      <c r="HK24" s="63"/>
+      <c r="HL24" s="63"/>
+      <c r="HM24" s="63"/>
+      <c r="HN24" s="63"/>
+      <c r="HO24" s="63"/>
+      <c r="HP24" s="63"/>
+      <c r="HQ24" s="63"/>
+      <c r="HR24" s="63"/>
+      <c r="HS24" s="63"/>
+      <c r="HT24" s="63"/>
+      <c r="HU24" s="63"/>
+      <c r="HV24" s="63"/>
+      <c r="HW24" s="63"/>
+      <c r="HX24" s="63"/>
+      <c r="HY24" s="63"/>
+      <c r="HZ24" s="63"/>
+      <c r="IA24" s="63"/>
+      <c r="IB24" s="63"/>
+      <c r="IC24" s="63"/>
+      <c r="ID24" s="63"/>
+      <c r="IE24" s="63"/>
+      <c r="IF24" s="63"/>
+      <c r="IG24" s="63"/>
+      <c r="IH24" s="63"/>
+      <c r="II24" s="63"/>
+      <c r="IJ24" s="63"/>
+      <c r="IK24" s="63"/>
+      <c r="IL24" s="63"/>
+      <c r="IM24" s="63"/>
+      <c r="IN24" s="63"/>
+      <c r="IO24" s="63"/>
+      <c r="IP24" s="63"/>
+      <c r="IQ24" s="63"/>
+      <c r="IR24" s="63"/>
+      <c r="IS24" s="63"/>
+      <c r="IT24" s="63"/>
+      <c r="IU24" s="63"/>
+      <c r="IV24" s="63"/>
     </row>
     <row r="25" spans="1:256" s="12" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>61</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="45">
         <v>11</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>7</v>
@@ -2222,22 +2208,22 @@
       <c r="F26" s="35"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:256" s="77" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+    <row r="27" spans="1:256" s="70" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75" t="s">
+      <c r="E27" s="67"/>
+      <c r="F27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="69" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2261,16 +2247,16 @@
     </row>
     <row r="30" spans="1:256" s="29" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
       <c r="D30" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>7</v>
@@ -2536,39 +2522,39 @@
     </row>
     <row r="32" spans="1:256" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="37">
         <v>12</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:256" s="81" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
+    <row r="33" spans="1:256" s="74" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
       <c r="B33" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="72" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="79" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="73" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="58"/>
